--- a/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
+++ b/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
@@ -2634,13 +2634,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2656,6 +2649,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2964,15 +2964,15 @@
   <dimension ref="A1:M414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O35" sqref="O35"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="12" customWidth="1"/>
     <col min="2" max="3" width="15.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="29" customWidth="1"/>
     <col min="5" max="10" width="35.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="9"/>
@@ -2982,13 +2982,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3013,17 +3013,17 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32" t="s">
         <v>634</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
       <c r="C3" s="2">
         <v>3000</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>774</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3067,7 +3067,7 @@
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>775</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3102,7 +3102,7 @@
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>776</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3137,7 +3137,7 @@
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>777</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3172,7 +3172,7 @@
       <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>778</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -3207,7 +3207,7 @@
       <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>779</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3242,7 +3242,7 @@
       <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>780</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3277,7 +3277,7 @@
       <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>781</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -3312,7 +3312,7 @@
       <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>782</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3347,7 +3347,7 @@
       <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>783</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3382,7 +3382,7 @@
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="23" t="s">
         <v>784</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -3417,7 +3417,7 @@
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>785</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3452,7 +3452,7 @@
       <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>786</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -3487,7 +3487,7 @@
       <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>787</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -3522,7 +3522,7 @@
       <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>788</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3557,7 +3557,7 @@
       <c r="C18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>789</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -3592,7 +3592,7 @@
       <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>790</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -3627,7 +3627,7 @@
       <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>791</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3662,7 +3662,7 @@
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>792</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -3697,7 +3697,7 @@
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>793</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -3732,7 +3732,7 @@
       <c r="C23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="23" t="s">
         <v>794</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3767,7 +3767,7 @@
       <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>795</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -3802,7 +3802,7 @@
       <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>796</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3837,7 +3837,7 @@
       <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="23" t="s">
         <v>797</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3872,7 +3872,7 @@
       <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="23" t="s">
         <v>798</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3907,7 +3907,7 @@
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>799</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3942,7 +3942,7 @@
       <c r="C29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>800</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3977,7 +3977,7 @@
       <c r="C30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>801</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -4012,7 +4012,7 @@
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>802</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -4047,7 +4047,7 @@
       <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>803</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4082,7 +4082,7 @@
       <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>804</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -4117,7 +4117,7 @@
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="23" t="s">
         <v>805</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -4152,7 +4152,7 @@
       <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="23" t="s">
         <v>806</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4186,7 +4186,7 @@
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>808</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -4223,7 +4223,7 @@
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>814</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -4260,7 +4260,7 @@
       <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="23" t="s">
         <v>815</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -4297,7 +4297,7 @@
       <c r="C39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>807</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -4334,7 +4334,7 @@
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -4371,7 +4371,7 @@
       <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -4399,14 +4399,14 @@
       <c r="A42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="31">
         <f t="shared" si="2"/>
         <v>2107</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="30" t="s">
         <v>816</v>
       </c>
       <c r="E42" s="19" t="s">
@@ -4428,7 +4428,7 @@
         <v>812</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="25" t="s">
+      <c r="L42" s="22" t="s">
         <v>824</v>
       </c>
       <c r="M42" s="20"/>
@@ -4437,14 +4437,14 @@
       <c r="A43" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="34">
+      <c r="B43" s="31">
         <f t="shared" si="2"/>
         <v>2108</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>817</v>
       </c>
       <c r="E43" s="19" t="s">
@@ -4466,7 +4466,7 @@
         <v>813</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="25" t="s">
+      <c r="L43" s="22" t="s">
         <v>823</v>
       </c>
       <c r="M43" s="20"/>
@@ -4475,14 +4475,14 @@
       <c r="A44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="31">
         <f t="shared" si="2"/>
         <v>2109</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="19" t="s">
@@ -4504,7 +4504,7 @@
         <v>34</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="25" t="s">
+      <c r="L44" s="22" t="s">
         <v>825</v>
       </c>
       <c r="M44" s="20"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="29"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -4537,7 +4537,7 @@
         <f>C3+201</f>
         <v>3201</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="23" t="s">
         <v>212</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -4576,7 +4576,7 @@
         <f t="shared" si="3"/>
         <v>3202</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="23" t="s">
         <v>211</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -4615,7 +4615,7 @@
         <f t="shared" si="3"/>
         <v>3203</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="23" t="s">
         <v>213</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -4652,7 +4652,7 @@
         <f t="shared" si="3"/>
         <v>3204</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="23" t="s">
         <v>214</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -4684,7 +4684,7 @@
       <c r="C50" s="4">
         <v>3205</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="23" t="s">
         <v>768</v>
       </c>
       <c r="E50" s="19"/>
@@ -4705,7 +4705,7 @@
       <c r="C51" s="4">
         <v>3206</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="23" t="s">
         <v>769</v>
       </c>
       <c r="E51" s="19"/>
@@ -4726,7 +4726,7 @@
       <c r="C52" s="4">
         <v>3207</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="23" t="s">
         <v>770</v>
       </c>
       <c r="E52" s="19"/>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="29"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -4767,7 +4767,7 @@
         <f>C3+301</f>
         <v>3301</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -4801,7 +4801,7 @@
         <f>C54+1</f>
         <v>3302</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -4835,7 +4835,7 @@
         <f t="shared" si="5"/>
         <v>3303</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -4869,7 +4869,7 @@
         <f t="shared" si="5"/>
         <v>3304</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -4903,7 +4903,7 @@
         <f t="shared" si="5"/>
         <v>3305</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -4937,7 +4937,7 @@
         <f t="shared" si="5"/>
         <v>3306</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -4971,7 +4971,7 @@
         <f t="shared" si="5"/>
         <v>3307</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -5005,7 +5005,7 @@
         <f t="shared" si="5"/>
         <v>3308</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -5039,7 +5039,7 @@
         <f t="shared" si="5"/>
         <v>3309</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -5073,7 +5073,7 @@
         <f t="shared" si="5"/>
         <v>3310</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="23" t="s">
         <v>80</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -5107,7 +5107,7 @@
         <f t="shared" si="5"/>
         <v>3311</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -5141,7 +5141,7 @@
         <f t="shared" si="5"/>
         <v>3312</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="23" t="s">
         <v>78</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -5175,7 +5175,7 @@
         <f t="shared" si="5"/>
         <v>3313</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="23" t="s">
         <v>77</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -5209,7 +5209,7 @@
         <f t="shared" si="5"/>
         <v>3314</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -5243,7 +5243,7 @@
         <f t="shared" si="5"/>
         <v>3315</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -5277,7 +5277,7 @@
         <f t="shared" si="5"/>
         <v>3316</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -5311,7 +5311,7 @@
         <f t="shared" si="5"/>
         <v>3317</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="23" t="s">
         <v>85</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -5345,7 +5345,7 @@
         <f t="shared" si="5"/>
         <v>3318</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="23" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -5379,7 +5379,7 @@
         <f t="shared" si="5"/>
         <v>3319</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -5413,7 +5413,7 @@
         <f t="shared" si="5"/>
         <v>3320</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="23" t="s">
         <v>88</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -5447,7 +5447,7 @@
         <f t="shared" si="5"/>
         <v>3321</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -5481,7 +5481,7 @@
         <f t="shared" si="5"/>
         <v>3322</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -5515,7 +5515,7 @@
         <f t="shared" si="5"/>
         <v>3323</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -5549,7 +5549,7 @@
         <f t="shared" si="5"/>
         <v>3324</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="23" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -5583,7 +5583,7 @@
         <f t="shared" si="5"/>
         <v>3325</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="23" t="s">
         <v>92</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -5617,7 +5617,7 @@
         <f t="shared" si="5"/>
         <v>3326</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -5651,7 +5651,7 @@
         <f t="shared" si="5"/>
         <v>3327</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="23" t="s">
         <v>94</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -5685,7 +5685,7 @@
         <f t="shared" si="5"/>
         <v>3328</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="23" t="s">
         <v>95</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -5719,7 +5719,7 @@
         <f t="shared" si="5"/>
         <v>3329</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D82" s="23" t="s">
         <v>96</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -5753,7 +5753,7 @@
         <f t="shared" si="5"/>
         <v>3330</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -5787,7 +5787,7 @@
         <f t="shared" si="5"/>
         <v>3331</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="23" t="s">
         <v>98</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -5821,7 +5821,7 @@
         <f t="shared" si="5"/>
         <v>3332</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E85" s="5" t="s">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="25" t="s">
         <v>322</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -5884,7 +5884,7 @@
         <f>C3+400</f>
         <v>3400</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="5" t="s">
@@ -5918,7 +5918,7 @@
         <f>C87+1</f>
         <v>3401</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D88" s="23" t="s">
         <v>534</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -5952,7 +5952,7 @@
         <f t="shared" si="7"/>
         <v>3402</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="23" t="s">
         <v>535</v>
       </c>
       <c r="E89" s="5" t="s">
@@ -5986,7 +5986,7 @@
         <f t="shared" si="7"/>
         <v>3403</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="23" t="s">
         <v>100</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -6020,7 +6020,7 @@
         <f t="shared" si="7"/>
         <v>3404</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E91" s="5" t="s">
@@ -6054,7 +6054,7 @@
         <f t="shared" si="7"/>
         <v>3405</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="23" t="s">
         <v>102</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -6088,7 +6088,7 @@
         <f t="shared" si="7"/>
         <v>3406</v>
       </c>
-      <c r="D93" s="26" t="s">
+      <c r="D93" s="23" t="s">
         <v>103</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -6122,7 +6122,7 @@
         <f t="shared" si="7"/>
         <v>3407</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D94" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -6156,7 +6156,7 @@
         <f t="shared" si="7"/>
         <v>3408</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="23" t="s">
         <v>105</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -6190,7 +6190,7 @@
         <f t="shared" si="7"/>
         <v>3409</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="23" t="s">
         <v>536</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -6224,7 +6224,7 @@
         <f t="shared" si="7"/>
         <v>3410</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="23" t="s">
         <v>537</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -6258,7 +6258,7 @@
         <f t="shared" si="7"/>
         <v>3411</v>
       </c>
-      <c r="D98" s="26" t="s">
+      <c r="D98" s="23" t="s">
         <v>538</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -6292,7 +6292,7 @@
         <f t="shared" si="7"/>
         <v>3412</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="23" t="s">
         <v>539</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -6326,7 +6326,7 @@
         <f t="shared" si="7"/>
         <v>3413</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="23" t="s">
         <v>106</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -6360,7 +6360,7 @@
         <f t="shared" si="7"/>
         <v>3414</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -6394,7 +6394,7 @@
         <f t="shared" si="7"/>
         <v>3415</v>
       </c>
-      <c r="D102" s="26" t="s">
+      <c r="D102" s="23" t="s">
         <v>108</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -6428,7 +6428,7 @@
         <f t="shared" si="7"/>
         <v>3416</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="23" t="s">
         <v>109</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -6462,7 +6462,7 @@
         <f t="shared" si="7"/>
         <v>3417</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="23" t="s">
         <v>540</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -6496,7 +6496,7 @@
         <f t="shared" si="7"/>
         <v>3418</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="23" t="s">
         <v>541</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -6530,7 +6530,7 @@
         <f t="shared" si="7"/>
         <v>3419</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="23" t="s">
         <v>542</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -6564,7 +6564,7 @@
         <f t="shared" si="7"/>
         <v>3420</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -6598,7 +6598,7 @@
         <f t="shared" si="7"/>
         <v>3421</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="23" t="s">
         <v>111</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -6632,7 +6632,7 @@
         <f t="shared" si="7"/>
         <v>3422</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="23" t="s">
         <v>112</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -6666,7 +6666,7 @@
         <f t="shared" si="7"/>
         <v>3423</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="23" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -6700,7 +6700,7 @@
         <f t="shared" si="7"/>
         <v>3424</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="23" t="s">
         <v>114</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -6734,7 +6734,7 @@
         <f t="shared" si="7"/>
         <v>3425</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -6768,7 +6768,7 @@
         <f t="shared" si="7"/>
         <v>3426</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="23" t="s">
         <v>116</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -6802,7 +6802,7 @@
         <f t="shared" si="7"/>
         <v>3427</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="23" t="s">
         <v>117</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -6836,7 +6836,7 @@
         <f t="shared" si="7"/>
         <v>3428</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="23" t="s">
         <v>118</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -6870,7 +6870,7 @@
         <f t="shared" si="7"/>
         <v>3429</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="23" t="s">
         <v>119</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -6904,7 +6904,7 @@
         <f t="shared" si="7"/>
         <v>3430</v>
       </c>
-      <c r="D117" s="26" t="s">
+      <c r="D117" s="23" t="s">
         <v>120</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -6938,7 +6938,7 @@
         <f t="shared" si="7"/>
         <v>3431</v>
       </c>
-      <c r="D118" s="26" t="s">
+      <c r="D118" s="23" t="s">
         <v>121</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -6972,7 +6972,7 @@
         <f t="shared" si="7"/>
         <v>3432</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D119" s="23" t="s">
         <v>122</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="30"/>
+      <c r="D120" s="27"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
@@ -7023,7 +7023,7 @@
         <f>C87+50</f>
         <v>3450</v>
       </c>
-      <c r="D121" s="26" t="s">
+      <c r="D121" s="23" t="s">
         <v>683</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -7057,7 +7057,7 @@
         <f>C121+1</f>
         <v>3451</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="23" t="s">
         <v>684</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -7091,7 +7091,7 @@
         <f t="shared" si="9"/>
         <v>3452</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="23" t="s">
         <v>685</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -7125,7 +7125,7 @@
         <f t="shared" si="9"/>
         <v>3453</v>
       </c>
-      <c r="D124" s="26" t="s">
+      <c r="D124" s="23" t="s">
         <v>686</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -7159,7 +7159,7 @@
         <f t="shared" si="9"/>
         <v>3454</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="23" t="s">
         <v>687</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -7193,7 +7193,7 @@
         <f t="shared" si="9"/>
         <v>3455</v>
       </c>
-      <c r="D126" s="26" t="s">
+      <c r="D126" s="23" t="s">
         <v>688</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -7227,7 +7227,7 @@
         <f t="shared" si="9"/>
         <v>3456</v>
       </c>
-      <c r="D127" s="26" t="s">
+      <c r="D127" s="23" t="s">
         <v>689</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -7261,7 +7261,7 @@
         <f t="shared" si="9"/>
         <v>3457</v>
       </c>
-      <c r="D128" s="26" t="s">
+      <c r="D128" s="23" t="s">
         <v>690</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -7295,7 +7295,7 @@
         <f t="shared" si="9"/>
         <v>3458</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="23" t="s">
         <v>691</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -7329,7 +7329,7 @@
         <f t="shared" si="9"/>
         <v>3459</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="23" t="s">
         <v>692</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -7363,7 +7363,7 @@
         <f t="shared" si="9"/>
         <v>3460</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="23" t="s">
         <v>693</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -7397,7 +7397,7 @@
         <f t="shared" si="9"/>
         <v>3461</v>
       </c>
-      <c r="D132" s="26" t="s">
+      <c r="D132" s="23" t="s">
         <v>694</v>
       </c>
       <c r="E132" s="5" t="s">
@@ -7431,7 +7431,7 @@
         <f t="shared" si="9"/>
         <v>3462</v>
       </c>
-      <c r="D133" s="26" t="s">
+      <c r="D133" s="23" t="s">
         <v>695</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -7465,7 +7465,7 @@
         <f t="shared" si="9"/>
         <v>3463</v>
       </c>
-      <c r="D134" s="26" t="s">
+      <c r="D134" s="23" t="s">
         <v>696</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -7499,7 +7499,7 @@
         <f t="shared" si="9"/>
         <v>3464</v>
       </c>
-      <c r="D135" s="26" t="s">
+      <c r="D135" s="23" t="s">
         <v>697</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -7533,7 +7533,7 @@
         <f t="shared" si="9"/>
         <v>3465</v>
       </c>
-      <c r="D136" s="26" t="s">
+      <c r="D136" s="23" t="s">
         <v>698</v>
       </c>
       <c r="E136" s="5" t="s">
@@ -7567,7 +7567,7 @@
         <f t="shared" si="9"/>
         <v>3466</v>
       </c>
-      <c r="D137" s="26" t="s">
+      <c r="D137" s="23" t="s">
         <v>699</v>
       </c>
       <c r="E137" s="5" t="s">
@@ -7601,7 +7601,7 @@
         <f t="shared" si="9"/>
         <v>3467</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="23" t="s">
         <v>700</v>
       </c>
       <c r="E138" s="5" t="s">
@@ -7635,7 +7635,7 @@
         <f t="shared" si="9"/>
         <v>3468</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D139" s="23" t="s">
         <v>701</v>
       </c>
       <c r="E139" s="5" t="s">
@@ -7669,7 +7669,7 @@
         <f t="shared" si="9"/>
         <v>3469</v>
       </c>
-      <c r="D140" s="26" t="s">
+      <c r="D140" s="23" t="s">
         <v>702</v>
       </c>
       <c r="E140" s="5" t="s">
@@ -7703,7 +7703,7 @@
         <f t="shared" si="9"/>
         <v>3470</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="23" t="s">
         <v>703</v>
       </c>
       <c r="E141" s="5" t="s">
@@ -7737,7 +7737,7 @@
         <f t="shared" si="9"/>
         <v>3471</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D142" s="23" t="s">
         <v>704</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -7771,7 +7771,7 @@
         <f t="shared" si="9"/>
         <v>3472</v>
       </c>
-      <c r="D143" s="26" t="s">
+      <c r="D143" s="23" t="s">
         <v>705</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -7805,7 +7805,7 @@
         <f t="shared" si="9"/>
         <v>3473</v>
       </c>
-      <c r="D144" s="26" t="s">
+      <c r="D144" s="23" t="s">
         <v>706</v>
       </c>
       <c r="E144" s="5" t="s">
@@ -7839,7 +7839,7 @@
         <f t="shared" si="9"/>
         <v>3474</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="23" t="s">
         <v>707</v>
       </c>
       <c r="E145" s="5" t="s">
@@ -7873,7 +7873,7 @@
         <f t="shared" si="9"/>
         <v>3475</v>
       </c>
-      <c r="D146" s="26" t="s">
+      <c r="D146" s="23" t="s">
         <v>708</v>
       </c>
       <c r="E146" s="5" t="s">
@@ -7907,7 +7907,7 @@
         <f t="shared" si="9"/>
         <v>3476</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="23" t="s">
         <v>709</v>
       </c>
       <c r="E147" s="5" t="s">
@@ -7941,7 +7941,7 @@
         <f t="shared" si="9"/>
         <v>3477</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="23" t="s">
         <v>710</v>
       </c>
       <c r="E148" s="5" t="s">
@@ -7975,7 +7975,7 @@
         <f t="shared" si="9"/>
         <v>3478</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="23" t="s">
         <v>711</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -8009,7 +8009,7 @@
         <f>C149+1</f>
         <v>3479</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="23" t="s">
         <v>712</v>
       </c>
       <c r="E150" s="5" t="s">
@@ -8043,7 +8043,7 @@
         <f>C150+1</f>
         <v>3480</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="23" t="s">
         <v>713</v>
       </c>
       <c r="E151" s="5" t="s">
@@ -8077,7 +8077,7 @@
         <f>C151+1</f>
         <v>3481</v>
       </c>
-      <c r="D152" s="26" t="s">
+      <c r="D152" s="23" t="s">
         <v>714</v>
       </c>
       <c r="E152" s="5" t="s">
@@ -8108,7 +8108,7 @@
       <c r="C153" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="D153" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -8139,7 +8139,7 @@
         <f>C87+85</f>
         <v>3485</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="23" t="s">
         <v>219</v>
       </c>
       <c r="E154" s="5" t="s">
@@ -8172,7 +8172,7 @@
         <f>C154+1</f>
         <v>3486</v>
       </c>
-      <c r="D155" s="26" t="s">
+      <c r="D155" s="23" t="s">
         <v>220</v>
       </c>
       <c r="E155" s="5" t="s">
@@ -8205,7 +8205,7 @@
         <f>C155+1</f>
         <v>3487</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="D156" s="23" t="s">
         <v>221</v>
       </c>
       <c r="E156" s="5" t="s">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="28" t="s">
+      <c r="D157" s="25" t="s">
         <v>323</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -8268,7 +8268,7 @@
         <f>C3+500</f>
         <v>3500</v>
       </c>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E158" s="5" t="s">
@@ -8304,7 +8304,7 @@
         <f>C158+1</f>
         <v>3501</v>
       </c>
-      <c r="D159" s="26" t="s">
+      <c r="D159" s="23" t="s">
         <v>668</v>
       </c>
       <c r="E159" s="5" t="s">
@@ -8340,7 +8340,7 @@
         <f t="shared" si="11"/>
         <v>3502</v>
       </c>
-      <c r="D160" s="26" t="s">
+      <c r="D160" s="23" t="s">
         <v>669</v>
       </c>
       <c r="E160" s="5" t="s">
@@ -8376,7 +8376,7 @@
         <f t="shared" si="11"/>
         <v>3503</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="D161" s="23" t="s">
         <v>670</v>
       </c>
       <c r="E161" s="5" t="s">
@@ -8412,7 +8412,7 @@
         <f t="shared" si="11"/>
         <v>3504</v>
       </c>
-      <c r="D162" s="26" t="s">
+      <c r="D162" s="23" t="s">
         <v>124</v>
       </c>
       <c r="E162" s="5" t="s">
@@ -8448,7 +8448,7 @@
         <f t="shared" si="11"/>
         <v>3505</v>
       </c>
-      <c r="D163" s="26" t="s">
+      <c r="D163" s="23" t="s">
         <v>125</v>
       </c>
       <c r="E163" s="5" t="s">
@@ -8484,7 +8484,7 @@
         <f t="shared" si="11"/>
         <v>3506</v>
       </c>
-      <c r="D164" s="26" t="s">
+      <c r="D164" s="23" t="s">
         <v>126</v>
       </c>
       <c r="E164" s="5" t="s">
@@ -8520,7 +8520,7 @@
         <f t="shared" si="11"/>
         <v>3507</v>
       </c>
-      <c r="D165" s="26" t="s">
+      <c r="D165" s="23" t="s">
         <v>127</v>
       </c>
       <c r="E165" s="5" t="s">
@@ -8556,7 +8556,7 @@
         <f t="shared" si="11"/>
         <v>3508</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="23" t="s">
         <v>128</v>
       </c>
       <c r="E166" s="5" t="s">
@@ -8592,7 +8592,7 @@
         <f t="shared" si="11"/>
         <v>3509</v>
       </c>
-      <c r="D167" s="26" t="s">
+      <c r="D167" s="23" t="s">
         <v>664</v>
       </c>
       <c r="E167" s="5" t="s">
@@ -8628,7 +8628,7 @@
         <f t="shared" si="11"/>
         <v>3510</v>
       </c>
-      <c r="D168" s="26" t="s">
+      <c r="D168" s="23" t="s">
         <v>665</v>
       </c>
       <c r="E168" s="5" t="s">
@@ -8664,7 +8664,7 @@
         <f t="shared" si="11"/>
         <v>3511</v>
       </c>
-      <c r="D169" s="26" t="s">
+      <c r="D169" s="23" t="s">
         <v>666</v>
       </c>
       <c r="E169" s="5" t="s">
@@ -8700,7 +8700,7 @@
         <f t="shared" si="11"/>
         <v>3512</v>
       </c>
-      <c r="D170" s="26" t="s">
+      <c r="D170" s="23" t="s">
         <v>667</v>
       </c>
       <c r="E170" s="5" t="s">
@@ -8736,7 +8736,7 @@
         <f t="shared" si="11"/>
         <v>3513</v>
       </c>
-      <c r="D171" s="26" t="s">
+      <c r="D171" s="23" t="s">
         <v>129</v>
       </c>
       <c r="E171" s="5" t="s">
@@ -8772,7 +8772,7 @@
         <f t="shared" si="11"/>
         <v>3514</v>
       </c>
-      <c r="D172" s="26" t="s">
+      <c r="D172" s="23" t="s">
         <v>130</v>
       </c>
       <c r="E172" s="5" t="s">
@@ -8808,7 +8808,7 @@
         <f t="shared" si="11"/>
         <v>3515</v>
       </c>
-      <c r="D173" s="26" t="s">
+      <c r="D173" s="23" t="s">
         <v>131</v>
       </c>
       <c r="E173" s="5" t="s">
@@ -8844,7 +8844,7 @@
         <f t="shared" si="11"/>
         <v>3516</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D174" s="23" t="s">
         <v>132</v>
       </c>
       <c r="E174" s="5" t="s">
@@ -8880,7 +8880,7 @@
         <f t="shared" si="11"/>
         <v>3517</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="23" t="s">
         <v>661</v>
       </c>
       <c r="E175" s="5" t="s">
@@ -8916,7 +8916,7 @@
         <f t="shared" si="11"/>
         <v>3518</v>
       </c>
-      <c r="D176" s="26" t="s">
+      <c r="D176" s="23" t="s">
         <v>662</v>
       </c>
       <c r="E176" s="5" t="s">
@@ -8952,7 +8952,7 @@
         <f t="shared" si="11"/>
         <v>3519</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="23" t="s">
         <v>663</v>
       </c>
       <c r="E177" s="5" t="s">
@@ -8988,7 +8988,7 @@
         <f t="shared" si="11"/>
         <v>3520</v>
       </c>
-      <c r="D178" s="26" t="s">
+      <c r="D178" s="23" t="s">
         <v>133</v>
       </c>
       <c r="E178" s="5" t="s">
@@ -9024,7 +9024,7 @@
         <f t="shared" si="11"/>
         <v>3521</v>
       </c>
-      <c r="D179" s="26" t="s">
+      <c r="D179" s="23" t="s">
         <v>134</v>
       </c>
       <c r="E179" s="5" t="s">
@@ -9060,7 +9060,7 @@
         <f t="shared" si="11"/>
         <v>3522</v>
       </c>
-      <c r="D180" s="26" t="s">
+      <c r="D180" s="23" t="s">
         <v>135</v>
       </c>
       <c r="E180" s="5" t="s">
@@ -9096,7 +9096,7 @@
         <f t="shared" si="11"/>
         <v>3523</v>
       </c>
-      <c r="D181" s="26" t="s">
+      <c r="D181" s="23" t="s">
         <v>136</v>
       </c>
       <c r="E181" s="5" t="s">
@@ -9132,7 +9132,7 @@
         <f t="shared" si="11"/>
         <v>3524</v>
       </c>
-      <c r="D182" s="26" t="s">
+      <c r="D182" s="23" t="s">
         <v>137</v>
       </c>
       <c r="E182" s="5" t="s">
@@ -9168,7 +9168,7 @@
         <f t="shared" si="11"/>
         <v>3525</v>
       </c>
-      <c r="D183" s="26" t="s">
+      <c r="D183" s="23" t="s">
         <v>138</v>
       </c>
       <c r="E183" s="5" t="s">
@@ -9204,7 +9204,7 @@
         <f t="shared" si="11"/>
         <v>3526</v>
       </c>
-      <c r="D184" s="26" t="s">
+      <c r="D184" s="23" t="s">
         <v>139</v>
       </c>
       <c r="E184" s="5" t="s">
@@ -9240,7 +9240,7 @@
         <f t="shared" si="11"/>
         <v>3527</v>
       </c>
-      <c r="D185" s="26" t="s">
+      <c r="D185" s="23" t="s">
         <v>140</v>
       </c>
       <c r="E185" s="5" t="s">
@@ -9276,7 +9276,7 @@
         <f t="shared" si="11"/>
         <v>3528</v>
       </c>
-      <c r="D186" s="26" t="s">
+      <c r="D186" s="23" t="s">
         <v>141</v>
       </c>
       <c r="E186" s="5" t="s">
@@ -9312,7 +9312,7 @@
         <f t="shared" si="11"/>
         <v>3529</v>
       </c>
-      <c r="D187" s="26" t="s">
+      <c r="D187" s="23" t="s">
         <v>142</v>
       </c>
       <c r="E187" s="5" t="s">
@@ -9348,7 +9348,7 @@
         <f t="shared" si="11"/>
         <v>3530</v>
       </c>
-      <c r="D188" s="26" t="s">
+      <c r="D188" s="23" t="s">
         <v>143</v>
       </c>
       <c r="E188" s="5" t="s">
@@ -9384,7 +9384,7 @@
         <f t="shared" si="11"/>
         <v>3531</v>
       </c>
-      <c r="D189" s="26" t="s">
+      <c r="D189" s="23" t="s">
         <v>144</v>
       </c>
       <c r="E189" s="5" t="s">
@@ -9420,7 +9420,7 @@
         <f t="shared" si="11"/>
         <v>3532</v>
       </c>
-      <c r="D190" s="26" t="s">
+      <c r="D190" s="23" t="s">
         <v>145</v>
       </c>
       <c r="E190" s="5" t="s">
@@ -9453,7 +9453,7 @@
       <c r="C191" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D191" s="26" t="s">
+      <c r="D191" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E191" s="5" t="s">
@@ -9489,7 +9489,7 @@
         <f>C158+50</f>
         <v>3550</v>
       </c>
-      <c r="D192" s="26" t="s">
+      <c r="D192" s="23" t="s">
         <v>715</v>
       </c>
       <c r="E192" s="5" t="s">
@@ -9525,7 +9525,7 @@
         <f>C192+1</f>
         <v>3551</v>
       </c>
-      <c r="D193" s="26" t="s">
+      <c r="D193" s="23" t="s">
         <v>716</v>
       </c>
       <c r="E193" s="5" t="s">
@@ -9561,7 +9561,7 @@
         <f t="shared" si="13"/>
         <v>3552</v>
       </c>
-      <c r="D194" s="26" t="s">
+      <c r="D194" s="23" t="s">
         <v>717</v>
       </c>
       <c r="E194" s="5" t="s">
@@ -9597,7 +9597,7 @@
         <f t="shared" si="13"/>
         <v>3553</v>
       </c>
-      <c r="D195" s="26" t="s">
+      <c r="D195" s="23" t="s">
         <v>718</v>
       </c>
       <c r="E195" s="5" t="s">
@@ -9633,7 +9633,7 @@
         <f t="shared" si="13"/>
         <v>3554</v>
       </c>
-      <c r="D196" s="26" t="s">
+      <c r="D196" s="23" t="s">
         <v>719</v>
       </c>
       <c r="E196" s="5" t="s">
@@ -9669,7 +9669,7 @@
         <f t="shared" si="13"/>
         <v>3555</v>
       </c>
-      <c r="D197" s="26" t="s">
+      <c r="D197" s="23" t="s">
         <v>720</v>
       </c>
       <c r="E197" s="5" t="s">
@@ -9705,7 +9705,7 @@
         <f t="shared" si="13"/>
         <v>3556</v>
       </c>
-      <c r="D198" s="26" t="s">
+      <c r="D198" s="23" t="s">
         <v>721</v>
       </c>
       <c r="E198" s="5" t="s">
@@ -9741,7 +9741,7 @@
         <f t="shared" si="13"/>
         <v>3557</v>
       </c>
-      <c r="D199" s="26" t="s">
+      <c r="D199" s="23" t="s">
         <v>722</v>
       </c>
       <c r="E199" s="5" t="s">
@@ -9777,7 +9777,7 @@
         <f t="shared" si="13"/>
         <v>3558</v>
       </c>
-      <c r="D200" s="26" t="s">
+      <c r="D200" s="23" t="s">
         <v>723</v>
       </c>
       <c r="E200" s="5" t="s">
@@ -9813,7 +9813,7 @@
         <f t="shared" si="13"/>
         <v>3559</v>
       </c>
-      <c r="D201" s="26" t="s">
+      <c r="D201" s="23" t="s">
         <v>724</v>
       </c>
       <c r="E201" s="5" t="s">
@@ -9849,7 +9849,7 @@
         <f t="shared" si="13"/>
         <v>3560</v>
       </c>
-      <c r="D202" s="26" t="s">
+      <c r="D202" s="23" t="s">
         <v>725</v>
       </c>
       <c r="E202" s="5" t="s">
@@ -9885,7 +9885,7 @@
         <f t="shared" si="13"/>
         <v>3561</v>
       </c>
-      <c r="D203" s="26" t="s">
+      <c r="D203" s="23" t="s">
         <v>726</v>
       </c>
       <c r="E203" s="5" t="s">
@@ -9921,7 +9921,7 @@
         <f t="shared" si="13"/>
         <v>3562</v>
       </c>
-      <c r="D204" s="26" t="s">
+      <c r="D204" s="23" t="s">
         <v>727</v>
       </c>
       <c r="E204" s="5" t="s">
@@ -9957,7 +9957,7 @@
         <f t="shared" si="13"/>
         <v>3563</v>
       </c>
-      <c r="D205" s="26" t="s">
+      <c r="D205" s="23" t="s">
         <v>728</v>
       </c>
       <c r="E205" s="5" t="s">
@@ -9993,7 +9993,7 @@
         <f t="shared" si="13"/>
         <v>3564</v>
       </c>
-      <c r="D206" s="26" t="s">
+      <c r="D206" s="23" t="s">
         <v>729</v>
       </c>
       <c r="E206" s="5" t="s">
@@ -10029,7 +10029,7 @@
         <f t="shared" si="13"/>
         <v>3565</v>
       </c>
-      <c r="D207" s="26" t="s">
+      <c r="D207" s="23" t="s">
         <v>730</v>
       </c>
       <c r="E207" s="5" t="s">
@@ -10065,7 +10065,7 @@
         <f t="shared" si="13"/>
         <v>3566</v>
       </c>
-      <c r="D208" s="26" t="s">
+      <c r="D208" s="23" t="s">
         <v>731</v>
       </c>
       <c r="E208" s="5" t="s">
@@ -10101,7 +10101,7 @@
         <f t="shared" si="13"/>
         <v>3567</v>
       </c>
-      <c r="D209" s="26" t="s">
+      <c r="D209" s="23" t="s">
         <v>732</v>
       </c>
       <c r="E209" s="5" t="s">
@@ -10137,7 +10137,7 @@
         <f t="shared" si="13"/>
         <v>3568</v>
       </c>
-      <c r="D210" s="26" t="s">
+      <c r="D210" s="23" t="s">
         <v>733</v>
       </c>
       <c r="E210" s="5" t="s">
@@ -10173,7 +10173,7 @@
         <f t="shared" si="13"/>
         <v>3569</v>
       </c>
-      <c r="D211" s="26" t="s">
+      <c r="D211" s="23" t="s">
         <v>734</v>
       </c>
       <c r="E211" s="5" t="s">
@@ -10209,7 +10209,7 @@
         <f t="shared" si="13"/>
         <v>3570</v>
       </c>
-      <c r="D212" s="26" t="s">
+      <c r="D212" s="23" t="s">
         <v>735</v>
       </c>
       <c r="E212" s="5" t="s">
@@ -10245,7 +10245,7 @@
         <f t="shared" si="13"/>
         <v>3571</v>
       </c>
-      <c r="D213" s="26" t="s">
+      <c r="D213" s="23" t="s">
         <v>736</v>
       </c>
       <c r="E213" s="5" t="s">
@@ -10281,7 +10281,7 @@
         <f t="shared" si="13"/>
         <v>3572</v>
       </c>
-      <c r="D214" s="26" t="s">
+      <c r="D214" s="23" t="s">
         <v>737</v>
       </c>
       <c r="E214" s="5" t="s">
@@ -10317,7 +10317,7 @@
         <f t="shared" si="13"/>
         <v>3573</v>
       </c>
-      <c r="D215" s="26" t="s">
+      <c r="D215" s="23" t="s">
         <v>738</v>
       </c>
       <c r="E215" s="5" t="s">
@@ -10353,7 +10353,7 @@
         <f t="shared" si="13"/>
         <v>3574</v>
       </c>
-      <c r="D216" s="26" t="s">
+      <c r="D216" s="23" t="s">
         <v>739</v>
       </c>
       <c r="E216" s="5" t="s">
@@ -10389,7 +10389,7 @@
         <f t="shared" si="13"/>
         <v>3575</v>
       </c>
-      <c r="D217" s="26" t="s">
+      <c r="D217" s="23" t="s">
         <v>740</v>
       </c>
       <c r="E217" s="5" t="s">
@@ -10425,7 +10425,7 @@
         <f t="shared" si="13"/>
         <v>3576</v>
       </c>
-      <c r="D218" s="26" t="s">
+      <c r="D218" s="23" t="s">
         <v>741</v>
       </c>
       <c r="E218" s="5" t="s">
@@ -10461,7 +10461,7 @@
         <f t="shared" si="13"/>
         <v>3577</v>
       </c>
-      <c r="D219" s="26" t="s">
+      <c r="D219" s="23" t="s">
         <v>742</v>
       </c>
       <c r="E219" s="5" t="s">
@@ -10497,7 +10497,7 @@
         <f t="shared" si="13"/>
         <v>3578</v>
       </c>
-      <c r="D220" s="26" t="s">
+      <c r="D220" s="23" t="s">
         <v>743</v>
       </c>
       <c r="E220" s="5" t="s">
@@ -10533,7 +10533,7 @@
         <f t="shared" si="13"/>
         <v>3579</v>
       </c>
-      <c r="D221" s="26" t="s">
+      <c r="D221" s="23" t="s">
         <v>744</v>
       </c>
       <c r="E221" s="5" t="s">
@@ -10569,7 +10569,7 @@
         <f t="shared" si="13"/>
         <v>3580</v>
       </c>
-      <c r="D222" s="26" t="s">
+      <c r="D222" s="23" t="s">
         <v>745</v>
       </c>
       <c r="E222" s="5" t="s">
@@ -10605,7 +10605,7 @@
         <f t="shared" si="13"/>
         <v>3581</v>
       </c>
-      <c r="D223" s="26" t="s">
+      <c r="D223" s="23" t="s">
         <v>746</v>
       </c>
       <c r="E223" s="5" t="s">
@@ -10638,7 +10638,7 @@
       <c r="C224" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D224" s="26" t="s">
+      <c r="D224" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E224" s="5" t="s">
@@ -10673,7 +10673,7 @@
         <f>C158+85</f>
         <v>3585</v>
       </c>
-      <c r="D225" s="26" t="s">
+      <c r="D225" s="23" t="s">
         <v>225</v>
       </c>
       <c r="E225" s="5" t="s">
@@ -10708,7 +10708,7 @@
         <f t="shared" si="14"/>
         <v>3586</v>
       </c>
-      <c r="D226" s="26" t="s">
+      <c r="D226" s="23" t="s">
         <v>222</v>
       </c>
       <c r="E226" s="5" t="s">
@@ -10743,7 +10743,7 @@
         <f t="shared" si="14"/>
         <v>3587</v>
       </c>
-      <c r="D227" s="26" t="s">
+      <c r="D227" s="23" t="s">
         <v>223</v>
       </c>
       <c r="E227" s="5" t="s">
@@ -10778,7 +10778,7 @@
         <f t="shared" si="14"/>
         <v>3588</v>
       </c>
-      <c r="D228" s="26" t="s">
+      <c r="D228" s="23" t="s">
         <v>224</v>
       </c>
       <c r="E228" s="5" t="s">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
-      <c r="D229" s="28" t="s">
+      <c r="D229" s="25" t="s">
         <v>324</v>
       </c>
       <c r="E229" s="2" t="s">
@@ -10841,7 +10841,7 @@
         <f>C3+600</f>
         <v>3600</v>
       </c>
-      <c r="D230" s="26" t="s">
+      <c r="D230" s="23" t="s">
         <v>178</v>
       </c>
       <c r="E230" s="5" t="s">
@@ -10877,7 +10877,7 @@
         <f>C230+1</f>
         <v>3601</v>
       </c>
-      <c r="D231" s="26" t="s">
+      <c r="D231" s="23" t="s">
         <v>179</v>
       </c>
       <c r="E231" s="5" t="s">
@@ -10913,7 +10913,7 @@
         <f t="shared" si="16"/>
         <v>3602</v>
       </c>
-      <c r="D232" s="26" t="s">
+      <c r="D232" s="23" t="s">
         <v>180</v>
       </c>
       <c r="E232" s="5" t="s">
@@ -10949,7 +10949,7 @@
         <f t="shared" si="16"/>
         <v>3603</v>
       </c>
-      <c r="D233" s="26" t="s">
+      <c r="D233" s="23" t="s">
         <v>181</v>
       </c>
       <c r="E233" s="5" t="s">
@@ -10985,7 +10985,7 @@
         <f t="shared" si="16"/>
         <v>3604</v>
       </c>
-      <c r="D234" s="26" t="s">
+      <c r="D234" s="23" t="s">
         <v>182</v>
       </c>
       <c r="E234" s="5" t="s">
@@ -11021,7 +11021,7 @@
         <f t="shared" si="16"/>
         <v>3605</v>
       </c>
-      <c r="D235" s="26" t="s">
+      <c r="D235" s="23" t="s">
         <v>183</v>
       </c>
       <c r="E235" s="5" t="s">
@@ -11057,7 +11057,7 @@
         <f t="shared" si="16"/>
         <v>3606</v>
       </c>
-      <c r="D236" s="26" t="s">
+      <c r="D236" s="23" t="s">
         <v>184</v>
       </c>
       <c r="E236" s="5" t="s">
@@ -11093,7 +11093,7 @@
         <f t="shared" si="16"/>
         <v>3607</v>
       </c>
-      <c r="D237" s="26" t="s">
+      <c r="D237" s="23" t="s">
         <v>185</v>
       </c>
       <c r="E237" s="5" t="s">
@@ -11129,7 +11129,7 @@
         <f t="shared" si="16"/>
         <v>3608</v>
       </c>
-      <c r="D238" s="26" t="s">
+      <c r="D238" s="23" t="s">
         <v>186</v>
       </c>
       <c r="E238" s="5" t="s">
@@ -11165,7 +11165,7 @@
         <f t="shared" si="16"/>
         <v>3609</v>
       </c>
-      <c r="D239" s="26" t="s">
+      <c r="D239" s="23" t="s">
         <v>187</v>
       </c>
       <c r="E239" s="5" t="s">
@@ -11201,7 +11201,7 @@
         <f t="shared" si="16"/>
         <v>3610</v>
       </c>
-      <c r="D240" s="26" t="s">
+      <c r="D240" s="23" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="5" t="s">
@@ -11237,7 +11237,7 @@
         <f t="shared" si="16"/>
         <v>3611</v>
       </c>
-      <c r="D241" s="26" t="s">
+      <c r="D241" s="23" t="s">
         <v>189</v>
       </c>
       <c r="E241" s="5" t="s">
@@ -11273,7 +11273,7 @@
         <f t="shared" si="16"/>
         <v>3612</v>
       </c>
-      <c r="D242" s="26" t="s">
+      <c r="D242" s="23" t="s">
         <v>190</v>
       </c>
       <c r="E242" s="5" t="s">
@@ -11309,7 +11309,7 @@
         <f t="shared" si="16"/>
         <v>3613</v>
       </c>
-      <c r="D243" s="26" t="s">
+      <c r="D243" s="23" t="s">
         <v>191</v>
       </c>
       <c r="E243" s="5" t="s">
@@ -11345,7 +11345,7 @@
         <f t="shared" si="16"/>
         <v>3614</v>
       </c>
-      <c r="D244" s="26" t="s">
+      <c r="D244" s="23" t="s">
         <v>192</v>
       </c>
       <c r="E244" s="5" t="s">
@@ -11381,7 +11381,7 @@
         <f t="shared" si="16"/>
         <v>3615</v>
       </c>
-      <c r="D245" s="26" t="s">
+      <c r="D245" s="23" t="s">
         <v>193</v>
       </c>
       <c r="E245" s="5" t="s">
@@ -11417,7 +11417,7 @@
         <f t="shared" si="16"/>
         <v>3616</v>
       </c>
-      <c r="D246" s="26" t="s">
+      <c r="D246" s="23" t="s">
         <v>194</v>
       </c>
       <c r="E246" s="5" t="s">
@@ -11453,7 +11453,7 @@
         <f t="shared" si="16"/>
         <v>3617</v>
       </c>
-      <c r="D247" s="26" t="s">
+      <c r="D247" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E247" s="5" t="s">
@@ -11489,7 +11489,7 @@
         <f t="shared" si="16"/>
         <v>3618</v>
       </c>
-      <c r="D248" s="26" t="s">
+      <c r="D248" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E248" s="5" t="s">
@@ -11525,7 +11525,7 @@
         <f t="shared" si="16"/>
         <v>3619</v>
       </c>
-      <c r="D249" s="26" t="s">
+      <c r="D249" s="23" t="s">
         <v>197</v>
       </c>
       <c r="E249" s="5" t="s">
@@ -11561,7 +11561,7 @@
         <f t="shared" si="16"/>
         <v>3620</v>
       </c>
-      <c r="D250" s="26" t="s">
+      <c r="D250" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E250" s="5" t="s">
@@ -11597,7 +11597,7 @@
         <f t="shared" si="16"/>
         <v>3621</v>
       </c>
-      <c r="D251" s="26" t="s">
+      <c r="D251" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E251" s="5" t="s">
@@ -11633,7 +11633,7 @@
         <f t="shared" si="16"/>
         <v>3622</v>
       </c>
-      <c r="D252" s="26" t="s">
+      <c r="D252" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E252" s="5" t="s">
@@ -11669,7 +11669,7 @@
         <f t="shared" si="16"/>
         <v>3623</v>
       </c>
-      <c r="D253" s="26" t="s">
+      <c r="D253" s="23" t="s">
         <v>201</v>
       </c>
       <c r="E253" s="5" t="s">
@@ -11705,7 +11705,7 @@
         <f t="shared" si="16"/>
         <v>3624</v>
       </c>
-      <c r="D254" s="26" t="s">
+      <c r="D254" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E254" s="5" t="s">
@@ -11741,7 +11741,7 @@
         <f t="shared" si="16"/>
         <v>3625</v>
       </c>
-      <c r="D255" s="26" t="s">
+      <c r="D255" s="23" t="s">
         <v>203</v>
       </c>
       <c r="E255" s="5" t="s">
@@ -11777,7 +11777,7 @@
         <f t="shared" si="16"/>
         <v>3626</v>
       </c>
-      <c r="D256" s="26" t="s">
+      <c r="D256" s="23" t="s">
         <v>204</v>
       </c>
       <c r="E256" s="5" t="s">
@@ -11813,7 +11813,7 @@
         <f t="shared" si="16"/>
         <v>3627</v>
       </c>
-      <c r="D257" s="26" t="s">
+      <c r="D257" s="23" t="s">
         <v>205</v>
       </c>
       <c r="E257" s="5" t="s">
@@ -11849,7 +11849,7 @@
         <f t="shared" si="16"/>
         <v>3628</v>
       </c>
-      <c r="D258" s="26" t="s">
+      <c r="D258" s="23" t="s">
         <v>206</v>
       </c>
       <c r="E258" s="5" t="s">
@@ -11885,7 +11885,7 @@
         <f t="shared" si="16"/>
         <v>3629</v>
       </c>
-      <c r="D259" s="26" t="s">
+      <c r="D259" s="23" t="s">
         <v>207</v>
       </c>
       <c r="E259" s="5" t="s">
@@ -11921,7 +11921,7 @@
         <f t="shared" si="16"/>
         <v>3630</v>
       </c>
-      <c r="D260" s="26" t="s">
+      <c r="D260" s="23" t="s">
         <v>208</v>
       </c>
       <c r="E260" s="5" t="s">
@@ -11957,7 +11957,7 @@
         <f t="shared" si="16"/>
         <v>3631</v>
       </c>
-      <c r="D261" s="26" t="s">
+      <c r="D261" s="23" t="s">
         <v>209</v>
       </c>
       <c r="E261" s="5" t="s">
@@ -11993,7 +11993,7 @@
         <f t="shared" si="16"/>
         <v>3632</v>
       </c>
-      <c r="D262" s="26" t="s">
+      <c r="D262" s="23" t="s">
         <v>210</v>
       </c>
       <c r="E262" s="5" t="s">
@@ -12028,7 +12028,7 @@
       <c r="C263" s="4">
         <v>3633</v>
       </c>
-      <c r="D263" s="26" t="s">
+      <c r="D263" s="23" t="s">
         <v>400</v>
       </c>
       <c r="E263" s="5" t="s">
@@ -12063,7 +12063,7 @@
       <c r="C264" s="4">
         <v>3634</v>
       </c>
-      <c r="D264" s="26" t="s">
+      <c r="D264" s="23" t="s">
         <v>401</v>
       </c>
       <c r="E264" s="5" t="s">
@@ -12098,7 +12098,7 @@
       <c r="C265" s="4">
         <v>3635</v>
       </c>
-      <c r="D265" s="26" t="s">
+      <c r="D265" s="23" t="s">
         <v>402</v>
       </c>
       <c r="E265" s="5" t="s">
@@ -12133,7 +12133,7 @@
       <c r="C266" s="4">
         <v>3636</v>
       </c>
-      <c r="D266" s="26" t="s">
+      <c r="D266" s="23" t="s">
         <v>403</v>
       </c>
       <c r="E266" s="5" t="s">
@@ -12168,7 +12168,7 @@
       <c r="C267" s="4">
         <v>3637</v>
       </c>
-      <c r="D267" s="26" t="s">
+      <c r="D267" s="23" t="s">
         <v>404</v>
       </c>
       <c r="E267" s="5" t="s">
@@ -12203,7 +12203,7 @@
       <c r="C268" s="4">
         <v>3638</v>
       </c>
-      <c r="D268" s="26" t="s">
+      <c r="D268" s="23" t="s">
         <v>405</v>
       </c>
       <c r="E268" s="5" t="s">
@@ -12230,17 +12230,17 @@
       <c r="A269" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B269" s="22" t="s">
+      <c r="B269" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
-      <c r="E269" s="22"/>
-      <c r="F269" s="22"/>
-      <c r="G269" s="22"/>
-      <c r="H269" s="22"/>
-      <c r="I269" s="22"/>
-      <c r="J269" s="22"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="32"/>
+      <c r="E269" s="32"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="32"/>
+      <c r="H269" s="32"/>
+      <c r="I269" s="32"/>
+      <c r="J269" s="32"/>
       <c r="K269" s="16"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -12252,7 +12252,7 @@
         <v>2700</v>
       </c>
       <c r="C270" s="4"/>
-      <c r="D270" s="26" t="s">
+      <c r="D270" s="23" t="s">
         <v>625</v>
       </c>
       <c r="E270" s="5" t="s">
@@ -12285,7 +12285,7 @@
         <v>2701</v>
       </c>
       <c r="C271" s="4"/>
-      <c r="D271" s="26" t="s">
+      <c r="D271" s="23" t="s">
         <v>626</v>
       </c>
       <c r="E271" s="5" t="s">
@@ -12318,7 +12318,7 @@
         <v>2702</v>
       </c>
       <c r="C272" s="4"/>
-      <c r="D272" s="26" t="s">
+      <c r="D272" s="23" t="s">
         <v>627</v>
       </c>
       <c r="E272" s="5" t="s">
@@ -12351,7 +12351,7 @@
         <v>2703</v>
       </c>
       <c r="C273" s="4"/>
-      <c r="D273" s="26" t="s">
+      <c r="D273" s="23" t="s">
         <v>628</v>
       </c>
       <c r="E273" s="5" t="s">
@@ -12384,7 +12384,7 @@
         <v>2704</v>
       </c>
       <c r="C274" s="4"/>
-      <c r="D274" s="26" t="s">
+      <c r="D274" s="23" t="s">
         <v>629</v>
       </c>
       <c r="E274" s="5" t="s">
@@ -12417,7 +12417,7 @@
         <v>2705</v>
       </c>
       <c r="C275" s="4"/>
-      <c r="D275" s="26" t="s">
+      <c r="D275" s="23" t="s">
         <v>630</v>
       </c>
       <c r="E275" s="5" t="s">
@@ -12450,7 +12450,7 @@
         <v>2706</v>
       </c>
       <c r="C276" s="4"/>
-      <c r="D276" s="26" t="s">
+      <c r="D276" s="23" t="s">
         <v>631</v>
       </c>
       <c r="E276" s="5" t="s">
@@ -12483,7 +12483,7 @@
         <v>2707</v>
       </c>
       <c r="C277" s="4"/>
-      <c r="D277" s="26" t="s">
+      <c r="D277" s="23" t="s">
         <v>632</v>
       </c>
       <c r="E277" s="5" t="s">
@@ -12516,7 +12516,7 @@
         <v>2708</v>
       </c>
       <c r="C278" s="4"/>
-      <c r="D278" s="26" t="s">
+      <c r="D278" s="23" t="s">
         <v>633</v>
       </c>
       <c r="E278" s="5" t="s">
@@ -12549,7 +12549,7 @@
         <v>2709</v>
       </c>
       <c r="C279" s="4"/>
-      <c r="D279" s="26" t="s">
+      <c r="D279" s="23" t="s">
         <v>407</v>
       </c>
       <c r="E279" s="5" t="s">
@@ -12582,7 +12582,7 @@
         <v>2710</v>
       </c>
       <c r="C280" s="4"/>
-      <c r="D280" s="26" t="s">
+      <c r="D280" s="23" t="s">
         <v>408</v>
       </c>
       <c r="E280" s="5" t="s">
@@ -12615,7 +12615,7 @@
         <v>2711</v>
       </c>
       <c r="C281" s="4"/>
-      <c r="D281" s="26" t="s">
+      <c r="D281" s="23" t="s">
         <v>409</v>
       </c>
       <c r="E281" s="5" t="s">
@@ -12648,7 +12648,7 @@
         <v>2712</v>
       </c>
       <c r="C282" s="4"/>
-      <c r="D282" s="26" t="s">
+      <c r="D282" s="23" t="s">
         <v>410</v>
       </c>
       <c r="E282" s="5" t="s">
@@ -12681,7 +12681,7 @@
         <v>2713</v>
       </c>
       <c r="C283" s="4"/>
-      <c r="D283" s="26" t="s">
+      <c r="D283" s="23" t="s">
         <v>411</v>
       </c>
       <c r="E283" s="5" t="s">
@@ -12714,7 +12714,7 @@
         <v>2714</v>
       </c>
       <c r="C284" s="4"/>
-      <c r="D284" s="26" t="s">
+      <c r="D284" s="23" t="s">
         <v>412</v>
       </c>
       <c r="E284" s="5" t="s">
@@ -12747,7 +12747,7 @@
         <v>2715</v>
       </c>
       <c r="C285" s="4"/>
-      <c r="D285" s="26" t="s">
+      <c r="D285" s="23" t="s">
         <v>413</v>
       </c>
       <c r="E285" s="5" t="s">
@@ -12780,7 +12780,7 @@
         <v>2716</v>
       </c>
       <c r="C286" s="4"/>
-      <c r="D286" s="26" t="s">
+      <c r="D286" s="23" t="s">
         <v>414</v>
       </c>
       <c r="E286" s="5" t="s">
@@ -12813,7 +12813,7 @@
         <v>2717</v>
       </c>
       <c r="C287" s="4"/>
-      <c r="D287" s="26" t="s">
+      <c r="D287" s="23" t="s">
         <v>415</v>
       </c>
       <c r="E287" s="5" t="s">
@@ -12846,7 +12846,7 @@
         <v>2718</v>
       </c>
       <c r="C288" s="4"/>
-      <c r="D288" s="26" t="s">
+      <c r="D288" s="23" t="s">
         <v>416</v>
       </c>
       <c r="E288" s="5" t="s">
@@ -12879,7 +12879,7 @@
         <v>2719</v>
       </c>
       <c r="C289" s="4"/>
-      <c r="D289" s="26" t="s">
+      <c r="D289" s="23" t="s">
         <v>417</v>
       </c>
       <c r="E289" s="5" t="s">
@@ -12912,7 +12912,7 @@
         <v>2720</v>
       </c>
       <c r="C290" s="4"/>
-      <c r="D290" s="26" t="s">
+      <c r="D290" s="23" t="s">
         <v>418</v>
       </c>
       <c r="E290" s="5" t="s">
@@ -12945,7 +12945,7 @@
         <v>2721</v>
       </c>
       <c r="C291" s="4"/>
-      <c r="D291" s="26" t="s">
+      <c r="D291" s="23" t="s">
         <v>419</v>
       </c>
       <c r="E291" s="5" t="s">
@@ -12978,7 +12978,7 @@
         <v>2722</v>
       </c>
       <c r="C292" s="4"/>
-      <c r="D292" s="26" t="s">
+      <c r="D292" s="23" t="s">
         <v>420</v>
       </c>
       <c r="E292" s="5" t="s">
@@ -13011,7 +13011,7 @@
         <v>2723</v>
       </c>
       <c r="C293" s="4"/>
-      <c r="D293" s="26" t="s">
+      <c r="D293" s="23" t="s">
         <v>421</v>
       </c>
       <c r="E293" s="5" t="s">
@@ -13044,7 +13044,7 @@
         <v>2724</v>
       </c>
       <c r="C294" s="4"/>
-      <c r="D294" s="26" t="s">
+      <c r="D294" s="23" t="s">
         <v>422</v>
       </c>
       <c r="E294" s="5" t="s">
@@ -13077,7 +13077,7 @@
         <v>2725</v>
       </c>
       <c r="C295" s="4"/>
-      <c r="D295" s="26" t="s">
+      <c r="D295" s="23" t="s">
         <v>423</v>
       </c>
       <c r="E295" s="5" t="s">
@@ -13110,7 +13110,7 @@
         <v>2726</v>
       </c>
       <c r="C296" s="4"/>
-      <c r="D296" s="26" t="s">
+      <c r="D296" s="23" t="s">
         <v>424</v>
       </c>
       <c r="E296" s="5" t="s">
@@ -13143,7 +13143,7 @@
         <v>2727</v>
       </c>
       <c r="C297" s="4"/>
-      <c r="D297" s="26" t="s">
+      <c r="D297" s="23" t="s">
         <v>425</v>
       </c>
       <c r="E297" s="5" t="s">
@@ -13176,7 +13176,7 @@
         <v>2728</v>
       </c>
       <c r="C298" s="4"/>
-      <c r="D298" s="26" t="s">
+      <c r="D298" s="23" t="s">
         <v>426</v>
       </c>
       <c r="E298" s="5" t="s">
@@ -13209,7 +13209,7 @@
         <v>2729</v>
       </c>
       <c r="C299" s="4"/>
-      <c r="D299" s="26" t="s">
+      <c r="D299" s="23" t="s">
         <v>427</v>
       </c>
       <c r="E299" s="5" t="s">
@@ -13242,7 +13242,7 @@
         <v>2730</v>
       </c>
       <c r="C300" s="4"/>
-      <c r="D300" s="26" t="s">
+      <c r="D300" s="23" t="s">
         <v>428</v>
       </c>
       <c r="E300" s="5" t="s">
@@ -13275,7 +13275,7 @@
         <v>2731</v>
       </c>
       <c r="C301" s="4"/>
-      <c r="D301" s="26" t="s">
+      <c r="D301" s="23" t="s">
         <v>429</v>
       </c>
       <c r="E301" s="5" t="s">
@@ -13308,7 +13308,7 @@
         <v>2732</v>
       </c>
       <c r="C302" s="4"/>
-      <c r="D302" s="26" t="s">
+      <c r="D302" s="23" t="s">
         <v>430</v>
       </c>
       <c r="E302" s="5" t="s">
@@ -13341,7 +13341,7 @@
         <v>2733</v>
       </c>
       <c r="C303" s="4"/>
-      <c r="D303" s="26" t="s">
+      <c r="D303" s="23" t="s">
         <v>431</v>
       </c>
       <c r="E303" s="5" t="s">
@@ -13374,7 +13374,7 @@
         <v>2734</v>
       </c>
       <c r="C304" s="4"/>
-      <c r="D304" s="26" t="s">
+      <c r="D304" s="23" t="s">
         <v>432</v>
       </c>
       <c r="E304" s="5" t="s">
@@ -13407,7 +13407,7 @@
         <v>2735</v>
       </c>
       <c r="C305" s="4"/>
-      <c r="D305" s="26" t="s">
+      <c r="D305" s="23" t="s">
         <v>433</v>
       </c>
       <c r="E305" s="5" t="s">
@@ -13440,7 +13440,7 @@
         <v>2736</v>
       </c>
       <c r="C306" s="4"/>
-      <c r="D306" s="26" t="s">
+      <c r="D306" s="23" t="s">
         <v>434</v>
       </c>
       <c r="E306" s="5" t="s">
@@ -13473,7 +13473,7 @@
         <v>2737</v>
       </c>
       <c r="C307" s="4"/>
-      <c r="D307" s="26" t="s">
+      <c r="D307" s="23" t="s">
         <v>435</v>
       </c>
       <c r="E307" s="5" t="s">
@@ -13506,7 +13506,7 @@
         <v>2738</v>
       </c>
       <c r="C308" s="4"/>
-      <c r="D308" s="26" t="s">
+      <c r="D308" s="23" t="s">
         <v>436</v>
       </c>
       <c r="E308" s="5" t="s">
@@ -13539,7 +13539,7 @@
         <v>2739</v>
       </c>
       <c r="C309" s="4"/>
-      <c r="D309" s="26" t="s">
+      <c r="D309" s="23" t="s">
         <v>437</v>
       </c>
       <c r="E309" s="5" t="s">
@@ -13572,7 +13572,7 @@
         <v>2740</v>
       </c>
       <c r="C310" s="4"/>
-      <c r="D310" s="26" t="s">
+      <c r="D310" s="23" t="s">
         <v>438</v>
       </c>
       <c r="E310" s="5" t="s">
@@ -13605,7 +13605,7 @@
         <v>2741</v>
       </c>
       <c r="C311" s="4"/>
-      <c r="D311" s="26" t="s">
+      <c r="D311" s="23" t="s">
         <v>439</v>
       </c>
       <c r="E311" s="5" t="s">
@@ -13638,7 +13638,7 @@
         <v>2742</v>
       </c>
       <c r="C312" s="4"/>
-      <c r="D312" s="26" t="s">
+      <c r="D312" s="23" t="s">
         <v>440</v>
       </c>
       <c r="E312" s="5" t="s">
@@ -13671,7 +13671,7 @@
         <v>2743</v>
       </c>
       <c r="C313" s="4"/>
-      <c r="D313" s="26" t="s">
+      <c r="D313" s="23" t="s">
         <v>441</v>
       </c>
       <c r="E313" s="5" t="s">
@@ -13704,7 +13704,7 @@
         <v>2744</v>
       </c>
       <c r="C314" s="4"/>
-      <c r="D314" s="26" t="s">
+      <c r="D314" s="23" t="s">
         <v>442</v>
       </c>
       <c r="E314" s="5" t="s">
@@ -13737,7 +13737,7 @@
         <v>2745</v>
       </c>
       <c r="C315" s="4"/>
-      <c r="D315" s="26" t="s">
+      <c r="D315" s="23" t="s">
         <v>443</v>
       </c>
       <c r="E315" s="5" t="s">
@@ -13770,7 +13770,7 @@
         <v>2746</v>
       </c>
       <c r="C316" s="4"/>
-      <c r="D316" s="26" t="s">
+      <c r="D316" s="23" t="s">
         <v>444</v>
       </c>
       <c r="E316" s="5" t="s">
@@ -13803,7 +13803,7 @@
         <v>2747</v>
       </c>
       <c r="C317" s="4"/>
-      <c r="D317" s="26" t="s">
+      <c r="D317" s="23" t="s">
         <v>445</v>
       </c>
       <c r="E317" s="5" t="s">
@@ -13836,7 +13836,7 @@
         <v>2748</v>
       </c>
       <c r="C318" s="4"/>
-      <c r="D318" s="26" t="s">
+      <c r="D318" s="23" t="s">
         <v>446</v>
       </c>
       <c r="E318" s="5" t="s">
@@ -13869,7 +13869,7 @@
         <v>2749</v>
       </c>
       <c r="C319" s="4"/>
-      <c r="D319" s="26" t="s">
+      <c r="D319" s="23" t="s">
         <v>447</v>
       </c>
       <c r="E319" s="5" t="s">
@@ -13902,7 +13902,7 @@
         <v>2750</v>
       </c>
       <c r="C320" s="4"/>
-      <c r="D320" s="26" t="s">
+      <c r="D320" s="23" t="s">
         <v>448</v>
       </c>
       <c r="E320" s="5" t="s">
@@ -13935,7 +13935,7 @@
         <v>2751</v>
       </c>
       <c r="C321" s="4"/>
-      <c r="D321" s="26" t="s">
+      <c r="D321" s="23" t="s">
         <v>449</v>
       </c>
       <c r="E321" s="5" t="s">
@@ -13968,7 +13968,7 @@
         <v>2752</v>
       </c>
       <c r="C322" s="4"/>
-      <c r="D322" s="26" t="s">
+      <c r="D322" s="23" t="s">
         <v>450</v>
       </c>
       <c r="E322" s="5" t="s">
@@ -14001,7 +14001,7 @@
         <v>2753</v>
       </c>
       <c r="C323" s="4"/>
-      <c r="D323" s="26" t="s">
+      <c r="D323" s="23" t="s">
         <v>451</v>
       </c>
       <c r="E323" s="5" t="s">
@@ -14034,7 +14034,7 @@
         <v>2754</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="D324" s="26" t="s">
+      <c r="D324" s="23" t="s">
         <v>452</v>
       </c>
       <c r="E324" s="5" t="s">
@@ -14067,7 +14067,7 @@
         <v>2755</v>
       </c>
       <c r="C325" s="4"/>
-      <c r="D325" s="26" t="s">
+      <c r="D325" s="23" t="s">
         <v>453</v>
       </c>
       <c r="E325" s="5" t="s">
@@ -14100,7 +14100,7 @@
         <v>2756</v>
       </c>
       <c r="C326" s="4"/>
-      <c r="D326" s="26" t="s">
+      <c r="D326" s="23" t="s">
         <v>454</v>
       </c>
       <c r="E326" s="5" t="s">
@@ -14133,7 +14133,7 @@
         <v>2757</v>
       </c>
       <c r="C327" s="4"/>
-      <c r="D327" s="26" t="s">
+      <c r="D327" s="23" t="s">
         <v>455</v>
       </c>
       <c r="E327" s="5" t="s">
@@ -14166,7 +14166,7 @@
         <v>2758</v>
       </c>
       <c r="C328" s="4"/>
-      <c r="D328" s="26" t="s">
+      <c r="D328" s="23" t="s">
         <v>456</v>
       </c>
       <c r="E328" s="5" t="s">
@@ -14199,7 +14199,7 @@
         <v>2759</v>
       </c>
       <c r="C329" s="4"/>
-      <c r="D329" s="26" t="s">
+      <c r="D329" s="23" t="s">
         <v>457</v>
       </c>
       <c r="E329" s="5" t="s">
@@ -14232,7 +14232,7 @@
         <v>2760</v>
       </c>
       <c r="C330" s="4"/>
-      <c r="D330" s="26" t="s">
+      <c r="D330" s="23" t="s">
         <v>458</v>
       </c>
       <c r="E330" s="5" t="s">
@@ -14265,7 +14265,7 @@
         <v>2761</v>
       </c>
       <c r="C331" s="4"/>
-      <c r="D331" s="26" t="s">
+      <c r="D331" s="23" t="s">
         <v>459</v>
       </c>
       <c r="E331" s="5" t="s">
@@ -14298,7 +14298,7 @@
         <v>2762</v>
       </c>
       <c r="C332" s="4"/>
-      <c r="D332" s="26" t="s">
+      <c r="D332" s="23" t="s">
         <v>460</v>
       </c>
       <c r="E332" s="5" t="s">
@@ -14331,7 +14331,7 @@
         <v>2763</v>
       </c>
       <c r="C333" s="4"/>
-      <c r="D333" s="26" t="s">
+      <c r="D333" s="23" t="s">
         <v>461</v>
       </c>
       <c r="E333" s="5" t="s">
@@ -14364,7 +14364,7 @@
         <v>2764</v>
       </c>
       <c r="C334" s="4"/>
-      <c r="D334" s="26" t="s">
+      <c r="D334" s="23" t="s">
         <v>462</v>
       </c>
       <c r="E334" s="5" t="s">
@@ -14397,7 +14397,7 @@
         <v>2765</v>
       </c>
       <c r="C335" s="4"/>
-      <c r="D335" s="26" t="s">
+      <c r="D335" s="23" t="s">
         <v>463</v>
       </c>
       <c r="E335" s="5" t="s">
@@ -14430,7 +14430,7 @@
         <v>2766</v>
       </c>
       <c r="C336" s="4"/>
-      <c r="D336" s="26" t="s">
+      <c r="D336" s="23" t="s">
         <v>464</v>
       </c>
       <c r="E336" s="5" t="s">
@@ -14463,7 +14463,7 @@
         <v>2767</v>
       </c>
       <c r="C337" s="4"/>
-      <c r="D337" s="26" t="s">
+      <c r="D337" s="23" t="s">
         <v>465</v>
       </c>
       <c r="E337" s="5" t="s">
@@ -14496,7 +14496,7 @@
         <v>2768</v>
       </c>
       <c r="C338" s="4"/>
-      <c r="D338" s="26" t="s">
+      <c r="D338" s="23" t="s">
         <v>466</v>
       </c>
       <c r="E338" s="5" t="s">
@@ -14529,7 +14529,7 @@
         <v>2769</v>
       </c>
       <c r="C339" s="4"/>
-      <c r="D339" s="26" t="s">
+      <c r="D339" s="23" t="s">
         <v>467</v>
       </c>
       <c r="E339" s="5" t="s">
@@ -14562,7 +14562,7 @@
         <v>2770</v>
       </c>
       <c r="C340" s="4"/>
-      <c r="D340" s="26" t="s">
+      <c r="D340" s="23" t="s">
         <v>468</v>
       </c>
       <c r="E340" s="5" t="s">
@@ -14595,7 +14595,7 @@
         <v>2771</v>
       </c>
       <c r="C341" s="4"/>
-      <c r="D341" s="26" t="s">
+      <c r="D341" s="23" t="s">
         <v>469</v>
       </c>
       <c r="E341" s="5" t="s">
@@ -14628,7 +14628,7 @@
         <v>2772</v>
       </c>
       <c r="C342" s="4"/>
-      <c r="D342" s="26" t="s">
+      <c r="D342" s="23" t="s">
         <v>470</v>
       </c>
       <c r="E342" s="5" t="s">
@@ -14661,7 +14661,7 @@
         <v>2773</v>
       </c>
       <c r="C343" s="4"/>
-      <c r="D343" s="26" t="s">
+      <c r="D343" s="23" t="s">
         <v>471</v>
       </c>
       <c r="E343" s="5" t="s">
@@ -14694,7 +14694,7 @@
         <v>2774</v>
       </c>
       <c r="C344" s="4"/>
-      <c r="D344" s="26" t="s">
+      <c r="D344" s="23" t="s">
         <v>472</v>
       </c>
       <c r="E344" s="5" t="s">
@@ -14727,7 +14727,7 @@
         <v>2775</v>
       </c>
       <c r="C345" s="4"/>
-      <c r="D345" s="26" t="s">
+      <c r="D345" s="23" t="s">
         <v>473</v>
       </c>
       <c r="E345" s="5" t="s">
@@ -14760,7 +14760,7 @@
         <v>2776</v>
       </c>
       <c r="C346" s="4"/>
-      <c r="D346" s="26" t="s">
+      <c r="D346" s="23" t="s">
         <v>474</v>
       </c>
       <c r="E346" s="5" t="s">
@@ -14793,7 +14793,7 @@
         <v>2777</v>
       </c>
       <c r="C347" s="4"/>
-      <c r="D347" s="26" t="s">
+      <c r="D347" s="23" t="s">
         <v>475</v>
       </c>
       <c r="E347" s="5" t="s">
@@ -14826,7 +14826,7 @@
         <v>2778</v>
       </c>
       <c r="C348" s="4"/>
-      <c r="D348" s="26" t="s">
+      <c r="D348" s="23" t="s">
         <v>476</v>
       </c>
       <c r="E348" s="5" t="s">
@@ -14859,7 +14859,7 @@
         <v>2779</v>
       </c>
       <c r="C349" s="4"/>
-      <c r="D349" s="26" t="s">
+      <c r="D349" s="23" t="s">
         <v>477</v>
       </c>
       <c r="E349" s="5" t="s">
@@ -14892,7 +14892,7 @@
         <v>2780</v>
       </c>
       <c r="C350" s="4"/>
-      <c r="D350" s="26" t="s">
+      <c r="D350" s="23" t="s">
         <v>478</v>
       </c>
       <c r="E350" s="5" t="s">
@@ -14925,7 +14925,7 @@
         <v>2781</v>
       </c>
       <c r="C351" s="4"/>
-      <c r="D351" s="26" t="s">
+      <c r="D351" s="23" t="s">
         <v>479</v>
       </c>
       <c r="E351" s="5" t="s">
@@ -14958,7 +14958,7 @@
         <v>2782</v>
       </c>
       <c r="C352" s="4"/>
-      <c r="D352" s="26" t="s">
+      <c r="D352" s="23" t="s">
         <v>480</v>
       </c>
       <c r="E352" s="5" t="s">
@@ -14991,7 +14991,7 @@
         <v>2783</v>
       </c>
       <c r="C353" s="4"/>
-      <c r="D353" s="26" t="s">
+      <c r="D353" s="23" t="s">
         <v>481</v>
       </c>
       <c r="E353" s="5" t="s">
@@ -15024,7 +15024,7 @@
         <v>2784</v>
       </c>
       <c r="C354" s="4"/>
-      <c r="D354" s="26" t="s">
+      <c r="D354" s="23" t="s">
         <v>482</v>
       </c>
       <c r="E354" s="5" t="s">
@@ -15057,7 +15057,7 @@
         <v>2785</v>
       </c>
       <c r="C355" s="4"/>
-      <c r="D355" s="26" t="s">
+      <c r="D355" s="23" t="s">
         <v>483</v>
       </c>
       <c r="E355" s="5" t="s">
@@ -15090,7 +15090,7 @@
         <v>2786</v>
       </c>
       <c r="C356" s="4"/>
-      <c r="D356" s="26" t="s">
+      <c r="D356" s="23" t="s">
         <v>484</v>
       </c>
       <c r="E356" s="5" t="s">
@@ -15123,7 +15123,7 @@
         <v>2787</v>
       </c>
       <c r="C357" s="4"/>
-      <c r="D357" s="26" t="s">
+      <c r="D357" s="23" t="s">
         <v>485</v>
       </c>
       <c r="E357" s="5" t="s">
@@ -15156,7 +15156,7 @@
         <v>2788</v>
       </c>
       <c r="C358" s="4"/>
-      <c r="D358" s="26" t="s">
+      <c r="D358" s="23" t="s">
         <v>486</v>
       </c>
       <c r="E358" s="5" t="s">
@@ -15189,7 +15189,7 @@
         <v>2789</v>
       </c>
       <c r="C359" s="4"/>
-      <c r="D359" s="26" t="s">
+      <c r="D359" s="23" t="s">
         <v>487</v>
       </c>
       <c r="E359" s="5" t="s">
@@ -15222,7 +15222,7 @@
         <v>2790</v>
       </c>
       <c r="C360" s="4"/>
-      <c r="D360" s="26" t="s">
+      <c r="D360" s="23" t="s">
         <v>488</v>
       </c>
       <c r="E360" s="5" t="s">
@@ -15255,7 +15255,7 @@
         <v>2791</v>
       </c>
       <c r="C361" s="4"/>
-      <c r="D361" s="26" t="s">
+      <c r="D361" s="23" t="s">
         <v>489</v>
       </c>
       <c r="E361" s="5" t="s">
@@ -15288,7 +15288,7 @@
         <v>2792</v>
       </c>
       <c r="C362" s="4"/>
-      <c r="D362" s="26" t="s">
+      <c r="D362" s="23" t="s">
         <v>490</v>
       </c>
       <c r="E362" s="5" t="s">
@@ -15321,7 +15321,7 @@
         <v>2793</v>
       </c>
       <c r="C363" s="4"/>
-      <c r="D363" s="26" t="s">
+      <c r="D363" s="23" t="s">
         <v>491</v>
       </c>
       <c r="E363" s="5" t="s">
@@ -15354,7 +15354,7 @@
         <v>2794</v>
       </c>
       <c r="C364" s="4"/>
-      <c r="D364" s="26" t="s">
+      <c r="D364" s="23" t="s">
         <v>492</v>
       </c>
       <c r="E364" s="5" t="s">
@@ -15387,7 +15387,7 @@
         <v>2795</v>
       </c>
       <c r="C365" s="4"/>
-      <c r="D365" s="26" t="s">
+      <c r="D365" s="23" t="s">
         <v>493</v>
       </c>
       <c r="E365" s="5" t="s">
@@ -15420,7 +15420,7 @@
         <v>2796</v>
       </c>
       <c r="C366" s="4"/>
-      <c r="D366" s="26" t="s">
+      <c r="D366" s="23" t="s">
         <v>494</v>
       </c>
       <c r="E366" s="5" t="s">
@@ -15453,7 +15453,7 @@
         <v>2797</v>
       </c>
       <c r="C367" s="4"/>
-      <c r="D367" s="26" t="s">
+      <c r="D367" s="23" t="s">
         <v>495</v>
       </c>
       <c r="E367" s="5" t="s">
@@ -15486,7 +15486,7 @@
         <v>2798</v>
       </c>
       <c r="C368" s="4"/>
-      <c r="D368" s="26" t="s">
+      <c r="D368" s="23" t="s">
         <v>496</v>
       </c>
       <c r="E368" s="5" t="s">
@@ -15519,7 +15519,7 @@
         <v>2799</v>
       </c>
       <c r="C369" s="4"/>
-      <c r="D369" s="26" t="s">
+      <c r="D369" s="23" t="s">
         <v>497</v>
       </c>
       <c r="E369" s="5" t="s">
@@ -15552,7 +15552,7 @@
         <v>2800</v>
       </c>
       <c r="C370" s="4"/>
-      <c r="D370" s="26" t="s">
+      <c r="D370" s="23" t="s">
         <v>498</v>
       </c>
       <c r="E370" s="5" t="s">
@@ -15585,7 +15585,7 @@
         <v>2801</v>
       </c>
       <c r="C371" s="4"/>
-      <c r="D371" s="26" t="s">
+      <c r="D371" s="23" t="s">
         <v>499</v>
       </c>
       <c r="E371" s="5" t="s">
@@ -15618,7 +15618,7 @@
         <v>2802</v>
       </c>
       <c r="C372" s="4"/>
-      <c r="D372" s="26" t="s">
+      <c r="D372" s="23" t="s">
         <v>500</v>
       </c>
       <c r="E372" s="5" t="s">
@@ -15651,7 +15651,7 @@
         <v>2803</v>
       </c>
       <c r="C373" s="4"/>
-      <c r="D373" s="26" t="s">
+      <c r="D373" s="23" t="s">
         <v>501</v>
       </c>
       <c r="E373" s="5" t="s">
@@ -15684,7 +15684,7 @@
         <v>2804</v>
       </c>
       <c r="C374" s="4"/>
-      <c r="D374" s="26" t="s">
+      <c r="D374" s="23" t="s">
         <v>502</v>
       </c>
       <c r="E374" s="5" t="s">
@@ -15717,7 +15717,7 @@
         <v>2805</v>
       </c>
       <c r="C375" s="4"/>
-      <c r="D375" s="26" t="s">
+      <c r="D375" s="23" t="s">
         <v>503</v>
       </c>
       <c r="E375" s="5" t="s">
@@ -15750,7 +15750,7 @@
         <v>2806</v>
       </c>
       <c r="C376" s="4"/>
-      <c r="D376" s="26" t="s">
+      <c r="D376" s="23" t="s">
         <v>504</v>
       </c>
       <c r="E376" s="5" t="s">
@@ -15783,7 +15783,7 @@
         <v>2807</v>
       </c>
       <c r="C377" s="4"/>
-      <c r="D377" s="26" t="s">
+      <c r="D377" s="23" t="s">
         <v>505</v>
       </c>
       <c r="E377" s="5" t="s">
@@ -15816,7 +15816,7 @@
         <v>2808</v>
       </c>
       <c r="C378" s="4"/>
-      <c r="D378" s="26" t="s">
+      <c r="D378" s="23" t="s">
         <v>506</v>
       </c>
       <c r="E378" s="5" t="s">
@@ -15849,7 +15849,7 @@
         <v>2809</v>
       </c>
       <c r="C379" s="4"/>
-      <c r="D379" s="26" t="s">
+      <c r="D379" s="23" t="s">
         <v>507</v>
       </c>
       <c r="E379" s="5" t="s">
@@ -15882,7 +15882,7 @@
         <v>2810</v>
       </c>
       <c r="C380" s="4"/>
-      <c r="D380" s="26" t="s">
+      <c r="D380" s="23" t="s">
         <v>508</v>
       </c>
       <c r="E380" s="5" t="s">
@@ -15915,7 +15915,7 @@
         <v>2811</v>
       </c>
       <c r="C381" s="4"/>
-      <c r="D381" s="26" t="s">
+      <c r="D381" s="23" t="s">
         <v>509</v>
       </c>
       <c r="E381" s="5" t="s">
@@ -15948,7 +15948,7 @@
         <v>2812</v>
       </c>
       <c r="C382" s="4"/>
-      <c r="D382" s="26" t="s">
+      <c r="D382" s="23" t="s">
         <v>510</v>
       </c>
       <c r="E382" s="5" t="s">
@@ -15981,7 +15981,7 @@
         <v>2813</v>
       </c>
       <c r="C383" s="4"/>
-      <c r="D383" s="26" t="s">
+      <c r="D383" s="23" t="s">
         <v>511</v>
       </c>
       <c r="E383" s="5" t="s">
@@ -16014,7 +16014,7 @@
         <v>2814</v>
       </c>
       <c r="C384" s="4"/>
-      <c r="D384" s="26" t="s">
+      <c r="D384" s="23" t="s">
         <v>512</v>
       </c>
       <c r="E384" s="5" t="s">
@@ -16047,7 +16047,7 @@
         <v>2815</v>
       </c>
       <c r="C385" s="4"/>
-      <c r="D385" s="26" t="s">
+      <c r="D385" s="23" t="s">
         <v>513</v>
       </c>
       <c r="E385" s="5" t="s">
@@ -16080,7 +16080,7 @@
         <v>2816</v>
       </c>
       <c r="C386" s="4"/>
-      <c r="D386" s="26" t="s">
+      <c r="D386" s="23" t="s">
         <v>514</v>
       </c>
       <c r="E386" s="5" t="s">
@@ -16113,7 +16113,7 @@
         <v>2817</v>
       </c>
       <c r="C387" s="4"/>
-      <c r="D387" s="26" t="s">
+      <c r="D387" s="23" t="s">
         <v>515</v>
       </c>
       <c r="E387" s="5" t="s">
@@ -16146,7 +16146,7 @@
         <v>2818</v>
       </c>
       <c r="C388" s="4"/>
-      <c r="D388" s="26" t="s">
+      <c r="D388" s="23" t="s">
         <v>516</v>
       </c>
       <c r="E388" s="5" t="s">
@@ -16179,7 +16179,7 @@
         <v>2819</v>
       </c>
       <c r="C389" s="4"/>
-      <c r="D389" s="26" t="s">
+      <c r="D389" s="23" t="s">
         <v>517</v>
       </c>
       <c r="E389" s="5" t="s">
@@ -16212,7 +16212,7 @@
         <v>2820</v>
       </c>
       <c r="C390" s="4"/>
-      <c r="D390" s="26" t="s">
+      <c r="D390" s="23" t="s">
         <v>518</v>
       </c>
       <c r="E390" s="5" t="s">
@@ -16245,7 +16245,7 @@
         <v>2821</v>
       </c>
       <c r="C391" s="4"/>
-      <c r="D391" s="26" t="s">
+      <c r="D391" s="23" t="s">
         <v>519</v>
       </c>
       <c r="E391" s="5" t="s">
@@ -16278,7 +16278,7 @@
         <v>2822</v>
       </c>
       <c r="C392" s="4"/>
-      <c r="D392" s="26" t="s">
+      <c r="D392" s="23" t="s">
         <v>520</v>
       </c>
       <c r="E392" s="5" t="s">
@@ -16311,7 +16311,7 @@
         <v>2823</v>
       </c>
       <c r="C393" s="4"/>
-      <c r="D393" s="26" t="s">
+      <c r="D393" s="23" t="s">
         <v>521</v>
       </c>
       <c r="E393" s="5" t="s">
@@ -16344,7 +16344,7 @@
         <v>2824</v>
       </c>
       <c r="C394" s="4"/>
-      <c r="D394" s="26" t="s">
+      <c r="D394" s="23" t="s">
         <v>522</v>
       </c>
       <c r="E394" s="5" t="s">
@@ -16377,7 +16377,7 @@
         <v>2825</v>
       </c>
       <c r="C395" s="4"/>
-      <c r="D395" s="26" t="s">
+      <c r="D395" s="23" t="s">
         <v>523</v>
       </c>
       <c r="E395" s="5" t="s">
@@ -16410,7 +16410,7 @@
         <v>2826</v>
       </c>
       <c r="C396" s="4"/>
-      <c r="D396" s="26" t="s">
+      <c r="D396" s="23" t="s">
         <v>524</v>
       </c>
       <c r="E396" s="5" t="s">
@@ -16443,7 +16443,7 @@
         <v>2827</v>
       </c>
       <c r="C397" s="4"/>
-      <c r="D397" s="26" t="s">
+      <c r="D397" s="23" t="s">
         <v>525</v>
       </c>
       <c r="E397" s="5" t="s">
@@ -16476,7 +16476,7 @@
         <v>2828</v>
       </c>
       <c r="C398" s="4"/>
-      <c r="D398" s="26" t="s">
+      <c r="D398" s="23" t="s">
         <v>526</v>
       </c>
       <c r="E398" s="5" t="s">
@@ -16509,7 +16509,7 @@
         <v>2829</v>
       </c>
       <c r="C399" s="4"/>
-      <c r="D399" s="26" t="s">
+      <c r="D399" s="23" t="s">
         <v>527</v>
       </c>
       <c r="E399" s="5" t="s">
@@ -16542,7 +16542,7 @@
         <v>2830</v>
       </c>
       <c r="C400" s="4"/>
-      <c r="D400" s="26" t="s">
+      <c r="D400" s="23" t="s">
         <v>528</v>
       </c>
       <c r="E400" s="5" t="s">
@@ -16575,7 +16575,7 @@
         <v>2831</v>
       </c>
       <c r="C401" s="4"/>
-      <c r="D401" s="26" t="s">
+      <c r="D401" s="23" t="s">
         <v>529</v>
       </c>
       <c r="E401" s="5" t="s">
@@ -16608,7 +16608,7 @@
         <v>2832</v>
       </c>
       <c r="C402" s="4"/>
-      <c r="D402" s="26" t="s">
+      <c r="D402" s="23" t="s">
         <v>530</v>
       </c>
       <c r="E402" s="5" t="s">
@@ -16641,7 +16641,7 @@
         <v>2833</v>
       </c>
       <c r="C403" s="4"/>
-      <c r="D403" s="26" t="s">
+      <c r="D403" s="23" t="s">
         <v>531</v>
       </c>
       <c r="E403" s="5" t="s">
@@ -16674,7 +16674,7 @@
         <v>2834</v>
       </c>
       <c r="C404" s="4"/>
-      <c r="D404" s="26" t="s">
+      <c r="D404" s="23" t="s">
         <v>532</v>
       </c>
       <c r="E404" s="5" t="s">
@@ -16707,7 +16707,7 @@
         <v>2835</v>
       </c>
       <c r="C405" s="4"/>
-      <c r="D405" s="26" t="s">
+      <c r="D405" s="23" t="s">
         <v>533</v>
       </c>
       <c r="E405" s="5" t="s">
@@ -16736,7 +16736,7 @@
         <v>2836</v>
       </c>
       <c r="C406" s="4"/>
-      <c r="D406" s="26" t="s">
+      <c r="D406" s="23" t="s">
         <v>753</v>
       </c>
       <c r="E406" s="5" t="s">
@@ -16765,7 +16765,7 @@
         <v>2837</v>
       </c>
       <c r="C407" s="4"/>
-      <c r="D407" s="26" t="s">
+      <c r="D407" s="23" t="s">
         <v>752</v>
       </c>
       <c r="E407" s="5" t="s">
@@ -16794,7 +16794,7 @@
         <v>2838</v>
       </c>
       <c r="C408" s="4"/>
-      <c r="D408" s="26" t="s">
+      <c r="D408" s="23" t="s">
         <v>751</v>
       </c>
       <c r="E408" s="5" t="s">
@@ -16823,7 +16823,7 @@
         <v>2839</v>
       </c>
       <c r="C409" s="4"/>
-      <c r="D409" s="26" t="s">
+      <c r="D409" s="23" t="s">
         <v>750</v>
       </c>
       <c r="E409" s="5" t="s">
@@ -16852,7 +16852,7 @@
         <v>2840</v>
       </c>
       <c r="C410" s="4"/>
-      <c r="D410" s="26" t="s">
+      <c r="D410" s="23" t="s">
         <v>754</v>
       </c>
       <c r="E410" s="5" t="s">
@@ -16881,7 +16881,7 @@
         <v>2841</v>
       </c>
       <c r="C411" s="4"/>
-      <c r="D411" s="26" t="s">
+      <c r="D411" s="23" t="s">
         <v>755</v>
       </c>
       <c r="E411" s="5" t="s">
@@ -16908,7 +16908,7 @@
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
-      <c r="D412" s="31"/>
+      <c r="D412" s="28"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>

--- a/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
+++ b/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="827">
   <si>
     <t>№101</t>
   </si>
@@ -2964,8 +2964,8 @@
   <dimension ref="A1:M414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,8 +3064,9 @@
       <c r="B4" s="4">
         <v>2001</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
+      <c r="C4" s="4">
+        <f>C3+1</f>
+        <v>3001</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>775</v>
@@ -3099,8 +3100,9 @@
         <f>B4+1</f>
         <v>2002</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C35" si="0">C4+1</f>
+        <v>3002</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>776</v>
@@ -3127,15 +3129,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A35" si="0">A5+1</f>
+        <f t="shared" ref="A6:A35" si="1">A5+1</f>
         <v>1003</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B35" si="1">B5+1</f>
+        <f t="shared" ref="B6:B35" si="2">B5+1</f>
         <v>2003</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>3003</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>777</v>
@@ -3162,15 +3165,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>1004</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>1004</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="1"/>
-        <v>2004</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>3004</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>778</v>
@@ -3197,15 +3201,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>1005</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="1"/>
-        <v>2005</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>3005</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>779</v>
@@ -3232,15 +3237,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>1006</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>1006</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="1"/>
-        <v>2006</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>3006</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>780</v>
@@ -3267,15 +3273,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>1007</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>1007</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="1"/>
-        <v>2007</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>3007</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>781</v>
@@ -3302,15 +3309,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" si="1"/>
-        <v>2008</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>3008</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>782</v>
@@ -3337,15 +3345,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>1009</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>1009</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="1"/>
-        <v>2009</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>3009</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>783</v>
@@ -3372,15 +3381,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="2"/>
+        <v>2010</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="1"/>
-        <v>2010</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>3010</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>784</v>
@@ -3407,15 +3417,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>1011</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>1011</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="1"/>
-        <v>2011</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>3011</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>785</v>
@@ -3442,15 +3453,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>1012</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
-        <v>2012</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>3012</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>786</v>
@@ -3477,15 +3489,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>1013</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
-        <v>2013</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>3013</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>787</v>
@@ -3512,15 +3525,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>1014</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
-        <v>2014</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>3014</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>788</v>
@@ -3547,15 +3561,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>1015</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
-        <v>2015</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>3015</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>789</v>
@@ -3582,15 +3597,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>1016</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
-        <v>2016</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
+        <v>3016</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>790</v>
@@ -3617,15 +3633,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>1017</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="1"/>
-        <v>2017</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>3017</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>791</v>
@@ -3652,15 +3669,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
-        <v>1018</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="1"/>
-        <v>2018</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>3018</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>792</v>
@@ -3687,15 +3705,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>1019</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
-        <v>1019</v>
-      </c>
-      <c r="B22" s="4">
-        <f t="shared" si="1"/>
-        <v>2019</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>3019</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>793</v>
@@ -3722,15 +3741,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
-        <v>1020</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" si="1"/>
-        <v>2020</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>3020</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>794</v>
@@ -3757,15 +3777,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>1021</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
-        <v>1021</v>
-      </c>
-      <c r="B24" s="4">
-        <f t="shared" si="1"/>
-        <v>2021</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>3021</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>795</v>
@@ -3792,15 +3813,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>1022</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
-        <v>1022</v>
-      </c>
-      <c r="B25" s="4">
-        <f t="shared" si="1"/>
-        <v>2022</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>3022</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>796</v>
@@ -3827,15 +3849,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>1023</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
-        <v>1023</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" si="1"/>
-        <v>2023</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>34</v>
+        <v>3023</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>797</v>
@@ -3862,15 +3885,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" si="1"/>
-        <v>2024</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>3024</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>798</v>
@@ -3897,15 +3921,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>1025</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
-        <v>1025</v>
-      </c>
-      <c r="B28" s="4">
-        <f t="shared" si="1"/>
-        <v>2025</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>3025</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>799</v>
@@ -3932,15 +3957,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>1026</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="2"/>
+        <v>2026</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
-        <v>1026</v>
-      </c>
-      <c r="B29" s="4">
-        <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>3026</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>800</v>
@@ -3967,15 +3993,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>1027</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="2"/>
+        <v>2027</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
-        <v>1027</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" si="1"/>
-        <v>2027</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>3027</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>801</v>
@@ -4002,15 +4029,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>1028</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
-        <v>1028</v>
-      </c>
-      <c r="B31" s="4">
-        <f t="shared" si="1"/>
-        <v>2028</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>34</v>
+        <v>3028</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>802</v>
@@ -4037,15 +4065,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>1029</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="2"/>
+        <v>2029</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" si="0"/>
-        <v>1029</v>
-      </c>
-      <c r="B32" s="4">
-        <f t="shared" si="1"/>
-        <v>2029</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>34</v>
+        <v>3029</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>803</v>
@@ -4072,15 +4101,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>1030</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="2"/>
+        <v>2030</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" si="0"/>
-        <v>1030</v>
-      </c>
-      <c r="B33" s="4">
-        <f t="shared" si="1"/>
-        <v>2030</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>3030</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>804</v>
@@ -4107,15 +4137,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>1031</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="2"/>
+        <v>2031</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="0"/>
-        <v>1031</v>
-      </c>
-      <c r="B34" s="4">
-        <f t="shared" si="1"/>
-        <v>2031</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>3031</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>805</v>
@@ -4142,15 +4173,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>1032</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="0"/>
-        <v>1032</v>
-      </c>
-      <c r="B35" s="4">
-        <f t="shared" si="1"/>
-        <v>2032</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>3032</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>806</v>
@@ -4183,8 +4215,8 @@
         <f>B3+101</f>
         <v>2101</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>34</v>
+      <c r="C36" s="4">
+        <v>3101</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>808</v>
@@ -4220,8 +4252,8 @@
         <f>B36+1</f>
         <v>2102</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
+      <c r="C37" s="4">
+        <v>3102</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>814</v>
@@ -4254,11 +4286,11 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" ref="B38:B44" si="2">B37+1</f>
+        <f t="shared" ref="B38:B44" si="3">B37+1</f>
         <v>2103</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>34</v>
+      <c r="C38" s="4">
+        <v>3103</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>815</v>
@@ -4291,11 +4323,11 @@
         <v>34</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2104</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>34</v>
+      <c r="C39" s="4">
+        <v>3104</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>807</v>
@@ -4328,11 +4360,11 @@
         <v>34</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2105</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>34</v>
+      <c r="C40" s="4">
+        <v>3105</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>34</v>
@@ -4365,11 +4397,11 @@
         <v>34</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2106</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>34</v>
+      <c r="C41" s="4">
+        <v>3106</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>34</v>
@@ -4400,11 +4432,11 @@
         <v>34</v>
       </c>
       <c r="B42" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2107</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>34</v>
+      <c r="C42" s="31">
+        <v>3107</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>816</v>
@@ -4438,11 +4470,11 @@
         <v>34</v>
       </c>
       <c r="B43" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2108</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>34</v>
+      <c r="C43" s="31">
+        <v>3108</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>817</v>
@@ -4476,11 +4508,11 @@
         <v>34</v>
       </c>
       <c r="B44" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2109</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>34</v>
+      <c r="C44" s="31">
+        <v>3109</v>
       </c>
       <c r="D44" s="30" t="s">
         <v>34</v>
@@ -4565,15 +4597,15 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" ref="A47:C49" si="3">A46+1</f>
+        <f t="shared" ref="A47:C49" si="4">A46+1</f>
         <v>202</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2202</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3202</v>
       </c>
       <c r="D47" s="23" t="s">
@@ -4604,15 +4636,15 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2203</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3203</v>
       </c>
       <c r="D48" s="23" t="s">
@@ -4641,15 +4673,15 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2204</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3204</v>
       </c>
       <c r="D49" s="23" t="s">
@@ -4824,15 +4856,15 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <f t="shared" ref="A56:A85" si="4">A55+1</f>
+        <f t="shared" ref="A56:A85" si="5">A55+1</f>
         <v>303</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" ref="B56:C85" si="5">B55+1</f>
+        <f t="shared" ref="B56:C85" si="6">B55+1</f>
         <v>2303</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3303</v>
       </c>
       <c r="D56" s="23" t="s">
@@ -4858,15 +4890,15 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2304</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3304</v>
       </c>
       <c r="D57" s="23" t="s">
@@ -4892,15 +4924,15 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2305</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3305</v>
       </c>
       <c r="D58" s="23" t="s">
@@ -4926,15 +4958,15 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2306</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3306</v>
       </c>
       <c r="D59" s="23" t="s">
@@ -4960,15 +4992,15 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>307</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2307</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3307</v>
       </c>
       <c r="D60" s="23" t="s">
@@ -4994,15 +5026,15 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2308</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3308</v>
       </c>
       <c r="D61" s="23" t="s">
@@ -5028,15 +5060,15 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>309</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2309</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3309</v>
       </c>
       <c r="D62" s="23" t="s">
@@ -5062,15 +5094,15 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2310</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3310</v>
       </c>
       <c r="D63" s="23" t="s">
@@ -5096,15 +5128,15 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2311</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3311</v>
       </c>
       <c r="D64" s="23" t="s">
@@ -5130,15 +5162,15 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>312</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2312</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3312</v>
       </c>
       <c r="D65" s="23" t="s">
@@ -5164,15 +5196,15 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2313</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3313</v>
       </c>
       <c r="D66" s="23" t="s">
@@ -5198,15 +5230,15 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>314</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2314</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3314</v>
       </c>
       <c r="D67" s="23" t="s">
@@ -5232,15 +5264,15 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2315</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3315</v>
       </c>
       <c r="D68" s="23" t="s">
@@ -5266,15 +5298,15 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2316</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3316</v>
       </c>
       <c r="D69" s="23" t="s">
@@ -5300,15 +5332,15 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>317</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2317</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3317</v>
       </c>
       <c r="D70" s="23" t="s">
@@ -5334,15 +5366,15 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2318</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3318</v>
       </c>
       <c r="D71" s="23" t="s">
@@ -5368,15 +5400,15 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>319</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2319</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3319</v>
       </c>
       <c r="D72" s="23" t="s">
@@ -5402,15 +5434,15 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2320</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3320</v>
       </c>
       <c r="D73" s="23" t="s">
@@ -5436,15 +5468,15 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>321</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2321</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3321</v>
       </c>
       <c r="D74" s="23" t="s">
@@ -5470,15 +5502,15 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>322</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2322</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3322</v>
       </c>
       <c r="D75" s="23" t="s">
@@ -5504,15 +5536,15 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>323</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2323</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3323</v>
       </c>
       <c r="D76" s="23" t="s">
@@ -5538,15 +5570,15 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2324</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3324</v>
       </c>
       <c r="D77" s="23" t="s">
@@ -5572,15 +5604,15 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2325</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3325</v>
       </c>
       <c r="D78" s="23" t="s">
@@ -5606,15 +5638,15 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2326</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3326</v>
       </c>
       <c r="D79" s="23" t="s">
@@ -5640,15 +5672,15 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2327</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3327</v>
       </c>
       <c r="D80" s="23" t="s">
@@ -5674,15 +5706,15 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2328</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3328</v>
       </c>
       <c r="D81" s="23" t="s">
@@ -5708,15 +5740,15 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2329</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3329</v>
       </c>
       <c r="D82" s="23" t="s">
@@ -5742,15 +5774,15 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2330</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3330</v>
       </c>
       <c r="D83" s="23" t="s">
@@ -5776,15 +5808,15 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2331</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3331</v>
       </c>
       <c r="D84" s="23" t="s">
@@ -5810,15 +5842,15 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2332</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3332</v>
       </c>
       <c r="D85" s="23" t="s">
@@ -5941,15 +5973,15 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <f t="shared" ref="A89:A119" si="6">A88+1</f>
+        <f t="shared" ref="A89:A119" si="7">A88+1</f>
         <v>402</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" ref="B89:C119" si="7">B88+1</f>
+        <f t="shared" ref="B89:C119" si="8">B88+1</f>
         <v>2402</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3402</v>
       </c>
       <c r="D89" s="23" t="s">
@@ -5975,15 +6007,15 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>403</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2403</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3403</v>
       </c>
       <c r="D90" s="23" t="s">
@@ -6009,15 +6041,15 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>404</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2404</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3404</v>
       </c>
       <c r="D91" s="23" t="s">
@@ -6043,15 +6075,15 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>405</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2405</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3405</v>
       </c>
       <c r="D92" s="23" t="s">
@@ -6077,15 +6109,15 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>406</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2406</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3406</v>
       </c>
       <c r="D93" s="23" t="s">
@@ -6111,15 +6143,15 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>407</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2407</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3407</v>
       </c>
       <c r="D94" s="23" t="s">
@@ -6145,15 +6177,15 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>408</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2408</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3408</v>
       </c>
       <c r="D95" s="23" t="s">
@@ -6179,15 +6211,15 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>409</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2409</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3409</v>
       </c>
       <c r="D96" s="23" t="s">
@@ -6213,15 +6245,15 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>410</v>
       </c>
       <c r="B97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2410</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3410</v>
       </c>
       <c r="D97" s="23" t="s">
@@ -6247,15 +6279,15 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>411</v>
       </c>
       <c r="B98" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2411</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3411</v>
       </c>
       <c r="D98" s="23" t="s">
@@ -6281,15 +6313,15 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>412</v>
       </c>
       <c r="B99" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2412</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3412</v>
       </c>
       <c r="D99" s="23" t="s">
@@ -6315,15 +6347,15 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>413</v>
       </c>
       <c r="B100" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2413</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3413</v>
       </c>
       <c r="D100" s="23" t="s">
@@ -6349,15 +6381,15 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>414</v>
       </c>
       <c r="B101" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2414</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3414</v>
       </c>
       <c r="D101" s="23" t="s">
@@ -6383,15 +6415,15 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>415</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2415</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3415</v>
       </c>
       <c r="D102" s="23" t="s">
@@ -6417,15 +6449,15 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>416</v>
       </c>
       <c r="B103" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2416</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3416</v>
       </c>
       <c r="D103" s="23" t="s">
@@ -6451,15 +6483,15 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>417</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2417</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3417</v>
       </c>
       <c r="D104" s="23" t="s">
@@ -6485,15 +6517,15 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>418</v>
       </c>
       <c r="B105" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2418</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3418</v>
       </c>
       <c r="D105" s="23" t="s">
@@ -6519,15 +6551,15 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>419</v>
       </c>
       <c r="B106" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2419</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3419</v>
       </c>
       <c r="D106" s="23" t="s">
@@ -6553,15 +6585,15 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="B107" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2420</v>
       </c>
       <c r="C107" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3420</v>
       </c>
       <c r="D107" s="23" t="s">
@@ -6587,15 +6619,15 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>421</v>
       </c>
       <c r="B108" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2421</v>
       </c>
       <c r="C108" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3421</v>
       </c>
       <c r="D108" s="23" t="s">
@@ -6621,15 +6653,15 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>422</v>
       </c>
       <c r="B109" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2422</v>
       </c>
       <c r="C109" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3422</v>
       </c>
       <c r="D109" s="23" t="s">
@@ -6655,15 +6687,15 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>423</v>
       </c>
       <c r="B110" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2423</v>
       </c>
       <c r="C110" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3423</v>
       </c>
       <c r="D110" s="23" t="s">
@@ -6689,15 +6721,15 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>424</v>
       </c>
       <c r="B111" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2424</v>
       </c>
       <c r="C111" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3424</v>
       </c>
       <c r="D111" s="23" t="s">
@@ -6723,15 +6755,15 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>425</v>
       </c>
       <c r="B112" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2425</v>
       </c>
       <c r="C112" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3425</v>
       </c>
       <c r="D112" s="23" t="s">
@@ -6757,15 +6789,15 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>426</v>
       </c>
       <c r="B113" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2426</v>
       </c>
       <c r="C113" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3426</v>
       </c>
       <c r="D113" s="23" t="s">
@@ -6791,15 +6823,15 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="B114" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2427</v>
       </c>
       <c r="C114" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3427</v>
       </c>
       <c r="D114" s="23" t="s">
@@ -6825,15 +6857,15 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>428</v>
       </c>
       <c r="B115" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2428</v>
       </c>
       <c r="C115" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3428</v>
       </c>
       <c r="D115" s="23" t="s">
@@ -6859,15 +6891,15 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>429</v>
       </c>
       <c r="B116" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2429</v>
       </c>
       <c r="C116" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3429</v>
       </c>
       <c r="D116" s="23" t="s">
@@ -6893,15 +6925,15 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="B117" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2430</v>
       </c>
       <c r="C117" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3430</v>
       </c>
       <c r="D117" s="23" t="s">
@@ -6927,15 +6959,15 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>431</v>
       </c>
       <c r="B118" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2431</v>
       </c>
       <c r="C118" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3431</v>
       </c>
       <c r="D118" s="23" t="s">
@@ -6961,15 +6993,15 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>432</v>
       </c>
       <c r="B119" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2432</v>
       </c>
       <c r="C119" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3432</v>
       </c>
       <c r="D119" s="23" t="s">
@@ -7080,15 +7112,15 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f t="shared" ref="A123:A151" si="8">A122+1</f>
+        <f t="shared" ref="A123:A151" si="9">A122+1</f>
         <v>452</v>
       </c>
       <c r="B123" s="4">
-        <f t="shared" ref="B123:C151" si="9">B122+1</f>
+        <f t="shared" ref="B123:C151" si="10">B122+1</f>
         <v>2452</v>
       </c>
       <c r="C123" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3452</v>
       </c>
       <c r="D123" s="23" t="s">
@@ -7114,15 +7146,15 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>453</v>
       </c>
       <c r="B124" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2453</v>
       </c>
       <c r="C124" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3453</v>
       </c>
       <c r="D124" s="23" t="s">
@@ -7148,15 +7180,15 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>454</v>
       </c>
       <c r="B125" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2454</v>
       </c>
       <c r="C125" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3454</v>
       </c>
       <c r="D125" s="23" t="s">
@@ -7182,15 +7214,15 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>455</v>
       </c>
       <c r="B126" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2455</v>
       </c>
       <c r="C126" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3455</v>
       </c>
       <c r="D126" s="23" t="s">
@@ -7216,15 +7248,15 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>456</v>
       </c>
       <c r="B127" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2456</v>
       </c>
       <c r="C127" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3456</v>
       </c>
       <c r="D127" s="23" t="s">
@@ -7250,15 +7282,15 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>457</v>
       </c>
       <c r="B128" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2457</v>
       </c>
       <c r="C128" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3457</v>
       </c>
       <c r="D128" s="23" t="s">
@@ -7284,15 +7316,15 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>458</v>
       </c>
       <c r="B129" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2458</v>
       </c>
       <c r="C129" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3458</v>
       </c>
       <c r="D129" s="23" t="s">
@@ -7318,15 +7350,15 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>459</v>
       </c>
       <c r="B130" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2459</v>
       </c>
       <c r="C130" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3459</v>
       </c>
       <c r="D130" s="23" t="s">
@@ -7352,15 +7384,15 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>460</v>
       </c>
       <c r="B131" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2460</v>
       </c>
       <c r="C131" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3460</v>
       </c>
       <c r="D131" s="23" t="s">
@@ -7386,15 +7418,15 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>461</v>
       </c>
       <c r="B132" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2461</v>
       </c>
       <c r="C132" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3461</v>
       </c>
       <c r="D132" s="23" t="s">
@@ -7420,15 +7452,15 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>462</v>
       </c>
       <c r="B133" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2462</v>
       </c>
       <c r="C133" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3462</v>
       </c>
       <c r="D133" s="23" t="s">
@@ -7454,15 +7486,15 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>463</v>
       </c>
       <c r="B134" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2463</v>
       </c>
       <c r="C134" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3463</v>
       </c>
       <c r="D134" s="23" t="s">
@@ -7488,15 +7520,15 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>464</v>
       </c>
       <c r="B135" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2464</v>
       </c>
       <c r="C135" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3464</v>
       </c>
       <c r="D135" s="23" t="s">
@@ -7522,15 +7554,15 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>465</v>
       </c>
       <c r="B136" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2465</v>
       </c>
       <c r="C136" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3465</v>
       </c>
       <c r="D136" s="23" t="s">
@@ -7556,15 +7588,15 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>466</v>
       </c>
       <c r="B137" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2466</v>
       </c>
       <c r="C137" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3466</v>
       </c>
       <c r="D137" s="23" t="s">
@@ -7590,15 +7622,15 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>467</v>
       </c>
       <c r="B138" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2467</v>
       </c>
       <c r="C138" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3467</v>
       </c>
       <c r="D138" s="23" t="s">
@@ -7624,15 +7656,15 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>468</v>
       </c>
       <c r="B139" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2468</v>
       </c>
       <c r="C139" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3468</v>
       </c>
       <c r="D139" s="23" t="s">
@@ -7658,15 +7690,15 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>469</v>
       </c>
       <c r="B140" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2469</v>
       </c>
       <c r="C140" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3469</v>
       </c>
       <c r="D140" s="23" t="s">
@@ -7692,15 +7724,15 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>470</v>
       </c>
       <c r="B141" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2470</v>
       </c>
       <c r="C141" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3470</v>
       </c>
       <c r="D141" s="23" t="s">
@@ -7726,15 +7758,15 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>471</v>
       </c>
       <c r="B142" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2471</v>
       </c>
       <c r="C142" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3471</v>
       </c>
       <c r="D142" s="23" t="s">
@@ -7760,15 +7792,15 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>472</v>
       </c>
       <c r="B143" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2472</v>
       </c>
       <c r="C143" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3472</v>
       </c>
       <c r="D143" s="23" t="s">
@@ -7794,15 +7826,15 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>473</v>
       </c>
       <c r="B144" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2473</v>
       </c>
       <c r="C144" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3473</v>
       </c>
       <c r="D144" s="23" t="s">
@@ -7828,15 +7860,15 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>474</v>
       </c>
       <c r="B145" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2474</v>
       </c>
       <c r="C145" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3474</v>
       </c>
       <c r="D145" s="23" t="s">
@@ -7862,15 +7894,15 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>475</v>
       </c>
       <c r="B146" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2475</v>
       </c>
       <c r="C146" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3475</v>
       </c>
       <c r="D146" s="23" t="s">
@@ -7896,15 +7928,15 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>476</v>
       </c>
       <c r="B147" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2476</v>
       </c>
       <c r="C147" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3476</v>
       </c>
       <c r="D147" s="23" t="s">
@@ -7930,15 +7962,15 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>477</v>
       </c>
       <c r="B148" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2477</v>
       </c>
       <c r="C148" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3477</v>
       </c>
       <c r="D148" s="23" t="s">
@@ -7964,15 +7996,15 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>478</v>
       </c>
       <c r="B149" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2478</v>
       </c>
       <c r="C149" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3478</v>
       </c>
       <c r="D149" s="23" t="s">
@@ -7998,11 +8030,11 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>479</v>
       </c>
       <c r="B150" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2479</v>
       </c>
       <c r="C150" s="4">
@@ -8032,11 +8064,11 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>480</v>
       </c>
       <c r="B151" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2480</v>
       </c>
       <c r="C151" s="4">
@@ -8329,15 +8361,15 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f t="shared" ref="A160:A190" si="10">A159+1</f>
+        <f t="shared" ref="A160:A190" si="11">A159+1</f>
         <v>502</v>
       </c>
       <c r="B160" s="4">
-        <f t="shared" ref="B160:C190" si="11">B159+1</f>
+        <f t="shared" ref="B160:C190" si="12">B159+1</f>
         <v>2502</v>
       </c>
       <c r="C160" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3502</v>
       </c>
       <c r="D160" s="23" t="s">
@@ -8365,15 +8397,15 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>503</v>
       </c>
       <c r="B161" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2503</v>
       </c>
       <c r="C161" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3503</v>
       </c>
       <c r="D161" s="23" t="s">
@@ -8401,15 +8433,15 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>504</v>
       </c>
       <c r="B162" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2504</v>
       </c>
       <c r="C162" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3504</v>
       </c>
       <c r="D162" s="23" t="s">
@@ -8437,15 +8469,15 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>505</v>
       </c>
       <c r="B163" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2505</v>
       </c>
       <c r="C163" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3505</v>
       </c>
       <c r="D163" s="23" t="s">
@@ -8473,15 +8505,15 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>506</v>
       </c>
       <c r="B164" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2506</v>
       </c>
       <c r="C164" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3506</v>
       </c>
       <c r="D164" s="23" t="s">
@@ -8509,15 +8541,15 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>507</v>
       </c>
       <c r="B165" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2507</v>
       </c>
       <c r="C165" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3507</v>
       </c>
       <c r="D165" s="23" t="s">
@@ -8545,15 +8577,15 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>508</v>
       </c>
       <c r="B166" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2508</v>
       </c>
       <c r="C166" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3508</v>
       </c>
       <c r="D166" s="23" t="s">
@@ -8581,15 +8613,15 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>509</v>
       </c>
       <c r="B167" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2509</v>
       </c>
       <c r="C167" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3509</v>
       </c>
       <c r="D167" s="23" t="s">
@@ -8617,15 +8649,15 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>510</v>
       </c>
       <c r="B168" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2510</v>
       </c>
       <c r="C168" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3510</v>
       </c>
       <c r="D168" s="23" t="s">
@@ -8653,15 +8685,15 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>511</v>
       </c>
       <c r="B169" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2511</v>
       </c>
       <c r="C169" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3511</v>
       </c>
       <c r="D169" s="23" t="s">
@@ -8689,15 +8721,15 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>512</v>
       </c>
       <c r="B170" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2512</v>
       </c>
       <c r="C170" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3512</v>
       </c>
       <c r="D170" s="23" t="s">
@@ -8725,15 +8757,15 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>513</v>
       </c>
       <c r="B171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2513</v>
       </c>
       <c r="C171" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3513</v>
       </c>
       <c r="D171" s="23" t="s">
@@ -8761,15 +8793,15 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>514</v>
       </c>
       <c r="B172" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2514</v>
       </c>
       <c r="C172" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3514</v>
       </c>
       <c r="D172" s="23" t="s">
@@ -8797,15 +8829,15 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>515</v>
       </c>
       <c r="B173" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2515</v>
       </c>
       <c r="C173" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3515</v>
       </c>
       <c r="D173" s="23" t="s">
@@ -8833,15 +8865,15 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>516</v>
       </c>
       <c r="B174" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2516</v>
       </c>
       <c r="C174" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3516</v>
       </c>
       <c r="D174" s="23" t="s">
@@ -8869,15 +8901,15 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>517</v>
       </c>
       <c r="B175" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2517</v>
       </c>
       <c r="C175" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3517</v>
       </c>
       <c r="D175" s="23" t="s">
@@ -8905,15 +8937,15 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>518</v>
       </c>
       <c r="B176" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2518</v>
       </c>
       <c r="C176" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3518</v>
       </c>
       <c r="D176" s="23" t="s">
@@ -8941,15 +8973,15 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>519</v>
       </c>
       <c r="B177" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2519</v>
       </c>
       <c r="C177" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3519</v>
       </c>
       <c r="D177" s="23" t="s">
@@ -8977,15 +9009,15 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>520</v>
       </c>
       <c r="B178" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2520</v>
       </c>
       <c r="C178" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3520</v>
       </c>
       <c r="D178" s="23" t="s">
@@ -9013,15 +9045,15 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>521</v>
       </c>
       <c r="B179" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2521</v>
       </c>
       <c r="C179" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3521</v>
       </c>
       <c r="D179" s="23" t="s">
@@ -9049,15 +9081,15 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>522</v>
       </c>
       <c r="B180" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2522</v>
       </c>
       <c r="C180" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3522</v>
       </c>
       <c r="D180" s="23" t="s">
@@ -9085,15 +9117,15 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>523</v>
       </c>
       <c r="B181" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2523</v>
       </c>
       <c r="C181" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3523</v>
       </c>
       <c r="D181" s="23" t="s">
@@ -9121,15 +9153,15 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>524</v>
       </c>
       <c r="B182" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2524</v>
       </c>
       <c r="C182" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3524</v>
       </c>
       <c r="D182" s="23" t="s">
@@ -9157,15 +9189,15 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>525</v>
       </c>
       <c r="B183" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2525</v>
       </c>
       <c r="C183" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3525</v>
       </c>
       <c r="D183" s="23" t="s">
@@ -9193,15 +9225,15 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>526</v>
       </c>
       <c r="B184" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2526</v>
       </c>
       <c r="C184" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3526</v>
       </c>
       <c r="D184" s="23" t="s">
@@ -9229,15 +9261,15 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>527</v>
       </c>
       <c r="B185" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2527</v>
       </c>
       <c r="C185" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3527</v>
       </c>
       <c r="D185" s="23" t="s">
@@ -9265,15 +9297,15 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>528</v>
       </c>
       <c r="B186" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2528</v>
       </c>
       <c r="C186" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3528</v>
       </c>
       <c r="D186" s="23" t="s">
@@ -9301,15 +9333,15 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>529</v>
       </c>
       <c r="B187" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2529</v>
       </c>
       <c r="C187" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3529</v>
       </c>
       <c r="D187" s="23" t="s">
@@ -9337,15 +9369,15 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>530</v>
       </c>
       <c r="B188" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2530</v>
       </c>
       <c r="C188" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3530</v>
       </c>
       <c r="D188" s="23" t="s">
@@ -9373,15 +9405,15 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>531</v>
       </c>
       <c r="B189" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2531</v>
       </c>
       <c r="C189" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3531</v>
       </c>
       <c r="D189" s="23" t="s">
@@ -9409,15 +9441,15 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>532</v>
       </c>
       <c r="B190" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2532</v>
       </c>
       <c r="C190" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3532</v>
       </c>
       <c r="D190" s="23" t="s">
@@ -9550,15 +9582,15 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <f t="shared" ref="A194:A223" si="12">A193+1</f>
+        <f t="shared" ref="A194:A223" si="13">A193+1</f>
         <v>552</v>
       </c>
       <c r="B194" s="4">
-        <f t="shared" ref="B194:C223" si="13">B193+1</f>
+        <f t="shared" ref="B194:C223" si="14">B193+1</f>
         <v>2552</v>
       </c>
       <c r="C194" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3552</v>
       </c>
       <c r="D194" s="23" t="s">
@@ -9586,15 +9618,15 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>553</v>
       </c>
       <c r="B195" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2553</v>
       </c>
       <c r="C195" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3553</v>
       </c>
       <c r="D195" s="23" t="s">
@@ -9622,15 +9654,15 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>554</v>
       </c>
       <c r="B196" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2554</v>
       </c>
       <c r="C196" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3554</v>
       </c>
       <c r="D196" s="23" t="s">
@@ -9658,15 +9690,15 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>555</v>
       </c>
       <c r="B197" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2555</v>
       </c>
       <c r="C197" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3555</v>
       </c>
       <c r="D197" s="23" t="s">
@@ -9694,15 +9726,15 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>556</v>
       </c>
       <c r="B198" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2556</v>
       </c>
       <c r="C198" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3556</v>
       </c>
       <c r="D198" s="23" t="s">
@@ -9730,15 +9762,15 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>557</v>
       </c>
       <c r="B199" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2557</v>
       </c>
       <c r="C199" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3557</v>
       </c>
       <c r="D199" s="23" t="s">
@@ -9766,15 +9798,15 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>558</v>
       </c>
       <c r="B200" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2558</v>
       </c>
       <c r="C200" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3558</v>
       </c>
       <c r="D200" s="23" t="s">
@@ -9802,15 +9834,15 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>559</v>
       </c>
       <c r="B201" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2559</v>
       </c>
       <c r="C201" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3559</v>
       </c>
       <c r="D201" s="23" t="s">
@@ -9838,15 +9870,15 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>560</v>
       </c>
       <c r="B202" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2560</v>
       </c>
       <c r="C202" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3560</v>
       </c>
       <c r="D202" s="23" t="s">
@@ -9874,15 +9906,15 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>561</v>
       </c>
       <c r="B203" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2561</v>
       </c>
       <c r="C203" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3561</v>
       </c>
       <c r="D203" s="23" t="s">
@@ -9910,15 +9942,15 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>562</v>
       </c>
       <c r="B204" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2562</v>
       </c>
       <c r="C204" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3562</v>
       </c>
       <c r="D204" s="23" t="s">
@@ -9946,15 +9978,15 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>563</v>
       </c>
       <c r="B205" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2563</v>
       </c>
       <c r="C205" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3563</v>
       </c>
       <c r="D205" s="23" t="s">
@@ -9982,15 +10014,15 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>564</v>
       </c>
       <c r="B206" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2564</v>
       </c>
       <c r="C206" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3564</v>
       </c>
       <c r="D206" s="23" t="s">
@@ -10018,15 +10050,15 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>565</v>
       </c>
       <c r="B207" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2565</v>
       </c>
       <c r="C207" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3565</v>
       </c>
       <c r="D207" s="23" t="s">
@@ -10054,15 +10086,15 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>566</v>
       </c>
       <c r="B208" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2566</v>
       </c>
       <c r="C208" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3566</v>
       </c>
       <c r="D208" s="23" t="s">
@@ -10090,15 +10122,15 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>567</v>
       </c>
       <c r="B209" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2567</v>
       </c>
       <c r="C209" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3567</v>
       </c>
       <c r="D209" s="23" t="s">
@@ -10126,15 +10158,15 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>568</v>
       </c>
       <c r="B210" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2568</v>
       </c>
       <c r="C210" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3568</v>
       </c>
       <c r="D210" s="23" t="s">
@@ -10162,15 +10194,15 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>569</v>
       </c>
       <c r="B211" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2569</v>
       </c>
       <c r="C211" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3569</v>
       </c>
       <c r="D211" s="23" t="s">
@@ -10198,15 +10230,15 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>570</v>
       </c>
       <c r="B212" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2570</v>
       </c>
       <c r="C212" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3570</v>
       </c>
       <c r="D212" s="23" t="s">
@@ -10234,15 +10266,15 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>571</v>
       </c>
       <c r="B213" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2571</v>
       </c>
       <c r="C213" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3571</v>
       </c>
       <c r="D213" s="23" t="s">
@@ -10270,15 +10302,15 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>572</v>
       </c>
       <c r="B214" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2572</v>
       </c>
       <c r="C214" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3572</v>
       </c>
       <c r="D214" s="23" t="s">
@@ -10306,15 +10338,15 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>573</v>
       </c>
       <c r="B215" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2573</v>
       </c>
       <c r="C215" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3573</v>
       </c>
       <c r="D215" s="23" t="s">
@@ -10342,15 +10374,15 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>574</v>
       </c>
       <c r="B216" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2574</v>
       </c>
       <c r="C216" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3574</v>
       </c>
       <c r="D216" s="23" t="s">
@@ -10378,15 +10410,15 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>575</v>
       </c>
       <c r="B217" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2575</v>
       </c>
       <c r="C217" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3575</v>
       </c>
       <c r="D217" s="23" t="s">
@@ -10414,15 +10446,15 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>576</v>
       </c>
       <c r="B218" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2576</v>
       </c>
       <c r="C218" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3576</v>
       </c>
       <c r="D218" s="23" t="s">
@@ -10450,15 +10482,15 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>577</v>
       </c>
       <c r="B219" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2577</v>
       </c>
       <c r="C219" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3577</v>
       </c>
       <c r="D219" s="23" t="s">
@@ -10486,15 +10518,15 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>578</v>
       </c>
       <c r="B220" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2578</v>
       </c>
       <c r="C220" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3578</v>
       </c>
       <c r="D220" s="23" t="s">
@@ -10522,15 +10554,15 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>579</v>
       </c>
       <c r="B221" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2579</v>
       </c>
       <c r="C221" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3579</v>
       </c>
       <c r="D221" s="23" t="s">
@@ -10558,15 +10590,15 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>580</v>
       </c>
       <c r="B222" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2580</v>
       </c>
       <c r="C222" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3580</v>
       </c>
       <c r="D222" s="23" t="s">
@@ -10594,15 +10626,15 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>581</v>
       </c>
       <c r="B223" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2581</v>
       </c>
       <c r="C223" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3581</v>
       </c>
       <c r="D223" s="23" t="s">
@@ -10701,11 +10733,11 @@
         <v>586</v>
       </c>
       <c r="B226" s="4">
-        <f t="shared" ref="B226:C228" si="14">B225+1</f>
+        <f t="shared" ref="B226:C228" si="15">B225+1</f>
         <v>2586</v>
       </c>
       <c r="C226" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3586</v>
       </c>
       <c r="D226" s="23" t="s">
@@ -10736,11 +10768,11 @@
         <v>587</v>
       </c>
       <c r="B227" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2587</v>
       </c>
       <c r="C227" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3587</v>
       </c>
       <c r="D227" s="23" t="s">
@@ -10771,11 +10803,11 @@
         <v>588</v>
       </c>
       <c r="B228" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2588</v>
       </c>
       <c r="C228" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3588</v>
       </c>
       <c r="D228" s="23" t="s">
@@ -10902,15 +10934,15 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <f t="shared" ref="A232:A268" si="15">A231+1</f>
+        <f t="shared" ref="A232:A268" si="16">A231+1</f>
         <v>602</v>
       </c>
       <c r="B232" s="4">
-        <f t="shared" ref="B232:C262" si="16">B231+1</f>
+        <f t="shared" ref="B232:C262" si="17">B231+1</f>
         <v>2602</v>
       </c>
       <c r="C232" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3602</v>
       </c>
       <c r="D232" s="23" t="s">
@@ -10938,15 +10970,15 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>603</v>
       </c>
       <c r="B233" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2603</v>
       </c>
       <c r="C233" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3603</v>
       </c>
       <c r="D233" s="23" t="s">
@@ -10974,15 +11006,15 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>604</v>
       </c>
       <c r="B234" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2604</v>
       </c>
       <c r="C234" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3604</v>
       </c>
       <c r="D234" s="23" t="s">
@@ -11010,15 +11042,15 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>605</v>
       </c>
       <c r="B235" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2605</v>
       </c>
       <c r="C235" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3605</v>
       </c>
       <c r="D235" s="23" t="s">
@@ -11046,15 +11078,15 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>606</v>
       </c>
       <c r="B236" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2606</v>
       </c>
       <c r="C236" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3606</v>
       </c>
       <c r="D236" s="23" t="s">
@@ -11082,15 +11114,15 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>607</v>
       </c>
       <c r="B237" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2607</v>
       </c>
       <c r="C237" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3607</v>
       </c>
       <c r="D237" s="23" t="s">
@@ -11118,15 +11150,15 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>608</v>
       </c>
       <c r="B238" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2608</v>
       </c>
       <c r="C238" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3608</v>
       </c>
       <c r="D238" s="23" t="s">
@@ -11154,15 +11186,15 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>609</v>
       </c>
       <c r="B239" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2609</v>
       </c>
       <c r="C239" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3609</v>
       </c>
       <c r="D239" s="23" t="s">
@@ -11190,15 +11222,15 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>610</v>
       </c>
       <c r="B240" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2610</v>
       </c>
       <c r="C240" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3610</v>
       </c>
       <c r="D240" s="23" t="s">
@@ -11226,15 +11258,15 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>611</v>
       </c>
       <c r="B241" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2611</v>
       </c>
       <c r="C241" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3611</v>
       </c>
       <c r="D241" s="23" t="s">
@@ -11262,15 +11294,15 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>612</v>
       </c>
       <c r="B242" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2612</v>
       </c>
       <c r="C242" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3612</v>
       </c>
       <c r="D242" s="23" t="s">
@@ -11298,15 +11330,15 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>613</v>
       </c>
       <c r="B243" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2613</v>
       </c>
       <c r="C243" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3613</v>
       </c>
       <c r="D243" s="23" t="s">
@@ -11334,15 +11366,15 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>614</v>
       </c>
       <c r="B244" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2614</v>
       </c>
       <c r="C244" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3614</v>
       </c>
       <c r="D244" s="23" t="s">
@@ -11370,15 +11402,15 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>615</v>
       </c>
       <c r="B245" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2615</v>
       </c>
       <c r="C245" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3615</v>
       </c>
       <c r="D245" s="23" t="s">
@@ -11406,15 +11438,15 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>616</v>
       </c>
       <c r="B246" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2616</v>
       </c>
       <c r="C246" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3616</v>
       </c>
       <c r="D246" s="23" t="s">
@@ -11442,15 +11474,15 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>617</v>
       </c>
       <c r="B247" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2617</v>
       </c>
       <c r="C247" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3617</v>
       </c>
       <c r="D247" s="23" t="s">
@@ -11478,15 +11510,15 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>618</v>
       </c>
       <c r="B248" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2618</v>
       </c>
       <c r="C248" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3618</v>
       </c>
       <c r="D248" s="23" t="s">
@@ -11514,15 +11546,15 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>619</v>
       </c>
       <c r="B249" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2619</v>
       </c>
       <c r="C249" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3619</v>
       </c>
       <c r="D249" s="23" t="s">
@@ -11550,15 +11582,15 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>620</v>
       </c>
       <c r="B250" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2620</v>
       </c>
       <c r="C250" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3620</v>
       </c>
       <c r="D250" s="23" t="s">
@@ -11586,15 +11618,15 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>621</v>
       </c>
       <c r="B251" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2621</v>
       </c>
       <c r="C251" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3621</v>
       </c>
       <c r="D251" s="23" t="s">
@@ -11622,15 +11654,15 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>622</v>
       </c>
       <c r="B252" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2622</v>
       </c>
       <c r="C252" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3622</v>
       </c>
       <c r="D252" s="23" t="s">
@@ -11658,15 +11690,15 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>623</v>
       </c>
       <c r="B253" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2623</v>
       </c>
       <c r="C253" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3623</v>
       </c>
       <c r="D253" s="23" t="s">
@@ -11694,15 +11726,15 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>624</v>
       </c>
       <c r="B254" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2624</v>
       </c>
       <c r="C254" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3624</v>
       </c>
       <c r="D254" s="23" t="s">
@@ -11730,15 +11762,15 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>625</v>
       </c>
       <c r="B255" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2625</v>
       </c>
       <c r="C255" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3625</v>
       </c>
       <c r="D255" s="23" t="s">
@@ -11766,15 +11798,15 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>626</v>
       </c>
       <c r="B256" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2626</v>
       </c>
       <c r="C256" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3626</v>
       </c>
       <c r="D256" s="23" t="s">
@@ -11802,15 +11834,15 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>627</v>
       </c>
       <c r="B257" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2627</v>
       </c>
       <c r="C257" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3627</v>
       </c>
       <c r="D257" s="23" t="s">
@@ -11838,15 +11870,15 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>628</v>
       </c>
       <c r="B258" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2628</v>
       </c>
       <c r="C258" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3628</v>
       </c>
       <c r="D258" s="23" t="s">
@@ -11874,15 +11906,15 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>629</v>
       </c>
       <c r="B259" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2629</v>
       </c>
       <c r="C259" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3629</v>
       </c>
       <c r="D259" s="23" t="s">
@@ -11910,15 +11942,15 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>630</v>
       </c>
       <c r="B260" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2630</v>
       </c>
       <c r="C260" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3630</v>
       </c>
       <c r="D260" s="23" t="s">
@@ -11946,15 +11978,15 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>631</v>
       </c>
       <c r="B261" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2631</v>
       </c>
       <c r="C261" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3631</v>
       </c>
       <c r="D261" s="23" t="s">
@@ -11982,15 +12014,15 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>632</v>
       </c>
       <c r="B262" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2632</v>
       </c>
       <c r="C262" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3632</v>
       </c>
       <c r="D262" s="23" t="s">
@@ -12018,7 +12050,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>633</v>
       </c>
       <c r="B263" s="4">
@@ -12053,7 +12085,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>634</v>
       </c>
       <c r="B264" s="4">
@@ -12088,7 +12120,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>635</v>
       </c>
       <c r="B265" s="4">
@@ -12123,7 +12155,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>636</v>
       </c>
       <c r="B266" s="4">
@@ -12158,7 +12190,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>637</v>
       </c>
       <c r="B267" s="4">
@@ -12193,7 +12225,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>638</v>
       </c>
       <c r="B268" s="4">
@@ -12281,7 +12313,7 @@
         <v>701</v>
       </c>
       <c r="B271" s="4">
-        <f t="shared" ref="B271:B334" si="17">A271+$B$3</f>
+        <f t="shared" ref="B271:B334" si="18">A271+$B$3</f>
         <v>2701</v>
       </c>
       <c r="C271" s="4"/>
@@ -12310,11 +12342,11 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <f t="shared" ref="A272:A335" si="18">A271+1</f>
+        <f t="shared" ref="A272:A335" si="19">A271+1</f>
         <v>702</v>
       </c>
       <c r="B272" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2702</v>
       </c>
       <c r="C272" s="4"/>
@@ -12343,11 +12375,11 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
+        <f t="shared" si="19"/>
+        <v>703</v>
+      </c>
+      <c r="B273" s="4">
         <f t="shared" si="18"/>
-        <v>703</v>
-      </c>
-      <c r="B273" s="4">
-        <f t="shared" si="17"/>
         <v>2703</v>
       </c>
       <c r="C273" s="4"/>
@@ -12376,11 +12408,11 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
+        <f t="shared" si="19"/>
+        <v>704</v>
+      </c>
+      <c r="B274" s="4">
         <f t="shared" si="18"/>
-        <v>704</v>
-      </c>
-      <c r="B274" s="4">
-        <f t="shared" si="17"/>
         <v>2704</v>
       </c>
       <c r="C274" s="4"/>
@@ -12409,11 +12441,11 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
+        <f t="shared" si="19"/>
+        <v>705</v>
+      </c>
+      <c r="B275" s="4">
         <f t="shared" si="18"/>
-        <v>705</v>
-      </c>
-      <c r="B275" s="4">
-        <f t="shared" si="17"/>
         <v>2705</v>
       </c>
       <c r="C275" s="4"/>
@@ -12442,11 +12474,11 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
+        <f t="shared" si="19"/>
+        <v>706</v>
+      </c>
+      <c r="B276" s="4">
         <f t="shared" si="18"/>
-        <v>706</v>
-      </c>
-      <c r="B276" s="4">
-        <f t="shared" si="17"/>
         <v>2706</v>
       </c>
       <c r="C276" s="4"/>
@@ -12475,11 +12507,11 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
+        <f t="shared" si="19"/>
+        <v>707</v>
+      </c>
+      <c r="B277" s="4">
         <f t="shared" si="18"/>
-        <v>707</v>
-      </c>
-      <c r="B277" s="4">
-        <f t="shared" si="17"/>
         <v>2707</v>
       </c>
       <c r="C277" s="4"/>
@@ -12508,11 +12540,11 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
+        <f t="shared" si="19"/>
+        <v>708</v>
+      </c>
+      <c r="B278" s="4">
         <f t="shared" si="18"/>
-        <v>708</v>
-      </c>
-      <c r="B278" s="4">
-        <f t="shared" si="17"/>
         <v>2708</v>
       </c>
       <c r="C278" s="4"/>
@@ -12541,11 +12573,11 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
+        <f t="shared" si="19"/>
+        <v>709</v>
+      </c>
+      <c r="B279" s="4">
         <f t="shared" si="18"/>
-        <v>709</v>
-      </c>
-      <c r="B279" s="4">
-        <f t="shared" si="17"/>
         <v>2709</v>
       </c>
       <c r="C279" s="4"/>
@@ -12574,11 +12606,11 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
+        <f t="shared" si="19"/>
+        <v>710</v>
+      </c>
+      <c r="B280" s="4">
         <f t="shared" si="18"/>
-        <v>710</v>
-      </c>
-      <c r="B280" s="4">
-        <f t="shared" si="17"/>
         <v>2710</v>
       </c>
       <c r="C280" s="4"/>
@@ -12607,11 +12639,11 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
+        <f t="shared" si="19"/>
+        <v>711</v>
+      </c>
+      <c r="B281" s="4">
         <f t="shared" si="18"/>
-        <v>711</v>
-      </c>
-      <c r="B281" s="4">
-        <f t="shared" si="17"/>
         <v>2711</v>
       </c>
       <c r="C281" s="4"/>
@@ -12640,11 +12672,11 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
+        <f t="shared" si="19"/>
+        <v>712</v>
+      </c>
+      <c r="B282" s="4">
         <f t="shared" si="18"/>
-        <v>712</v>
-      </c>
-      <c r="B282" s="4">
-        <f t="shared" si="17"/>
         <v>2712</v>
       </c>
       <c r="C282" s="4"/>
@@ -12673,11 +12705,11 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
+        <f t="shared" si="19"/>
+        <v>713</v>
+      </c>
+      <c r="B283" s="4">
         <f t="shared" si="18"/>
-        <v>713</v>
-      </c>
-      <c r="B283" s="4">
-        <f t="shared" si="17"/>
         <v>2713</v>
       </c>
       <c r="C283" s="4"/>
@@ -12706,11 +12738,11 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
+        <f t="shared" si="19"/>
+        <v>714</v>
+      </c>
+      <c r="B284" s="4">
         <f t="shared" si="18"/>
-        <v>714</v>
-      </c>
-      <c r="B284" s="4">
-        <f t="shared" si="17"/>
         <v>2714</v>
       </c>
       <c r="C284" s="4"/>
@@ -12739,11 +12771,11 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
+        <f t="shared" si="19"/>
+        <v>715</v>
+      </c>
+      <c r="B285" s="4">
         <f t="shared" si="18"/>
-        <v>715</v>
-      </c>
-      <c r="B285" s="4">
-        <f t="shared" si="17"/>
         <v>2715</v>
       </c>
       <c r="C285" s="4"/>
@@ -12772,11 +12804,11 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
+        <f t="shared" si="19"/>
+        <v>716</v>
+      </c>
+      <c r="B286" s="4">
         <f t="shared" si="18"/>
-        <v>716</v>
-      </c>
-      <c r="B286" s="4">
-        <f t="shared" si="17"/>
         <v>2716</v>
       </c>
       <c r="C286" s="4"/>
@@ -12805,11 +12837,11 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
+        <f t="shared" si="19"/>
+        <v>717</v>
+      </c>
+      <c r="B287" s="4">
         <f t="shared" si="18"/>
-        <v>717</v>
-      </c>
-      <c r="B287" s="4">
-        <f t="shared" si="17"/>
         <v>2717</v>
       </c>
       <c r="C287" s="4"/>
@@ -12838,11 +12870,11 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
+        <f t="shared" si="19"/>
+        <v>718</v>
+      </c>
+      <c r="B288" s="4">
         <f t="shared" si="18"/>
-        <v>718</v>
-      </c>
-      <c r="B288" s="4">
-        <f t="shared" si="17"/>
         <v>2718</v>
       </c>
       <c r="C288" s="4"/>
@@ -12871,11 +12903,11 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
+        <f t="shared" si="19"/>
+        <v>719</v>
+      </c>
+      <c r="B289" s="4">
         <f t="shared" si="18"/>
-        <v>719</v>
-      </c>
-      <c r="B289" s="4">
-        <f t="shared" si="17"/>
         <v>2719</v>
       </c>
       <c r="C289" s="4"/>
@@ -12904,11 +12936,11 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
+        <f t="shared" si="19"/>
+        <v>720</v>
+      </c>
+      <c r="B290" s="4">
         <f t="shared" si="18"/>
-        <v>720</v>
-      </c>
-      <c r="B290" s="4">
-        <f t="shared" si="17"/>
         <v>2720</v>
       </c>
       <c r="C290" s="4"/>
@@ -12937,11 +12969,11 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
+        <f t="shared" si="19"/>
+        <v>721</v>
+      </c>
+      <c r="B291" s="4">
         <f t="shared" si="18"/>
-        <v>721</v>
-      </c>
-      <c r="B291" s="4">
-        <f t="shared" si="17"/>
         <v>2721</v>
       </c>
       <c r="C291" s="4"/>
@@ -12970,11 +13002,11 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
+        <f t="shared" si="19"/>
+        <v>722</v>
+      </c>
+      <c r="B292" s="4">
         <f t="shared" si="18"/>
-        <v>722</v>
-      </c>
-      <c r="B292" s="4">
-        <f t="shared" si="17"/>
         <v>2722</v>
       </c>
       <c r="C292" s="4"/>
@@ -13003,11 +13035,11 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
+        <f t="shared" si="19"/>
+        <v>723</v>
+      </c>
+      <c r="B293" s="4">
         <f t="shared" si="18"/>
-        <v>723</v>
-      </c>
-      <c r="B293" s="4">
-        <f t="shared" si="17"/>
         <v>2723</v>
       </c>
       <c r="C293" s="4"/>
@@ -13036,11 +13068,11 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
+        <f t="shared" si="19"/>
+        <v>724</v>
+      </c>
+      <c r="B294" s="4">
         <f t="shared" si="18"/>
-        <v>724</v>
-      </c>
-      <c r="B294" s="4">
-        <f t="shared" si="17"/>
         <v>2724</v>
       </c>
       <c r="C294" s="4"/>
@@ -13069,11 +13101,11 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
+        <f t="shared" si="19"/>
+        <v>725</v>
+      </c>
+      <c r="B295" s="4">
         <f t="shared" si="18"/>
-        <v>725</v>
-      </c>
-      <c r="B295" s="4">
-        <f t="shared" si="17"/>
         <v>2725</v>
       </c>
       <c r="C295" s="4"/>
@@ -13102,11 +13134,11 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
+        <f t="shared" si="19"/>
+        <v>726</v>
+      </c>
+      <c r="B296" s="4">
         <f t="shared" si="18"/>
-        <v>726</v>
-      </c>
-      <c r="B296" s="4">
-        <f t="shared" si="17"/>
         <v>2726</v>
       </c>
       <c r="C296" s="4"/>
@@ -13135,11 +13167,11 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
+        <f t="shared" si="19"/>
+        <v>727</v>
+      </c>
+      <c r="B297" s="4">
         <f t="shared" si="18"/>
-        <v>727</v>
-      </c>
-      <c r="B297" s="4">
-        <f t="shared" si="17"/>
         <v>2727</v>
       </c>
       <c r="C297" s="4"/>
@@ -13168,11 +13200,11 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
+        <f t="shared" si="19"/>
+        <v>728</v>
+      </c>
+      <c r="B298" s="4">
         <f t="shared" si="18"/>
-        <v>728</v>
-      </c>
-      <c r="B298" s="4">
-        <f t="shared" si="17"/>
         <v>2728</v>
       </c>
       <c r="C298" s="4"/>
@@ -13201,11 +13233,11 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
+        <f t="shared" si="19"/>
+        <v>729</v>
+      </c>
+      <c r="B299" s="4">
         <f t="shared" si="18"/>
-        <v>729</v>
-      </c>
-      <c r="B299" s="4">
-        <f t="shared" si="17"/>
         <v>2729</v>
       </c>
       <c r="C299" s="4"/>
@@ -13234,11 +13266,11 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
+        <f t="shared" si="19"/>
+        <v>730</v>
+      </c>
+      <c r="B300" s="4">
         <f t="shared" si="18"/>
-        <v>730</v>
-      </c>
-      <c r="B300" s="4">
-        <f t="shared" si="17"/>
         <v>2730</v>
       </c>
       <c r="C300" s="4"/>
@@ -13267,11 +13299,11 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
+        <f t="shared" si="19"/>
+        <v>731</v>
+      </c>
+      <c r="B301" s="4">
         <f t="shared" si="18"/>
-        <v>731</v>
-      </c>
-      <c r="B301" s="4">
-        <f t="shared" si="17"/>
         <v>2731</v>
       </c>
       <c r="C301" s="4"/>
@@ -13300,11 +13332,11 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
+        <f t="shared" si="19"/>
+        <v>732</v>
+      </c>
+      <c r="B302" s="4">
         <f t="shared" si="18"/>
-        <v>732</v>
-      </c>
-      <c r="B302" s="4">
-        <f t="shared" si="17"/>
         <v>2732</v>
       </c>
       <c r="C302" s="4"/>
@@ -13333,11 +13365,11 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
+        <f t="shared" si="19"/>
+        <v>733</v>
+      </c>
+      <c r="B303" s="4">
         <f t="shared" si="18"/>
-        <v>733</v>
-      </c>
-      <c r="B303" s="4">
-        <f t="shared" si="17"/>
         <v>2733</v>
       </c>
       <c r="C303" s="4"/>
@@ -13366,11 +13398,11 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
+        <f t="shared" si="19"/>
+        <v>734</v>
+      </c>
+      <c r="B304" s="4">
         <f t="shared" si="18"/>
-        <v>734</v>
-      </c>
-      <c r="B304" s="4">
-        <f t="shared" si="17"/>
         <v>2734</v>
       </c>
       <c r="C304" s="4"/>
@@ -13399,11 +13431,11 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
+        <f t="shared" si="19"/>
+        <v>735</v>
+      </c>
+      <c r="B305" s="4">
         <f t="shared" si="18"/>
-        <v>735</v>
-      </c>
-      <c r="B305" s="4">
-        <f t="shared" si="17"/>
         <v>2735</v>
       </c>
       <c r="C305" s="4"/>
@@ -13432,11 +13464,11 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
+        <f t="shared" si="19"/>
+        <v>736</v>
+      </c>
+      <c r="B306" s="4">
         <f t="shared" si="18"/>
-        <v>736</v>
-      </c>
-      <c r="B306" s="4">
-        <f t="shared" si="17"/>
         <v>2736</v>
       </c>
       <c r="C306" s="4"/>
@@ -13465,11 +13497,11 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
+        <f t="shared" si="19"/>
+        <v>737</v>
+      </c>
+      <c r="B307" s="4">
         <f t="shared" si="18"/>
-        <v>737</v>
-      </c>
-      <c r="B307" s="4">
-        <f t="shared" si="17"/>
         <v>2737</v>
       </c>
       <c r="C307" s="4"/>
@@ -13498,11 +13530,11 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
+        <f t="shared" si="19"/>
+        <v>738</v>
+      </c>
+      <c r="B308" s="4">
         <f t="shared" si="18"/>
-        <v>738</v>
-      </c>
-      <c r="B308" s="4">
-        <f t="shared" si="17"/>
         <v>2738</v>
       </c>
       <c r="C308" s="4"/>
@@ -13531,11 +13563,11 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
+        <f t="shared" si="19"/>
+        <v>739</v>
+      </c>
+      <c r="B309" s="4">
         <f t="shared" si="18"/>
-        <v>739</v>
-      </c>
-      <c r="B309" s="4">
-        <f t="shared" si="17"/>
         <v>2739</v>
       </c>
       <c r="C309" s="4"/>
@@ -13564,11 +13596,11 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
+        <f t="shared" si="19"/>
+        <v>740</v>
+      </c>
+      <c r="B310" s="4">
         <f t="shared" si="18"/>
-        <v>740</v>
-      </c>
-      <c r="B310" s="4">
-        <f t="shared" si="17"/>
         <v>2740</v>
       </c>
       <c r="C310" s="4"/>
@@ -13597,11 +13629,11 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
+        <f t="shared" si="19"/>
+        <v>741</v>
+      </c>
+      <c r="B311" s="4">
         <f t="shared" si="18"/>
-        <v>741</v>
-      </c>
-      <c r="B311" s="4">
-        <f t="shared" si="17"/>
         <v>2741</v>
       </c>
       <c r="C311" s="4"/>
@@ -13630,11 +13662,11 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
+        <f t="shared" si="19"/>
+        <v>742</v>
+      </c>
+      <c r="B312" s="4">
         <f t="shared" si="18"/>
-        <v>742</v>
-      </c>
-      <c r="B312" s="4">
-        <f t="shared" si="17"/>
         <v>2742</v>
       </c>
       <c r="C312" s="4"/>
@@ -13663,11 +13695,11 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
+        <f t="shared" si="19"/>
+        <v>743</v>
+      </c>
+      <c r="B313" s="4">
         <f t="shared" si="18"/>
-        <v>743</v>
-      </c>
-      <c r="B313" s="4">
-        <f t="shared" si="17"/>
         <v>2743</v>
       </c>
       <c r="C313" s="4"/>
@@ -13696,11 +13728,11 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
+        <f t="shared" si="19"/>
+        <v>744</v>
+      </c>
+      <c r="B314" s="4">
         <f t="shared" si="18"/>
-        <v>744</v>
-      </c>
-      <c r="B314" s="4">
-        <f t="shared" si="17"/>
         <v>2744</v>
       </c>
       <c r="C314" s="4"/>
@@ -13729,11 +13761,11 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
+        <f t="shared" si="19"/>
+        <v>745</v>
+      </c>
+      <c r="B315" s="4">
         <f t="shared" si="18"/>
-        <v>745</v>
-      </c>
-      <c r="B315" s="4">
-        <f t="shared" si="17"/>
         <v>2745</v>
       </c>
       <c r="C315" s="4"/>
@@ -13762,11 +13794,11 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
+        <f t="shared" si="19"/>
+        <v>746</v>
+      </c>
+      <c r="B316" s="4">
         <f t="shared" si="18"/>
-        <v>746</v>
-      </c>
-      <c r="B316" s="4">
-        <f t="shared" si="17"/>
         <v>2746</v>
       </c>
       <c r="C316" s="4"/>
@@ -13795,11 +13827,11 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
+        <f t="shared" si="19"/>
+        <v>747</v>
+      </c>
+      <c r="B317" s="4">
         <f t="shared" si="18"/>
-        <v>747</v>
-      </c>
-      <c r="B317" s="4">
-        <f t="shared" si="17"/>
         <v>2747</v>
       </c>
       <c r="C317" s="4"/>
@@ -13828,11 +13860,11 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
+        <f t="shared" si="19"/>
+        <v>748</v>
+      </c>
+      <c r="B318" s="4">
         <f t="shared" si="18"/>
-        <v>748</v>
-      </c>
-      <c r="B318" s="4">
-        <f t="shared" si="17"/>
         <v>2748</v>
       </c>
       <c r="C318" s="4"/>
@@ -13861,11 +13893,11 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
+        <f t="shared" si="19"/>
+        <v>749</v>
+      </c>
+      <c r="B319" s="4">
         <f t="shared" si="18"/>
-        <v>749</v>
-      </c>
-      <c r="B319" s="4">
-        <f t="shared" si="17"/>
         <v>2749</v>
       </c>
       <c r="C319" s="4"/>
@@ -13894,11 +13926,11 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
+        <f t="shared" si="19"/>
+        <v>750</v>
+      </c>
+      <c r="B320" s="4">
         <f t="shared" si="18"/>
-        <v>750</v>
-      </c>
-      <c r="B320" s="4">
-        <f t="shared" si="17"/>
         <v>2750</v>
       </c>
       <c r="C320" s="4"/>
@@ -13927,11 +13959,11 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
+        <f t="shared" si="19"/>
+        <v>751</v>
+      </c>
+      <c r="B321" s="4">
         <f t="shared" si="18"/>
-        <v>751</v>
-      </c>
-      <c r="B321" s="4">
-        <f t="shared" si="17"/>
         <v>2751</v>
       </c>
       <c r="C321" s="4"/>
@@ -13960,11 +13992,11 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
+        <f t="shared" si="19"/>
+        <v>752</v>
+      </c>
+      <c r="B322" s="4">
         <f t="shared" si="18"/>
-        <v>752</v>
-      </c>
-      <c r="B322" s="4">
-        <f t="shared" si="17"/>
         <v>2752</v>
       </c>
       <c r="C322" s="4"/>
@@ -13993,11 +14025,11 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
+        <f t="shared" si="19"/>
+        <v>753</v>
+      </c>
+      <c r="B323" s="4">
         <f t="shared" si="18"/>
-        <v>753</v>
-      </c>
-      <c r="B323" s="4">
-        <f t="shared" si="17"/>
         <v>2753</v>
       </c>
       <c r="C323" s="4"/>
@@ -14026,11 +14058,11 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
+        <f t="shared" si="19"/>
+        <v>754</v>
+      </c>
+      <c r="B324" s="4">
         <f t="shared" si="18"/>
-        <v>754</v>
-      </c>
-      <c r="B324" s="4">
-        <f t="shared" si="17"/>
         <v>2754</v>
       </c>
       <c r="C324" s="4"/>
@@ -14059,11 +14091,11 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
+        <f t="shared" si="19"/>
+        <v>755</v>
+      </c>
+      <c r="B325" s="4">
         <f t="shared" si="18"/>
-        <v>755</v>
-      </c>
-      <c r="B325" s="4">
-        <f t="shared" si="17"/>
         <v>2755</v>
       </c>
       <c r="C325" s="4"/>
@@ -14092,11 +14124,11 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
+        <f t="shared" si="19"/>
+        <v>756</v>
+      </c>
+      <c r="B326" s="4">
         <f t="shared" si="18"/>
-        <v>756</v>
-      </c>
-      <c r="B326" s="4">
-        <f t="shared" si="17"/>
         <v>2756</v>
       </c>
       <c r="C326" s="4"/>
@@ -14125,11 +14157,11 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
+        <f t="shared" si="19"/>
+        <v>757</v>
+      </c>
+      <c r="B327" s="4">
         <f t="shared" si="18"/>
-        <v>757</v>
-      </c>
-      <c r="B327" s="4">
-        <f t="shared" si="17"/>
         <v>2757</v>
       </c>
       <c r="C327" s="4"/>
@@ -14158,11 +14190,11 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
+        <f t="shared" si="19"/>
+        <v>758</v>
+      </c>
+      <c r="B328" s="4">
         <f t="shared" si="18"/>
-        <v>758</v>
-      </c>
-      <c r="B328" s="4">
-        <f t="shared" si="17"/>
         <v>2758</v>
       </c>
       <c r="C328" s="4"/>
@@ -14191,11 +14223,11 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
+        <f t="shared" si="19"/>
+        <v>759</v>
+      </c>
+      <c r="B329" s="4">
         <f t="shared" si="18"/>
-        <v>759</v>
-      </c>
-      <c r="B329" s="4">
-        <f t="shared" si="17"/>
         <v>2759</v>
       </c>
       <c r="C329" s="4"/>
@@ -14224,11 +14256,11 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
+        <f t="shared" si="19"/>
+        <v>760</v>
+      </c>
+      <c r="B330" s="4">
         <f t="shared" si="18"/>
-        <v>760</v>
-      </c>
-      <c r="B330" s="4">
-        <f t="shared" si="17"/>
         <v>2760</v>
       </c>
       <c r="C330" s="4"/>
@@ -14257,11 +14289,11 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
+        <f t="shared" si="19"/>
+        <v>761</v>
+      </c>
+      <c r="B331" s="4">
         <f t="shared" si="18"/>
-        <v>761</v>
-      </c>
-      <c r="B331" s="4">
-        <f t="shared" si="17"/>
         <v>2761</v>
       </c>
       <c r="C331" s="4"/>
@@ -14290,11 +14322,11 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
+        <f t="shared" si="19"/>
+        <v>762</v>
+      </c>
+      <c r="B332" s="4">
         <f t="shared" si="18"/>
-        <v>762</v>
-      </c>
-      <c r="B332" s="4">
-        <f t="shared" si="17"/>
         <v>2762</v>
       </c>
       <c r="C332" s="4"/>
@@ -14323,11 +14355,11 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
+        <f t="shared" si="19"/>
+        <v>763</v>
+      </c>
+      <c r="B333" s="4">
         <f t="shared" si="18"/>
-        <v>763</v>
-      </c>
-      <c r="B333" s="4">
-        <f t="shared" si="17"/>
         <v>2763</v>
       </c>
       <c r="C333" s="4"/>
@@ -14356,11 +14388,11 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
+        <f t="shared" si="19"/>
+        <v>764</v>
+      </c>
+      <c r="B334" s="4">
         <f t="shared" si="18"/>
-        <v>764</v>
-      </c>
-      <c r="B334" s="4">
-        <f t="shared" si="17"/>
         <v>2764</v>
       </c>
       <c r="C334" s="4"/>
@@ -14389,11 +14421,11 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>765</v>
       </c>
       <c r="B335" s="4">
-        <f t="shared" ref="B335:B398" si="19">A335+$B$3</f>
+        <f t="shared" ref="B335:B398" si="20">A335+$B$3</f>
         <v>2765</v>
       </c>
       <c r="C335" s="4"/>
@@ -14422,11 +14454,11 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <f t="shared" ref="A336:A399" si="20">A335+1</f>
+        <f t="shared" ref="A336:A399" si="21">A335+1</f>
         <v>766</v>
       </c>
       <c r="B336" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2766</v>
       </c>
       <c r="C336" s="4"/>
@@ -14455,11 +14487,11 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
+        <f t="shared" si="21"/>
+        <v>767</v>
+      </c>
+      <c r="B337" s="4">
         <f t="shared" si="20"/>
-        <v>767</v>
-      </c>
-      <c r="B337" s="4">
-        <f t="shared" si="19"/>
         <v>2767</v>
       </c>
       <c r="C337" s="4"/>
@@ -14488,11 +14520,11 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
+        <f t="shared" si="21"/>
+        <v>768</v>
+      </c>
+      <c r="B338" s="4">
         <f t="shared" si="20"/>
-        <v>768</v>
-      </c>
-      <c r="B338" s="4">
-        <f t="shared" si="19"/>
         <v>2768</v>
       </c>
       <c r="C338" s="4"/>
@@ -14521,11 +14553,11 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
+        <f t="shared" si="21"/>
+        <v>769</v>
+      </c>
+      <c r="B339" s="4">
         <f t="shared" si="20"/>
-        <v>769</v>
-      </c>
-      <c r="B339" s="4">
-        <f t="shared" si="19"/>
         <v>2769</v>
       </c>
       <c r="C339" s="4"/>
@@ -14554,11 +14586,11 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
+        <f t="shared" si="21"/>
+        <v>770</v>
+      </c>
+      <c r="B340" s="4">
         <f t="shared" si="20"/>
-        <v>770</v>
-      </c>
-      <c r="B340" s="4">
-        <f t="shared" si="19"/>
         <v>2770</v>
       </c>
       <c r="C340" s="4"/>
@@ -14587,11 +14619,11 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
+        <f t="shared" si="21"/>
+        <v>771</v>
+      </c>
+      <c r="B341" s="4">
         <f t="shared" si="20"/>
-        <v>771</v>
-      </c>
-      <c r="B341" s="4">
-        <f t="shared" si="19"/>
         <v>2771</v>
       </c>
       <c r="C341" s="4"/>
@@ -14620,11 +14652,11 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
+        <f t="shared" si="21"/>
+        <v>772</v>
+      </c>
+      <c r="B342" s="4">
         <f t="shared" si="20"/>
-        <v>772</v>
-      </c>
-      <c r="B342" s="4">
-        <f t="shared" si="19"/>
         <v>2772</v>
       </c>
       <c r="C342" s="4"/>
@@ -14653,11 +14685,11 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
+        <f t="shared" si="21"/>
+        <v>773</v>
+      </c>
+      <c r="B343" s="4">
         <f t="shared" si="20"/>
-        <v>773</v>
-      </c>
-      <c r="B343" s="4">
-        <f t="shared" si="19"/>
         <v>2773</v>
       </c>
       <c r="C343" s="4"/>
@@ -14686,11 +14718,11 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
+        <f t="shared" si="21"/>
+        <v>774</v>
+      </c>
+      <c r="B344" s="4">
         <f t="shared" si="20"/>
-        <v>774</v>
-      </c>
-      <c r="B344" s="4">
-        <f t="shared" si="19"/>
         <v>2774</v>
       </c>
       <c r="C344" s="4"/>
@@ -14719,11 +14751,11 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
+        <f t="shared" si="21"/>
+        <v>775</v>
+      </c>
+      <c r="B345" s="4">
         <f t="shared" si="20"/>
-        <v>775</v>
-      </c>
-      <c r="B345" s="4">
-        <f t="shared" si="19"/>
         <v>2775</v>
       </c>
       <c r="C345" s="4"/>
@@ -14752,11 +14784,11 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
+        <f t="shared" si="21"/>
+        <v>776</v>
+      </c>
+      <c r="B346" s="4">
         <f t="shared" si="20"/>
-        <v>776</v>
-      </c>
-      <c r="B346" s="4">
-        <f t="shared" si="19"/>
         <v>2776</v>
       </c>
       <c r="C346" s="4"/>
@@ -14785,11 +14817,11 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
+        <f t="shared" si="21"/>
+        <v>777</v>
+      </c>
+      <c r="B347" s="4">
         <f t="shared" si="20"/>
-        <v>777</v>
-      </c>
-      <c r="B347" s="4">
-        <f t="shared" si="19"/>
         <v>2777</v>
       </c>
       <c r="C347" s="4"/>
@@ -14818,11 +14850,11 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
+        <f t="shared" si="21"/>
+        <v>778</v>
+      </c>
+      <c r="B348" s="4">
         <f t="shared" si="20"/>
-        <v>778</v>
-      </c>
-      <c r="B348" s="4">
-        <f t="shared" si="19"/>
         <v>2778</v>
       </c>
       <c r="C348" s="4"/>
@@ -14851,11 +14883,11 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
+        <f t="shared" si="21"/>
+        <v>779</v>
+      </c>
+      <c r="B349" s="4">
         <f t="shared" si="20"/>
-        <v>779</v>
-      </c>
-      <c r="B349" s="4">
-        <f t="shared" si="19"/>
         <v>2779</v>
       </c>
       <c r="C349" s="4"/>
@@ -14884,11 +14916,11 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
+        <f t="shared" si="21"/>
+        <v>780</v>
+      </c>
+      <c r="B350" s="4">
         <f t="shared" si="20"/>
-        <v>780</v>
-      </c>
-      <c r="B350" s="4">
-        <f t="shared" si="19"/>
         <v>2780</v>
       </c>
       <c r="C350" s="4"/>
@@ -14917,11 +14949,11 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
+        <f t="shared" si="21"/>
+        <v>781</v>
+      </c>
+      <c r="B351" s="4">
         <f t="shared" si="20"/>
-        <v>781</v>
-      </c>
-      <c r="B351" s="4">
-        <f t="shared" si="19"/>
         <v>2781</v>
       </c>
       <c r="C351" s="4"/>
@@ -14950,11 +14982,11 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
+        <f t="shared" si="21"/>
+        <v>782</v>
+      </c>
+      <c r="B352" s="4">
         <f t="shared" si="20"/>
-        <v>782</v>
-      </c>
-      <c r="B352" s="4">
-        <f t="shared" si="19"/>
         <v>2782</v>
       </c>
       <c r="C352" s="4"/>
@@ -14983,11 +15015,11 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
+        <f t="shared" si="21"/>
+        <v>783</v>
+      </c>
+      <c r="B353" s="4">
         <f t="shared" si="20"/>
-        <v>783</v>
-      </c>
-      <c r="B353" s="4">
-        <f t="shared" si="19"/>
         <v>2783</v>
       </c>
       <c r="C353" s="4"/>
@@ -15016,11 +15048,11 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
+        <f t="shared" si="21"/>
+        <v>784</v>
+      </c>
+      <c r="B354" s="4">
         <f t="shared" si="20"/>
-        <v>784</v>
-      </c>
-      <c r="B354" s="4">
-        <f t="shared" si="19"/>
         <v>2784</v>
       </c>
       <c r="C354" s="4"/>
@@ -15049,11 +15081,11 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
+        <f t="shared" si="21"/>
+        <v>785</v>
+      </c>
+      <c r="B355" s="4">
         <f t="shared" si="20"/>
-        <v>785</v>
-      </c>
-      <c r="B355" s="4">
-        <f t="shared" si="19"/>
         <v>2785</v>
       </c>
       <c r="C355" s="4"/>
@@ -15082,11 +15114,11 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
+        <f t="shared" si="21"/>
+        <v>786</v>
+      </c>
+      <c r="B356" s="4">
         <f t="shared" si="20"/>
-        <v>786</v>
-      </c>
-      <c r="B356" s="4">
-        <f t="shared" si="19"/>
         <v>2786</v>
       </c>
       <c r="C356" s="4"/>
@@ -15115,11 +15147,11 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
+        <f t="shared" si="21"/>
+        <v>787</v>
+      </c>
+      <c r="B357" s="4">
         <f t="shared" si="20"/>
-        <v>787</v>
-      </c>
-      <c r="B357" s="4">
-        <f t="shared" si="19"/>
         <v>2787</v>
       </c>
       <c r="C357" s="4"/>
@@ -15148,11 +15180,11 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
+        <f t="shared" si="21"/>
+        <v>788</v>
+      </c>
+      <c r="B358" s="4">
         <f t="shared" si="20"/>
-        <v>788</v>
-      </c>
-      <c r="B358" s="4">
-        <f t="shared" si="19"/>
         <v>2788</v>
       </c>
       <c r="C358" s="4"/>
@@ -15181,11 +15213,11 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
+        <f t="shared" si="21"/>
+        <v>789</v>
+      </c>
+      <c r="B359" s="4">
         <f t="shared" si="20"/>
-        <v>789</v>
-      </c>
-      <c r="B359" s="4">
-        <f t="shared" si="19"/>
         <v>2789</v>
       </c>
       <c r="C359" s="4"/>
@@ -15214,11 +15246,11 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
+        <f t="shared" si="21"/>
+        <v>790</v>
+      </c>
+      <c r="B360" s="4">
         <f t="shared" si="20"/>
-        <v>790</v>
-      </c>
-      <c r="B360" s="4">
-        <f t="shared" si="19"/>
         <v>2790</v>
       </c>
       <c r="C360" s="4"/>
@@ -15247,11 +15279,11 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
+        <f t="shared" si="21"/>
+        <v>791</v>
+      </c>
+      <c r="B361" s="4">
         <f t="shared" si="20"/>
-        <v>791</v>
-      </c>
-      <c r="B361" s="4">
-        <f t="shared" si="19"/>
         <v>2791</v>
       </c>
       <c r="C361" s="4"/>
@@ -15280,11 +15312,11 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
+        <f t="shared" si="21"/>
+        <v>792</v>
+      </c>
+      <c r="B362" s="4">
         <f t="shared" si="20"/>
-        <v>792</v>
-      </c>
-      <c r="B362" s="4">
-        <f t="shared" si="19"/>
         <v>2792</v>
       </c>
       <c r="C362" s="4"/>
@@ -15313,11 +15345,11 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
+        <f t="shared" si="21"/>
+        <v>793</v>
+      </c>
+      <c r="B363" s="4">
         <f t="shared" si="20"/>
-        <v>793</v>
-      </c>
-      <c r="B363" s="4">
-        <f t="shared" si="19"/>
         <v>2793</v>
       </c>
       <c r="C363" s="4"/>
@@ -15346,11 +15378,11 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
+        <f t="shared" si="21"/>
+        <v>794</v>
+      </c>
+      <c r="B364" s="4">
         <f t="shared" si="20"/>
-        <v>794</v>
-      </c>
-      <c r="B364" s="4">
-        <f t="shared" si="19"/>
         <v>2794</v>
       </c>
       <c r="C364" s="4"/>
@@ -15379,11 +15411,11 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
+        <f t="shared" si="21"/>
+        <v>795</v>
+      </c>
+      <c r="B365" s="4">
         <f t="shared" si="20"/>
-        <v>795</v>
-      </c>
-      <c r="B365" s="4">
-        <f t="shared" si="19"/>
         <v>2795</v>
       </c>
       <c r="C365" s="4"/>
@@ -15412,11 +15444,11 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
+        <f t="shared" si="21"/>
+        <v>796</v>
+      </c>
+      <c r="B366" s="4">
         <f t="shared" si="20"/>
-        <v>796</v>
-      </c>
-      <c r="B366" s="4">
-        <f t="shared" si="19"/>
         <v>2796</v>
       </c>
       <c r="C366" s="4"/>
@@ -15445,11 +15477,11 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
+        <f t="shared" si="21"/>
+        <v>797</v>
+      </c>
+      <c r="B367" s="4">
         <f t="shared" si="20"/>
-        <v>797</v>
-      </c>
-      <c r="B367" s="4">
-        <f t="shared" si="19"/>
         <v>2797</v>
       </c>
       <c r="C367" s="4"/>
@@ -15478,11 +15510,11 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
+        <f t="shared" si="21"/>
+        <v>798</v>
+      </c>
+      <c r="B368" s="4">
         <f t="shared" si="20"/>
-        <v>798</v>
-      </c>
-      <c r="B368" s="4">
-        <f t="shared" si="19"/>
         <v>2798</v>
       </c>
       <c r="C368" s="4"/>
@@ -15511,11 +15543,11 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
+        <f t="shared" si="21"/>
+        <v>799</v>
+      </c>
+      <c r="B369" s="4">
         <f t="shared" si="20"/>
-        <v>799</v>
-      </c>
-      <c r="B369" s="4">
-        <f t="shared" si="19"/>
         <v>2799</v>
       </c>
       <c r="C369" s="4"/>
@@ -15544,11 +15576,11 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
+        <f t="shared" si="21"/>
+        <v>800</v>
+      </c>
+      <c r="B370" s="4">
         <f t="shared" si="20"/>
-        <v>800</v>
-      </c>
-      <c r="B370" s="4">
-        <f t="shared" si="19"/>
         <v>2800</v>
       </c>
       <c r="C370" s="4"/>
@@ -15577,11 +15609,11 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
+        <f t="shared" si="21"/>
+        <v>801</v>
+      </c>
+      <c r="B371" s="4">
         <f t="shared" si="20"/>
-        <v>801</v>
-      </c>
-      <c r="B371" s="4">
-        <f t="shared" si="19"/>
         <v>2801</v>
       </c>
       <c r="C371" s="4"/>
@@ -15610,11 +15642,11 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
+        <f t="shared" si="21"/>
+        <v>802</v>
+      </c>
+      <c r="B372" s="4">
         <f t="shared" si="20"/>
-        <v>802</v>
-      </c>
-      <c r="B372" s="4">
-        <f t="shared" si="19"/>
         <v>2802</v>
       </c>
       <c r="C372" s="4"/>
@@ -15643,11 +15675,11 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
+        <f t="shared" si="21"/>
+        <v>803</v>
+      </c>
+      <c r="B373" s="4">
         <f t="shared" si="20"/>
-        <v>803</v>
-      </c>
-      <c r="B373" s="4">
-        <f t="shared" si="19"/>
         <v>2803</v>
       </c>
       <c r="C373" s="4"/>
@@ -15676,11 +15708,11 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
+        <f t="shared" si="21"/>
+        <v>804</v>
+      </c>
+      <c r="B374" s="4">
         <f t="shared" si="20"/>
-        <v>804</v>
-      </c>
-      <c r="B374" s="4">
-        <f t="shared" si="19"/>
         <v>2804</v>
       </c>
       <c r="C374" s="4"/>
@@ -15709,11 +15741,11 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
+        <f t="shared" si="21"/>
+        <v>805</v>
+      </c>
+      <c r="B375" s="4">
         <f t="shared" si="20"/>
-        <v>805</v>
-      </c>
-      <c r="B375" s="4">
-        <f t="shared" si="19"/>
         <v>2805</v>
       </c>
       <c r="C375" s="4"/>
@@ -15742,11 +15774,11 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
+        <f t="shared" si="21"/>
+        <v>806</v>
+      </c>
+      <c r="B376" s="4">
         <f t="shared" si="20"/>
-        <v>806</v>
-      </c>
-      <c r="B376" s="4">
-        <f t="shared" si="19"/>
         <v>2806</v>
       </c>
       <c r="C376" s="4"/>
@@ -15775,11 +15807,11 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
+        <f t="shared" si="21"/>
+        <v>807</v>
+      </c>
+      <c r="B377" s="4">
         <f t="shared" si="20"/>
-        <v>807</v>
-      </c>
-      <c r="B377" s="4">
-        <f t="shared" si="19"/>
         <v>2807</v>
       </c>
       <c r="C377" s="4"/>
@@ -15808,11 +15840,11 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
+        <f t="shared" si="21"/>
+        <v>808</v>
+      </c>
+      <c r="B378" s="4">
         <f t="shared" si="20"/>
-        <v>808</v>
-      </c>
-      <c r="B378" s="4">
-        <f t="shared" si="19"/>
         <v>2808</v>
       </c>
       <c r="C378" s="4"/>
@@ -15841,11 +15873,11 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
+        <f t="shared" si="21"/>
+        <v>809</v>
+      </c>
+      <c r="B379" s="4">
         <f t="shared" si="20"/>
-        <v>809</v>
-      </c>
-      <c r="B379" s="4">
-        <f t="shared" si="19"/>
         <v>2809</v>
       </c>
       <c r="C379" s="4"/>
@@ -15874,11 +15906,11 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
+        <f t="shared" si="21"/>
+        <v>810</v>
+      </c>
+      <c r="B380" s="4">
         <f t="shared" si="20"/>
-        <v>810</v>
-      </c>
-      <c r="B380" s="4">
-        <f t="shared" si="19"/>
         <v>2810</v>
       </c>
       <c r="C380" s="4"/>
@@ -15907,11 +15939,11 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
+        <f t="shared" si="21"/>
+        <v>811</v>
+      </c>
+      <c r="B381" s="4">
         <f t="shared" si="20"/>
-        <v>811</v>
-      </c>
-      <c r="B381" s="4">
-        <f t="shared" si="19"/>
         <v>2811</v>
       </c>
       <c r="C381" s="4"/>
@@ -15940,11 +15972,11 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
+        <f t="shared" si="21"/>
+        <v>812</v>
+      </c>
+      <c r="B382" s="4">
         <f t="shared" si="20"/>
-        <v>812</v>
-      </c>
-      <c r="B382" s="4">
-        <f t="shared" si="19"/>
         <v>2812</v>
       </c>
       <c r="C382" s="4"/>
@@ -15973,11 +16005,11 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
+        <f t="shared" si="21"/>
+        <v>813</v>
+      </c>
+      <c r="B383" s="4">
         <f t="shared" si="20"/>
-        <v>813</v>
-      </c>
-      <c r="B383" s="4">
-        <f t="shared" si="19"/>
         <v>2813</v>
       </c>
       <c r="C383" s="4"/>
@@ -16006,11 +16038,11 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
+        <f t="shared" si="21"/>
+        <v>814</v>
+      </c>
+      <c r="B384" s="4">
         <f t="shared" si="20"/>
-        <v>814</v>
-      </c>
-      <c r="B384" s="4">
-        <f t="shared" si="19"/>
         <v>2814</v>
       </c>
       <c r="C384" s="4"/>
@@ -16039,11 +16071,11 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
+        <f t="shared" si="21"/>
+        <v>815</v>
+      </c>
+      <c r="B385" s="4">
         <f t="shared" si="20"/>
-        <v>815</v>
-      </c>
-      <c r="B385" s="4">
-        <f t="shared" si="19"/>
         <v>2815</v>
       </c>
       <c r="C385" s="4"/>
@@ -16072,11 +16104,11 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
+        <f t="shared" si="21"/>
+        <v>816</v>
+      </c>
+      <c r="B386" s="4">
         <f t="shared" si="20"/>
-        <v>816</v>
-      </c>
-      <c r="B386" s="4">
-        <f t="shared" si="19"/>
         <v>2816</v>
       </c>
       <c r="C386" s="4"/>
@@ -16105,11 +16137,11 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
+        <f t="shared" si="21"/>
+        <v>817</v>
+      </c>
+      <c r="B387" s="4">
         <f t="shared" si="20"/>
-        <v>817</v>
-      </c>
-      <c r="B387" s="4">
-        <f t="shared" si="19"/>
         <v>2817</v>
       </c>
       <c r="C387" s="4"/>
@@ -16138,11 +16170,11 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
+        <f t="shared" si="21"/>
+        <v>818</v>
+      </c>
+      <c r="B388" s="4">
         <f t="shared" si="20"/>
-        <v>818</v>
-      </c>
-      <c r="B388" s="4">
-        <f t="shared" si="19"/>
         <v>2818</v>
       </c>
       <c r="C388" s="4"/>
@@ -16171,11 +16203,11 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
+        <f t="shared" si="21"/>
+        <v>819</v>
+      </c>
+      <c r="B389" s="4">
         <f t="shared" si="20"/>
-        <v>819</v>
-      </c>
-      <c r="B389" s="4">
-        <f t="shared" si="19"/>
         <v>2819</v>
       </c>
       <c r="C389" s="4"/>
@@ -16204,11 +16236,11 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
+        <f t="shared" si="21"/>
+        <v>820</v>
+      </c>
+      <c r="B390" s="4">
         <f t="shared" si="20"/>
-        <v>820</v>
-      </c>
-      <c r="B390" s="4">
-        <f t="shared" si="19"/>
         <v>2820</v>
       </c>
       <c r="C390" s="4"/>
@@ -16237,11 +16269,11 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
+        <f t="shared" si="21"/>
+        <v>821</v>
+      </c>
+      <c r="B391" s="4">
         <f t="shared" si="20"/>
-        <v>821</v>
-      </c>
-      <c r="B391" s="4">
-        <f t="shared" si="19"/>
         <v>2821</v>
       </c>
       <c r="C391" s="4"/>
@@ -16270,11 +16302,11 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
+        <f t="shared" si="21"/>
+        <v>822</v>
+      </c>
+      <c r="B392" s="4">
         <f t="shared" si="20"/>
-        <v>822</v>
-      </c>
-      <c r="B392" s="4">
-        <f t="shared" si="19"/>
         <v>2822</v>
       </c>
       <c r="C392" s="4"/>
@@ -16303,11 +16335,11 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
+        <f t="shared" si="21"/>
+        <v>823</v>
+      </c>
+      <c r="B393" s="4">
         <f t="shared" si="20"/>
-        <v>823</v>
-      </c>
-      <c r="B393" s="4">
-        <f t="shared" si="19"/>
         <v>2823</v>
       </c>
       <c r="C393" s="4"/>
@@ -16336,11 +16368,11 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
+        <f t="shared" si="21"/>
+        <v>824</v>
+      </c>
+      <c r="B394" s="4">
         <f t="shared" si="20"/>
-        <v>824</v>
-      </c>
-      <c r="B394" s="4">
-        <f t="shared" si="19"/>
         <v>2824</v>
       </c>
       <c r="C394" s="4"/>
@@ -16369,11 +16401,11 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
+        <f t="shared" si="21"/>
+        <v>825</v>
+      </c>
+      <c r="B395" s="4">
         <f t="shared" si="20"/>
-        <v>825</v>
-      </c>
-      <c r="B395" s="4">
-        <f t="shared" si="19"/>
         <v>2825</v>
       </c>
       <c r="C395" s="4"/>
@@ -16402,11 +16434,11 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
+        <f t="shared" si="21"/>
+        <v>826</v>
+      </c>
+      <c r="B396" s="4">
         <f t="shared" si="20"/>
-        <v>826</v>
-      </c>
-      <c r="B396" s="4">
-        <f t="shared" si="19"/>
         <v>2826</v>
       </c>
       <c r="C396" s="4"/>
@@ -16435,11 +16467,11 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
+        <f t="shared" si="21"/>
+        <v>827</v>
+      </c>
+      <c r="B397" s="4">
         <f t="shared" si="20"/>
-        <v>827</v>
-      </c>
-      <c r="B397" s="4">
-        <f t="shared" si="19"/>
         <v>2827</v>
       </c>
       <c r="C397" s="4"/>
@@ -16468,11 +16500,11 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
+        <f t="shared" si="21"/>
+        <v>828</v>
+      </c>
+      <c r="B398" s="4">
         <f t="shared" si="20"/>
-        <v>828</v>
-      </c>
-      <c r="B398" s="4">
-        <f t="shared" si="19"/>
         <v>2828</v>
       </c>
       <c r="C398" s="4"/>
@@ -16501,11 +16533,11 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>829</v>
       </c>
       <c r="B399" s="4">
-        <f t="shared" ref="B399:B405" si="21">A399+$B$3</f>
+        <f t="shared" ref="B399:B405" si="22">A399+$B$3</f>
         <v>2829</v>
       </c>
       <c r="C399" s="4"/>
@@ -16534,11 +16566,11 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <f t="shared" ref="A400:A405" si="22">A399+1</f>
+        <f t="shared" ref="A400:A405" si="23">A399+1</f>
         <v>830</v>
       </c>
       <c r="B400" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2830</v>
       </c>
       <c r="C400" s="4"/>
@@ -16567,11 +16599,11 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
+        <f t="shared" si="23"/>
+        <v>831</v>
+      </c>
+      <c r="B401" s="4">
         <f t="shared" si="22"/>
-        <v>831</v>
-      </c>
-      <c r="B401" s="4">
-        <f t="shared" si="21"/>
         <v>2831</v>
       </c>
       <c r="C401" s="4"/>
@@ -16600,11 +16632,11 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
+        <f t="shared" si="23"/>
+        <v>832</v>
+      </c>
+      <c r="B402" s="4">
         <f t="shared" si="22"/>
-        <v>832</v>
-      </c>
-      <c r="B402" s="4">
-        <f t="shared" si="21"/>
         <v>2832</v>
       </c>
       <c r="C402" s="4"/>
@@ -16633,11 +16665,11 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
+        <f t="shared" si="23"/>
+        <v>833</v>
+      </c>
+      <c r="B403" s="4">
         <f t="shared" si="22"/>
-        <v>833</v>
-      </c>
-      <c r="B403" s="4">
-        <f t="shared" si="21"/>
         <v>2833</v>
       </c>
       <c r="C403" s="4"/>
@@ -16666,11 +16698,11 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
+        <f t="shared" si="23"/>
+        <v>834</v>
+      </c>
+      <c r="B404" s="4">
         <f t="shared" si="22"/>
-        <v>834</v>
-      </c>
-      <c r="B404" s="4">
-        <f t="shared" si="21"/>
         <v>2834</v>
       </c>
       <c r="C404" s="4"/>
@@ -16699,11 +16731,11 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
+        <f t="shared" si="23"/>
+        <v>835</v>
+      </c>
+      <c r="B405" s="4">
         <f t="shared" si="22"/>
-        <v>835</v>
-      </c>
-      <c r="B405" s="4">
-        <f t="shared" si="21"/>
         <v>2835</v>
       </c>
       <c r="C405" s="4"/>

--- a/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
+++ b/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="823">
   <si>
     <t>№101</t>
   </si>
@@ -1847,9 +1847,6 @@
     <t>Восстан-е КС на ПРМ</t>
   </si>
   <si>
-    <t>Восстан-е работы ЦП</t>
-  </si>
-  <si>
     <t>Нет КС</t>
   </si>
   <si>
@@ -2262,15 +2259,6 @@
   </si>
   <si>
     <t>Индикация команды приемника 32</t>
-  </si>
-  <si>
-    <t>Уд пост неисправен</t>
-  </si>
-  <si>
-    <t>Уд ПРД неисправен</t>
-  </si>
-  <si>
-    <t>Уд ПРМ неисправен</t>
   </si>
   <si>
     <t>Сигнал защиты ПРМ</t>
@@ -2963,9 +2951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M414"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,13 +2989,13 @@
         <v>383</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>397</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K1" s="6"/>
     </row>
@@ -3016,7 +3004,7 @@
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -3035,25 +3023,25 @@
         <v>3000</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K3" s="6"/>
     </row>
@@ -3069,7 +3057,7 @@
         <v>3001</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>1</v>
@@ -3105,7 +3093,7 @@
         <v>3002</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>2</v>
@@ -3141,7 +3129,7 @@
         <v>3003</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
@@ -3177,7 +3165,7 @@
         <v>3004</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>4</v>
@@ -3213,7 +3201,7 @@
         <v>3005</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>5</v>
@@ -3249,7 +3237,7 @@
         <v>3006</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -3285,7 +3273,7 @@
         <v>3007</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
@@ -3321,7 +3309,7 @@
         <v>3008</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
@@ -3357,7 +3345,7 @@
         <v>3009</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
@@ -3393,7 +3381,7 @@
         <v>3010</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -3429,7 +3417,7 @@
         <v>3011</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>11</v>
@@ -3465,7 +3453,7 @@
         <v>3012</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>12</v>
@@ -3501,7 +3489,7 @@
         <v>3013</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>13</v>
@@ -3537,7 +3525,7 @@
         <v>3014</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -3573,7 +3561,7 @@
         <v>3015</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>15</v>
@@ -3609,7 +3597,7 @@
         <v>3016</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -3645,7 +3633,7 @@
         <v>3017</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
@@ -3681,7 +3669,7 @@
         <v>3018</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -3717,7 +3705,7 @@
         <v>3019</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>19</v>
@@ -3753,7 +3741,7 @@
         <v>3020</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>20</v>
@@ -3789,7 +3777,7 @@
         <v>3021</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>21</v>
@@ -3825,7 +3813,7 @@
         <v>3022</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>22</v>
@@ -3861,7 +3849,7 @@
         <v>3023</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>23</v>
@@ -3897,7 +3885,7 @@
         <v>3024</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>24</v>
@@ -3933,7 +3921,7 @@
         <v>3025</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>25</v>
@@ -3969,7 +3957,7 @@
         <v>3026</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>26</v>
@@ -4005,7 +3993,7 @@
         <v>3027</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>27</v>
@@ -4041,7 +4029,7 @@
         <v>3028</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>28</v>
@@ -4077,7 +4065,7 @@
         <v>3029</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>29</v>
@@ -4113,7 +4101,7 @@
         <v>3030</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>30</v>
@@ -4149,7 +4137,7 @@
         <v>3031</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>31</v>
@@ -4185,7 +4173,7 @@
         <v>3032</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>32</v>
@@ -4219,29 +4207,29 @@
         <v>3101</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="9" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4256,29 +4244,29 @@
         <v>3102</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="9" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4293,29 +4281,29 @@
         <v>3103</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -4330,7 +4318,7 @@
         <v>3104</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>212</v>
@@ -4352,7 +4340,7 @@
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4389,7 +4377,7 @@
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="9" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4424,7 +4412,7 @@
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="9" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4439,29 +4427,29 @@
         <v>3107</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="22" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="M42" s="20"/>
     </row>
@@ -4477,29 +4465,29 @@
         <v>3108</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="22" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="M43" s="20"/>
     </row>
@@ -4537,7 +4525,7 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="22" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="M44" s="20"/>
     </row>
@@ -4717,13 +4705,13 @@
         <v>3205</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
@@ -4738,13 +4726,13 @@
         <v>3206</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="5" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -4759,13 +4747,13 @@
         <v>3207</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
@@ -4803,10 +4791,10 @@
         <v>68</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>226</v>
@@ -4837,10 +4825,10 @@
         <v>69</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>227</v>
@@ -4871,10 +4859,10 @@
         <v>70</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>228</v>
@@ -4905,10 +4893,10 @@
         <v>71</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>229</v>
@@ -4939,10 +4927,10 @@
         <v>72</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>230</v>
@@ -5075,7 +5063,7 @@
         <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>34</v>
@@ -5109,10 +5097,10 @@
         <v>80</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>232</v>
@@ -5177,7 +5165,7 @@
         <v>78</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>34</v>
@@ -5211,7 +5199,7 @@
         <v>77</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>34</v>
@@ -5347,10 +5335,10 @@
         <v>85</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>235</v>
@@ -5384,7 +5372,7 @@
         <v>34</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>251</v>
@@ -5415,10 +5403,10 @@
         <v>87</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>343</v>
@@ -5449,10 +5437,10 @@
         <v>88</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>344</v>
@@ -5483,7 +5471,7 @@
         <v>84</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>34</v>
@@ -5520,7 +5508,7 @@
         <v>34</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>252</v>
@@ -5554,7 +5542,7 @@
         <v>34</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>253</v>
@@ -5988,10 +5976,10 @@
         <v>535</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>34</v>
@@ -6226,10 +6214,10 @@
         <v>536</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>34</v>
@@ -6260,10 +6248,10 @@
         <v>537</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>34</v>
@@ -6294,10 +6282,10 @@
         <v>538</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>34</v>
@@ -6328,10 +6316,10 @@
         <v>539</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>34</v>
@@ -6532,7 +6520,7 @@
         <v>541</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>34</v>
@@ -6566,7 +6554,7 @@
         <v>542</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>34</v>
@@ -7056,13 +7044,13 @@
         <v>3450</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>34</v>
@@ -7090,13 +7078,13 @@
         <v>3451</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>34</v>
@@ -7124,13 +7112,13 @@
         <v>3452</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>34</v>
@@ -7158,13 +7146,13 @@
         <v>3453</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>34</v>
@@ -7192,13 +7180,13 @@
         <v>3454</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>34</v>
@@ -7226,13 +7214,13 @@
         <v>3455</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>34</v>
@@ -7260,13 +7248,13 @@
         <v>3456</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>34</v>
@@ -7294,13 +7282,13 @@
         <v>3457</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>34</v>
@@ -7328,13 +7316,13 @@
         <v>3458</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>34</v>
@@ -7362,13 +7350,13 @@
         <v>3459</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>34</v>
@@ -7396,13 +7384,13 @@
         <v>3460</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>34</v>
@@ -7430,13 +7418,13 @@
         <v>3461</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>34</v>
@@ -7464,13 +7452,13 @@
         <v>3462</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>34</v>
@@ -7498,13 +7486,13 @@
         <v>3463</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>34</v>
@@ -7532,13 +7520,13 @@
         <v>3464</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>34</v>
@@ -7566,13 +7554,13 @@
         <v>3465</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>34</v>
@@ -7600,13 +7588,13 @@
         <v>3466</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>34</v>
@@ -7634,13 +7622,13 @@
         <v>3467</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>34</v>
@@ -7668,13 +7656,13 @@
         <v>3468</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>34</v>
@@ -7702,13 +7690,13 @@
         <v>3469</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>34</v>
@@ -7736,13 +7724,13 @@
         <v>3470</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>34</v>
@@ -7770,13 +7758,13 @@
         <v>3471</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>34</v>
@@ -7804,13 +7792,13 @@
         <v>3472</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>34</v>
@@ -7838,13 +7826,13 @@
         <v>3473</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>34</v>
@@ -7872,13 +7860,13 @@
         <v>3474</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>34</v>
@@ -7906,13 +7894,13 @@
         <v>3475</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>34</v>
@@ -7940,13 +7928,13 @@
         <v>3476</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>34</v>
@@ -7974,13 +7962,13 @@
         <v>3477</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>34</v>
@@ -8008,13 +7996,13 @@
         <v>3478</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>34</v>
@@ -8042,13 +8030,13 @@
         <v>3479</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>34</v>
@@ -8076,13 +8064,13 @@
         <v>3480</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>34</v>
@@ -8110,13 +8098,13 @@
         <v>3481</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>34</v>
@@ -8337,7 +8325,7 @@
         <v>3501</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>603</v>
@@ -8373,13 +8361,13 @@
         <v>3502</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>34</v>
@@ -8409,19 +8397,19 @@
         <v>3503</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>327</v>
@@ -8448,7 +8436,7 @@
         <v>124</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>34</v>
@@ -8625,13 +8613,13 @@
         <v>3509</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>34</v>
@@ -8661,13 +8649,13 @@
         <v>3510</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>34</v>
@@ -8697,13 +8685,13 @@
         <v>3511</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>34</v>
@@ -8733,13 +8721,13 @@
         <v>3512</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>34</v>
@@ -8913,13 +8901,13 @@
         <v>3517</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>34</v>
@@ -8949,10 +8937,10 @@
         <v>3518</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>34</v>
@@ -8985,10 +8973,10 @@
         <v>3519</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>34</v>
@@ -9024,7 +9012,7 @@
         <v>133</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>34</v>
@@ -9522,13 +9510,13 @@
         <v>3550</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>34</v>
@@ -9558,13 +9546,13 @@
         <v>3551</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>34</v>
@@ -9594,13 +9582,13 @@
         <v>3552</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>34</v>
@@ -9630,13 +9618,13 @@
         <v>3553</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>34</v>
@@ -9666,13 +9654,13 @@
         <v>3554</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>34</v>
@@ -9702,13 +9690,13 @@
         <v>3555</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>34</v>
@@ -9738,13 +9726,13 @@
         <v>3556</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>34</v>
@@ -9774,13 +9762,13 @@
         <v>3557</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>34</v>
@@ -9810,13 +9798,13 @@
         <v>3558</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>34</v>
@@ -9846,13 +9834,13 @@
         <v>3559</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>34</v>
@@ -9882,13 +9870,13 @@
         <v>3560</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>34</v>
@@ -9918,13 +9906,13 @@
         <v>3561</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>34</v>
@@ -9954,13 +9942,13 @@
         <v>3562</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>34</v>
@@ -9990,13 +9978,13 @@
         <v>3563</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>34</v>
@@ -10026,13 +10014,13 @@
         <v>3564</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>34</v>
@@ -10062,13 +10050,13 @@
         <v>3565</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>34</v>
@@ -10098,13 +10086,13 @@
         <v>3566</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>34</v>
@@ -10134,13 +10122,13 @@
         <v>3567</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>34</v>
@@ -10170,13 +10158,13 @@
         <v>3568</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>34</v>
@@ -10206,13 +10194,13 @@
         <v>3569</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>34</v>
@@ -10242,13 +10230,13 @@
         <v>3570</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>34</v>
@@ -10278,13 +10266,13 @@
         <v>3571</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>34</v>
@@ -10314,13 +10302,13 @@
         <v>3572</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>34</v>
@@ -10350,13 +10338,13 @@
         <v>3573</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>34</v>
@@ -10386,13 +10374,13 @@
         <v>3574</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>34</v>
@@ -10422,13 +10410,13 @@
         <v>3575</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>34</v>
@@ -10458,13 +10446,13 @@
         <v>3576</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>34</v>
@@ -10494,13 +10482,13 @@
         <v>3577</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>34</v>
@@ -10530,13 +10518,13 @@
         <v>3578</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>34</v>
@@ -10566,13 +10554,13 @@
         <v>3579</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>34</v>
@@ -10602,13 +10590,13 @@
         <v>3580</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>34</v>
@@ -10638,13 +10626,13 @@
         <v>3581</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>34</v>
@@ -12285,22 +12273,22 @@
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>543</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>561</v>
+        <v>34</v>
       </c>
       <c r="G270" s="5" t="s">
         <v>561</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>561</v>
+        <v>34</v>
       </c>
       <c r="J270" s="5" t="s">
         <v>561</v>
@@ -12318,13 +12306,13 @@
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>544</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>559</v>
+        <v>34</v>
       </c>
       <c r="G271" s="5" t="s">
         <v>578</v>
@@ -12333,7 +12321,7 @@
         <v>544</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>559</v>
+        <v>34</v>
       </c>
       <c r="J271" s="5" t="s">
         <v>559</v>
@@ -12351,13 +12339,13 @@
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>545</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>560</v>
+        <v>34</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>560</v>
@@ -12366,7 +12354,7 @@
         <v>545</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>560</v>
+        <v>34</v>
       </c>
       <c r="J272" s="5" t="s">
         <v>560</v>
@@ -12384,7 +12372,7 @@
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>546</v>
@@ -12402,7 +12390,7 @@
         <v>34</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K273" s="6"/>
     </row>
@@ -12417,13 +12405,13 @@
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>547</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>547</v>
+        <v>34</v>
       </c>
       <c r="G274" s="5" t="s">
         <v>580</v>
@@ -12432,7 +12420,7 @@
         <v>547</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>547</v>
+        <v>34</v>
       </c>
       <c r="J274" s="5" t="s">
         <v>547</v>
@@ -12450,13 +12438,13 @@
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="23" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>548</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>559</v>
@@ -12465,7 +12453,7 @@
         <v>548</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="J275" s="5" t="s">
         <v>601</v>
@@ -12483,13 +12471,13 @@
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>548</v>
+        <v>34</v>
       </c>
       <c r="G276" s="5" t="s">
         <v>581</v>
@@ -12498,7 +12486,7 @@
         <v>572</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>548</v>
+        <v>34</v>
       </c>
       <c r="J276" s="5" t="s">
         <v>548</v>
@@ -12516,13 +12504,13 @@
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>549</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>602</v>
+        <v>34</v>
       </c>
       <c r="G277" s="5" t="s">
         <v>556</v>
@@ -12531,7 +12519,7 @@
         <v>549</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>602</v>
+        <v>34</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>602</v>
@@ -12549,13 +12537,13 @@
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>550</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>603</v>
+        <v>34</v>
       </c>
       <c r="G278" s="5" t="s">
         <v>557</v>
@@ -12564,7 +12552,7 @@
         <v>573</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>603</v>
+        <v>34</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>603</v>
@@ -12588,7 +12576,7 @@
         <v>34</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>604</v>
+        <v>34</v>
       </c>
       <c r="G279" s="5" t="s">
         <v>558</v>
@@ -12597,7 +12585,7 @@
         <v>574</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>604</v>
+        <v>34</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>604</v>
@@ -12621,7 +12609,7 @@
         <v>34</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>605</v>
+        <v>34</v>
       </c>
       <c r="G280" s="5" t="s">
         <v>582</v>
@@ -12630,7 +12618,7 @@
         <v>575</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>605</v>
+        <v>34</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>605</v>
@@ -12654,16 +12642,16 @@
         <v>34</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>562</v>
+        <v>34</v>
       </c>
       <c r="G281" s="5" t="s">
         <v>562</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>562</v>
+        <v>34</v>
       </c>
       <c r="J281" s="5" t="s">
         <v>562</v>
@@ -12687,7 +12675,7 @@
         <v>551</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>583</v>
@@ -12696,10 +12684,10 @@
         <v>576</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="J282" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K282" s="6"/>
     </row>
@@ -12720,7 +12708,7 @@
         <v>552</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>584</v>
+        <v>34</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>584</v>
@@ -12729,10 +12717,10 @@
         <v>577</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>584</v>
+        <v>34</v>
       </c>
       <c r="J283" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K283" s="6"/>
     </row>
@@ -12753,7 +12741,7 @@
         <v>553</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>573</v>
+        <v>34</v>
       </c>
       <c r="G284" s="5" t="s">
         <v>573</v>
@@ -12762,10 +12750,10 @@
         <v>553</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>573</v>
+        <v>34</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K284" s="6"/>
     </row>
@@ -12786,16 +12774,16 @@
         <v>554</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>585</v>
+        <v>34</v>
       </c>
       <c r="G285" s="5" t="s">
         <v>585</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>585</v>
+        <v>34</v>
       </c>
       <c r="J285" s="5" t="s">
         <v>585</v>
@@ -12819,7 +12807,7 @@
         <v>555</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>586</v>
+        <v>34</v>
       </c>
       <c r="G286" s="5" t="s">
         <v>586</v>
@@ -12828,7 +12816,7 @@
         <v>555</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>586</v>
+        <v>34</v>
       </c>
       <c r="J286" s="5" t="s">
         <v>586</v>
@@ -12852,7 +12840,7 @@
         <v>556</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>587</v>
+        <v>34</v>
       </c>
       <c r="G287" s="5" t="s">
         <v>587</v>
@@ -12861,7 +12849,7 @@
         <v>556</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>587</v>
+        <v>34</v>
       </c>
       <c r="J287" s="5" t="s">
         <v>587</v>
@@ -12885,7 +12873,7 @@
         <v>557</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>606</v>
+        <v>34</v>
       </c>
       <c r="G288" s="5" t="s">
         <v>588</v>
@@ -12894,7 +12882,7 @@
         <v>557</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>606</v>
+        <v>34</v>
       </c>
       <c r="J288" s="5" t="s">
         <v>606</v>
@@ -12918,7 +12906,7 @@
         <v>558</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>607</v>
+        <v>34</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>589</v>
@@ -12927,7 +12915,7 @@
         <v>558</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>607</v>
+        <v>34</v>
       </c>
       <c r="J289" s="5" t="s">
         <v>607</v>
@@ -12948,22 +12936,22 @@
         <v>418</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>563</v>
+        <v>34</v>
       </c>
       <c r="G290" s="5" t="s">
         <v>590</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>563</v>
+        <v>34</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K290" s="6"/>
     </row>
@@ -12981,22 +12969,22 @@
         <v>419</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>608</v>
+        <v>34</v>
       </c>
       <c r="G291" s="5" t="s">
         <v>591</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>608</v>
+        <v>34</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K291" s="6"/>
     </row>
@@ -13014,22 +13002,22 @@
         <v>420</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>576</v>
+        <v>34</v>
       </c>
       <c r="G292" s="5" t="s">
         <v>576</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>576</v>
+        <v>34</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K292" s="6"/>
     </row>
@@ -13047,22 +13035,22 @@
         <v>421</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>592</v>
+        <v>34</v>
       </c>
       <c r="G293" s="5" t="s">
         <v>592</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>592</v>
+        <v>34</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K293" s="6"/>
     </row>
@@ -13083,16 +13071,16 @@
         <v>559</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>544</v>
+        <v>34</v>
       </c>
       <c r="G294" s="5" t="s">
         <v>593</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>544</v>
+        <v>34</v>
       </c>
       <c r="J294" s="5" t="s">
         <v>544</v>
@@ -13116,19 +13104,19 @@
         <v>560</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>609</v>
+        <v>34</v>
       </c>
       <c r="G295" s="5" t="s">
         <v>594</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>609</v>
+        <v>34</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K295" s="6"/>
     </row>
@@ -13149,19 +13137,19 @@
         <v>561</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>610</v>
+        <v>34</v>
       </c>
       <c r="G296" s="5" t="s">
         <v>595</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>610</v>
+        <v>34</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K296" s="6"/>
     </row>
@@ -13182,7 +13170,7 @@
         <v>562</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>747</v>
+        <v>34</v>
       </c>
       <c r="G297" s="5" t="s">
         <v>596</v>
@@ -13191,10 +13179,10 @@
         <v>562</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>611</v>
+        <v>34</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K297" s="6"/>
     </row>
@@ -13212,22 +13200,22 @@
         <v>426</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>748</v>
+        <v>34</v>
       </c>
       <c r="G298" s="5" t="s">
         <v>597</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>612</v>
+        <v>34</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K298" s="6"/>
     </row>
@@ -13248,19 +13236,19 @@
         <v>563</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>749</v>
+        <v>34</v>
       </c>
       <c r="G299" s="5" t="s">
         <v>598</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>613</v>
+        <v>34</v>
       </c>
       <c r="J299" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K299" s="6"/>
     </row>
@@ -13281,16 +13269,16 @@
         <v>564</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>550</v>
+        <v>34</v>
       </c>
       <c r="G300" s="5" t="s">
         <v>599</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>550</v>
+        <v>34</v>
       </c>
       <c r="J300" s="5" t="s">
         <v>550</v>
@@ -13314,16 +13302,16 @@
         <v>565</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>546</v>
+        <v>34</v>
       </c>
       <c r="G301" s="5" t="s">
         <v>600</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>546</v>
+        <v>34</v>
       </c>
       <c r="J301" s="5" t="s">
         <v>546</v>
@@ -13611,7 +13599,7 @@
         <v>438</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>438</v>
+        <v>34</v>
       </c>
       <c r="G310" s="5" t="s">
         <v>34</v>
@@ -13620,7 +13608,7 @@
         <v>438</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>438</v>
+        <v>34</v>
       </c>
       <c r="J310" s="5" t="s">
         <v>438</v>
@@ -13644,7 +13632,7 @@
         <v>439</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>439</v>
+        <v>34</v>
       </c>
       <c r="G311" s="5" t="s">
         <v>34</v>
@@ -13653,7 +13641,7 @@
         <v>439</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>439</v>
+        <v>34</v>
       </c>
       <c r="J311" s="5" t="s">
         <v>439</v>
@@ -13677,7 +13665,7 @@
         <v>440</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="G312" s="5" t="s">
         <v>34</v>
@@ -13686,7 +13674,7 @@
         <v>440</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="J312" s="5" t="s">
         <v>440</v>
@@ -13710,7 +13698,7 @@
         <v>441</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>441</v>
+        <v>34</v>
       </c>
       <c r="G313" s="5" t="s">
         <v>34</v>
@@ -13719,7 +13707,7 @@
         <v>441</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>441</v>
+        <v>34</v>
       </c>
       <c r="J313" s="5" t="s">
         <v>441</v>
@@ -13743,7 +13731,7 @@
         <v>442</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>442</v>
+        <v>34</v>
       </c>
       <c r="G314" s="5" t="s">
         <v>34</v>
@@ -13752,7 +13740,7 @@
         <v>442</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>442</v>
+        <v>34</v>
       </c>
       <c r="J314" s="5" t="s">
         <v>442</v>
@@ -13776,7 +13764,7 @@
         <v>443</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>443</v>
+        <v>34</v>
       </c>
       <c r="G315" s="5" t="s">
         <v>34</v>
@@ -13785,7 +13773,7 @@
         <v>443</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>443</v>
+        <v>34</v>
       </c>
       <c r="J315" s="5" t="s">
         <v>443</v>
@@ -13809,7 +13797,7 @@
         <v>444</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>444</v>
+        <v>34</v>
       </c>
       <c r="G316" s="5" t="s">
         <v>34</v>
@@ -13818,7 +13806,7 @@
         <v>444</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>444</v>
+        <v>34</v>
       </c>
       <c r="J316" s="5" t="s">
         <v>444</v>
@@ -13842,7 +13830,7 @@
         <v>445</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>445</v>
+        <v>34</v>
       </c>
       <c r="G317" s="5" t="s">
         <v>34</v>
@@ -13851,7 +13839,7 @@
         <v>445</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>445</v>
+        <v>34</v>
       </c>
       <c r="J317" s="5" t="s">
         <v>445</v>
@@ -13875,7 +13863,7 @@
         <v>446</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>446</v>
+        <v>34</v>
       </c>
       <c r="G318" s="5" t="s">
         <v>34</v>
@@ -13884,7 +13872,7 @@
         <v>34</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>446</v>
+        <v>34</v>
       </c>
       <c r="J318" s="5" t="s">
         <v>446</v>
@@ -13908,7 +13896,7 @@
         <v>447</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>34</v>
@@ -13917,7 +13905,7 @@
         <v>34</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>447</v>
+        <v>34</v>
       </c>
       <c r="J319" s="5" t="s">
         <v>447</v>
@@ -13941,7 +13929,7 @@
         <v>448</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>448</v>
+        <v>34</v>
       </c>
       <c r="G320" s="5" t="s">
         <v>34</v>
@@ -13950,7 +13938,7 @@
         <v>34</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>448</v>
+        <v>34</v>
       </c>
       <c r="J320" s="5" t="s">
         <v>448</v>
@@ -13974,7 +13962,7 @@
         <v>449</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>449</v>
+        <v>34</v>
       </c>
       <c r="G321" s="5" t="s">
         <v>34</v>
@@ -13983,7 +13971,7 @@
         <v>34</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>449</v>
+        <v>34</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>449</v>
@@ -14007,7 +13995,7 @@
         <v>450</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="G322" s="5" t="s">
         <v>34</v>
@@ -14016,7 +14004,7 @@
         <v>34</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>450</v>
@@ -14040,7 +14028,7 @@
         <v>451</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>451</v>
+        <v>34</v>
       </c>
       <c r="G323" s="5" t="s">
         <v>34</v>
@@ -14049,7 +14037,7 @@
         <v>34</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>451</v>
+        <v>34</v>
       </c>
       <c r="J323" s="5" t="s">
         <v>451</v>
@@ -14073,7 +14061,7 @@
         <v>452</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="G324" s="5" t="s">
         <v>34</v>
@@ -14082,7 +14070,7 @@
         <v>34</v>
       </c>
       <c r="I324" s="5" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="J324" s="5" t="s">
         <v>452</v>
@@ -14106,7 +14094,7 @@
         <v>453</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>453</v>
+        <v>34</v>
       </c>
       <c r="G325" s="5" t="s">
         <v>34</v>
@@ -14115,7 +14103,7 @@
         <v>34</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>453</v>
+        <v>34</v>
       </c>
       <c r="J325" s="5" t="s">
         <v>453</v>
@@ -14139,7 +14127,7 @@
         <v>454</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>454</v>
+        <v>34</v>
       </c>
       <c r="G326" s="5" t="s">
         <v>34</v>
@@ -14148,7 +14136,7 @@
         <v>34</v>
       </c>
       <c r="I326" s="5" t="s">
-        <v>454</v>
+        <v>34</v>
       </c>
       <c r="J326" s="5" t="s">
         <v>454</v>
@@ -14172,7 +14160,7 @@
         <v>455</v>
       </c>
       <c r="F327" s="5" t="s">
-        <v>455</v>
+        <v>34</v>
       </c>
       <c r="G327" s="5" t="s">
         <v>34</v>
@@ -14181,7 +14169,7 @@
         <v>34</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>455</v>
+        <v>34</v>
       </c>
       <c r="J327" s="5" t="s">
         <v>455</v>
@@ -14205,7 +14193,7 @@
         <v>456</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>456</v>
+        <v>34</v>
       </c>
       <c r="G328" s="5" t="s">
         <v>34</v>
@@ -14214,7 +14202,7 @@
         <v>34</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>456</v>
+        <v>34</v>
       </c>
       <c r="J328" s="5" t="s">
         <v>456</v>
@@ -14238,7 +14226,7 @@
         <v>457</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>457</v>
+        <v>34</v>
       </c>
       <c r="G329" s="5" t="s">
         <v>34</v>
@@ -14247,7 +14235,7 @@
         <v>34</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>457</v>
+        <v>34</v>
       </c>
       <c r="J329" s="5" t="s">
         <v>457</v>
@@ -14271,7 +14259,7 @@
         <v>458</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>458</v>
+        <v>34</v>
       </c>
       <c r="G330" s="5" t="s">
         <v>34</v>
@@ -14280,7 +14268,7 @@
         <v>34</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>458</v>
+        <v>34</v>
       </c>
       <c r="J330" s="5" t="s">
         <v>458</v>
@@ -14304,7 +14292,7 @@
         <v>459</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>459</v>
+        <v>34</v>
       </c>
       <c r="G331" s="5" t="s">
         <v>34</v>
@@ -14313,7 +14301,7 @@
         <v>34</v>
       </c>
       <c r="I331" s="5" t="s">
-        <v>459</v>
+        <v>34</v>
       </c>
       <c r="J331" s="5" t="s">
         <v>459</v>
@@ -14337,7 +14325,7 @@
         <v>460</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="G332" s="5" t="s">
         <v>34</v>
@@ -14346,7 +14334,7 @@
         <v>34</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>460</v>
+        <v>34</v>
       </c>
       <c r="J332" s="5" t="s">
         <v>460</v>
@@ -14370,7 +14358,7 @@
         <v>461</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>461</v>
+        <v>34</v>
       </c>
       <c r="G333" s="5" t="s">
         <v>34</v>
@@ -14379,7 +14367,7 @@
         <v>34</v>
       </c>
       <c r="I333" s="5" t="s">
-        <v>461</v>
+        <v>34</v>
       </c>
       <c r="J333" s="5" t="s">
         <v>461</v>
@@ -14403,7 +14391,7 @@
         <v>462</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>462</v>
+        <v>34</v>
       </c>
       <c r="G334" s="5" t="s">
         <v>34</v>
@@ -14412,7 +14400,7 @@
         <v>34</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>462</v>
+        <v>34</v>
       </c>
       <c r="J334" s="5" t="s">
         <v>462</v>
@@ -14436,7 +14424,7 @@
         <v>463</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>463</v>
+        <v>34</v>
       </c>
       <c r="G335" s="5" t="s">
         <v>34</v>
@@ -14445,7 +14433,7 @@
         <v>34</v>
       </c>
       <c r="I335" s="5" t="s">
-        <v>463</v>
+        <v>34</v>
       </c>
       <c r="J335" s="5" t="s">
         <v>463</v>
@@ -14469,7 +14457,7 @@
         <v>464</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>464</v>
+        <v>34</v>
       </c>
       <c r="G336" s="5" t="s">
         <v>34</v>
@@ -14478,7 +14466,7 @@
         <v>34</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>464</v>
+        <v>34</v>
       </c>
       <c r="J336" s="5" t="s">
         <v>464</v>
@@ -14502,7 +14490,7 @@
         <v>465</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>465</v>
+        <v>34</v>
       </c>
       <c r="G337" s="5" t="s">
         <v>34</v>
@@ -14511,7 +14499,7 @@
         <v>34</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>465</v>
+        <v>34</v>
       </c>
       <c r="J337" s="5" t="s">
         <v>465</v>
@@ -14535,7 +14523,7 @@
         <v>466</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>466</v>
+        <v>34</v>
       </c>
       <c r="G338" s="5" t="s">
         <v>34</v>
@@ -14544,7 +14532,7 @@
         <v>34</v>
       </c>
       <c r="I338" s="5" t="s">
-        <v>466</v>
+        <v>34</v>
       </c>
       <c r="J338" s="5" t="s">
         <v>466</v>
@@ -14568,7 +14556,7 @@
         <v>467</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>467</v>
+        <v>34</v>
       </c>
       <c r="G339" s="5" t="s">
         <v>34</v>
@@ -14577,7 +14565,7 @@
         <v>34</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>467</v>
+        <v>34</v>
       </c>
       <c r="J339" s="5" t="s">
         <v>467</v>
@@ -14601,7 +14589,7 @@
         <v>468</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="G340" s="5" t="s">
         <v>34</v>
@@ -14610,7 +14598,7 @@
         <v>34</v>
       </c>
       <c r="I340" s="5" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="J340" s="5" t="s">
         <v>468</v>
@@ -14634,7 +14622,7 @@
         <v>469</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>469</v>
+        <v>34</v>
       </c>
       <c r="G341" s="5" t="s">
         <v>34</v>
@@ -14643,7 +14631,7 @@
         <v>34</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>469</v>
+        <v>34</v>
       </c>
       <c r="J341" s="5" t="s">
         <v>469</v>
@@ -14667,7 +14655,7 @@
         <v>470</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>470</v>
+        <v>34</v>
       </c>
       <c r="G342" s="5" t="s">
         <v>34</v>
@@ -14676,7 +14664,7 @@
         <v>470</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>470</v>
+        <v>34</v>
       </c>
       <c r="J342" s="5" t="s">
         <v>470</v>
@@ -14700,7 +14688,7 @@
         <v>471</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="G343" s="5" t="s">
         <v>34</v>
@@ -14709,7 +14697,7 @@
         <v>471</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="J343" s="5" t="s">
         <v>471</v>
@@ -14733,7 +14721,7 @@
         <v>472</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>472</v>
+        <v>34</v>
       </c>
       <c r="G344" s="5" t="s">
         <v>34</v>
@@ -14742,7 +14730,7 @@
         <v>472</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>472</v>
+        <v>34</v>
       </c>
       <c r="J344" s="5" t="s">
         <v>472</v>
@@ -14766,7 +14754,7 @@
         <v>473</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>473</v>
+        <v>34</v>
       </c>
       <c r="G345" s="5" t="s">
         <v>34</v>
@@ -14775,7 +14763,7 @@
         <v>473</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>473</v>
+        <v>34</v>
       </c>
       <c r="J345" s="5" t="s">
         <v>473</v>
@@ -14799,7 +14787,7 @@
         <v>474</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>474</v>
+        <v>34</v>
       </c>
       <c r="G346" s="5" t="s">
         <v>34</v>
@@ -14808,7 +14796,7 @@
         <v>474</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>474</v>
+        <v>34</v>
       </c>
       <c r="J346" s="5" t="s">
         <v>474</v>
@@ -14832,7 +14820,7 @@
         <v>475</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>475</v>
+        <v>34</v>
       </c>
       <c r="G347" s="5" t="s">
         <v>34</v>
@@ -14841,7 +14829,7 @@
         <v>475</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>475</v>
+        <v>34</v>
       </c>
       <c r="J347" s="5" t="s">
         <v>475</v>
@@ -14865,7 +14853,7 @@
         <v>476</v>
       </c>
       <c r="F348" s="5" t="s">
-        <v>476</v>
+        <v>34</v>
       </c>
       <c r="G348" s="5" t="s">
         <v>34</v>
@@ -14874,7 +14862,7 @@
         <v>476</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>476</v>
+        <v>34</v>
       </c>
       <c r="J348" s="5" t="s">
         <v>476</v>
@@ -14898,7 +14886,7 @@
         <v>477</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>477</v>
+        <v>34</v>
       </c>
       <c r="G349" s="5" t="s">
         <v>34</v>
@@ -14907,7 +14895,7 @@
         <v>477</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>477</v>
+        <v>34</v>
       </c>
       <c r="J349" s="5" t="s">
         <v>477</v>
@@ -14931,7 +14919,7 @@
         <v>478</v>
       </c>
       <c r="F350" s="5" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="G350" s="5" t="s">
         <v>34</v>
@@ -14940,7 +14928,7 @@
         <v>34</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="J350" s="5" t="s">
         <v>478</v>
@@ -14964,7 +14952,7 @@
         <v>479</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>479</v>
+        <v>34</v>
       </c>
       <c r="G351" s="5" t="s">
         <v>34</v>
@@ -14973,7 +14961,7 @@
         <v>34</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>479</v>
+        <v>34</v>
       </c>
       <c r="J351" s="5" t="s">
         <v>479</v>
@@ -14997,7 +14985,7 @@
         <v>480</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="G352" s="5" t="s">
         <v>34</v>
@@ -15006,7 +14994,7 @@
         <v>34</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="J352" s="5" t="s">
         <v>480</v>
@@ -15030,7 +15018,7 @@
         <v>481</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>481</v>
+        <v>34</v>
       </c>
       <c r="G353" s="5" t="s">
         <v>34</v>
@@ -15039,7 +15027,7 @@
         <v>34</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>481</v>
+        <v>34</v>
       </c>
       <c r="J353" s="5" t="s">
         <v>481</v>
@@ -15063,7 +15051,7 @@
         <v>482</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>482</v>
+        <v>34</v>
       </c>
       <c r="G354" s="5" t="s">
         <v>34</v>
@@ -15072,7 +15060,7 @@
         <v>34</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>482</v>
+        <v>34</v>
       </c>
       <c r="J354" s="5" t="s">
         <v>482</v>
@@ -15096,7 +15084,7 @@
         <v>483</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>483</v>
+        <v>34</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>34</v>
@@ -15105,7 +15093,7 @@
         <v>34</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>483</v>
+        <v>34</v>
       </c>
       <c r="J355" s="5" t="s">
         <v>483</v>
@@ -15129,7 +15117,7 @@
         <v>484</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>484</v>
+        <v>34</v>
       </c>
       <c r="G356" s="5" t="s">
         <v>34</v>
@@ -15138,7 +15126,7 @@
         <v>34</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>484</v>
+        <v>34</v>
       </c>
       <c r="J356" s="5" t="s">
         <v>484</v>
@@ -15162,7 +15150,7 @@
         <v>485</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>485</v>
+        <v>34</v>
       </c>
       <c r="G357" s="5" t="s">
         <v>34</v>
@@ -15171,7 +15159,7 @@
         <v>34</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>485</v>
+        <v>34</v>
       </c>
       <c r="J357" s="5" t="s">
         <v>485</v>
@@ -15195,7 +15183,7 @@
         <v>486</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>486</v>
+        <v>34</v>
       </c>
       <c r="G358" s="5" t="s">
         <v>34</v>
@@ -15204,7 +15192,7 @@
         <v>34</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>486</v>
+        <v>34</v>
       </c>
       <c r="J358" s="5" t="s">
         <v>486</v>
@@ -15228,7 +15216,7 @@
         <v>487</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>487</v>
+        <v>34</v>
       </c>
       <c r="G359" s="5" t="s">
         <v>34</v>
@@ -15237,7 +15225,7 @@
         <v>34</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>487</v>
+        <v>34</v>
       </c>
       <c r="J359" s="5" t="s">
         <v>487</v>
@@ -15261,7 +15249,7 @@
         <v>488</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>488</v>
+        <v>34</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>34</v>
@@ -15270,7 +15258,7 @@
         <v>34</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>488</v>
+        <v>34</v>
       </c>
       <c r="J360" s="5" t="s">
         <v>488</v>
@@ -15294,7 +15282,7 @@
         <v>489</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>489</v>
+        <v>34</v>
       </c>
       <c r="G361" s="5" t="s">
         <v>34</v>
@@ -15303,7 +15291,7 @@
         <v>34</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>489</v>
+        <v>34</v>
       </c>
       <c r="J361" s="5" t="s">
         <v>489</v>
@@ -15327,7 +15315,7 @@
         <v>490</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>34</v>
@@ -15336,7 +15324,7 @@
         <v>34</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>490</v>
+        <v>34</v>
       </c>
       <c r="J362" s="5" t="s">
         <v>490</v>
@@ -15360,7 +15348,7 @@
         <v>491</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>491</v>
+        <v>34</v>
       </c>
       <c r="G363" s="5" t="s">
         <v>34</v>
@@ -15369,7 +15357,7 @@
         <v>34</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>491</v>
+        <v>34</v>
       </c>
       <c r="J363" s="5" t="s">
         <v>491</v>
@@ -15393,7 +15381,7 @@
         <v>492</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>492</v>
+        <v>34</v>
       </c>
       <c r="G364" s="5" t="s">
         <v>34</v>
@@ -15402,7 +15390,7 @@
         <v>34</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>492</v>
+        <v>34</v>
       </c>
       <c r="J364" s="5" t="s">
         <v>492</v>
@@ -15426,7 +15414,7 @@
         <v>493</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>493</v>
+        <v>34</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>34</v>
@@ -15435,7 +15423,7 @@
         <v>34</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>493</v>
+        <v>34</v>
       </c>
       <c r="J365" s="5" t="s">
         <v>493</v>
@@ -15459,7 +15447,7 @@
         <v>494</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>494</v>
+        <v>34</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>34</v>
@@ -15468,7 +15456,7 @@
         <v>34</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>494</v>
+        <v>34</v>
       </c>
       <c r="J366" s="5" t="s">
         <v>494</v>
@@ -15492,7 +15480,7 @@
         <v>495</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>495</v>
+        <v>34</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>34</v>
@@ -15501,7 +15489,7 @@
         <v>34</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>495</v>
+        <v>34</v>
       </c>
       <c r="J367" s="5" t="s">
         <v>495</v>
@@ -15525,7 +15513,7 @@
         <v>496</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>496</v>
+        <v>34</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>34</v>
@@ -15534,7 +15522,7 @@
         <v>34</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>496</v>
+        <v>34</v>
       </c>
       <c r="J368" s="5" t="s">
         <v>496</v>
@@ -15558,7 +15546,7 @@
         <v>497</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>497</v>
+        <v>34</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>34</v>
@@ -15567,7 +15555,7 @@
         <v>34</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>497</v>
+        <v>34</v>
       </c>
       <c r="J369" s="5" t="s">
         <v>497</v>
@@ -15591,7 +15579,7 @@
         <v>498</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>498</v>
+        <v>34</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>34</v>
@@ -15600,7 +15588,7 @@
         <v>34</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>498</v>
+        <v>34</v>
       </c>
       <c r="J370" s="5" t="s">
         <v>498</v>
@@ -15624,7 +15612,7 @@
         <v>499</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>499</v>
+        <v>34</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>34</v>
@@ -15633,7 +15621,7 @@
         <v>34</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>499</v>
+        <v>34</v>
       </c>
       <c r="J371" s="5" t="s">
         <v>499</v>
@@ -15657,7 +15645,7 @@
         <v>500</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>34</v>
@@ -15666,7 +15654,7 @@
         <v>34</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="J372" s="5" t="s">
         <v>500</v>
@@ -15690,7 +15678,7 @@
         <v>501</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>501</v>
+        <v>34</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>34</v>
@@ -15699,7 +15687,7 @@
         <v>34</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>501</v>
+        <v>34</v>
       </c>
       <c r="J373" s="5" t="s">
         <v>501</v>
@@ -15723,7 +15711,7 @@
         <v>502</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>502</v>
+        <v>34</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>34</v>
@@ -15732,7 +15720,7 @@
         <v>502</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>502</v>
+        <v>34</v>
       </c>
       <c r="J374" s="5" t="s">
         <v>502</v>
@@ -15756,7 +15744,7 @@
         <v>503</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>503</v>
+        <v>34</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>34</v>
@@ -15765,7 +15753,7 @@
         <v>503</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>503</v>
+        <v>34</v>
       </c>
       <c r="J375" s="5" t="s">
         <v>503</v>
@@ -15789,7 +15777,7 @@
         <v>504</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>504</v>
+        <v>34</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>34</v>
@@ -15798,7 +15786,7 @@
         <v>504</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>504</v>
+        <v>34</v>
       </c>
       <c r="J376" s="5" t="s">
         <v>504</v>
@@ -15822,7 +15810,7 @@
         <v>505</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>505</v>
+        <v>34</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>34</v>
@@ -15831,7 +15819,7 @@
         <v>505</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>505</v>
+        <v>34</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>505</v>
@@ -15855,7 +15843,7 @@
         <v>506</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>506</v>
+        <v>34</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>34</v>
@@ -15864,7 +15852,7 @@
         <v>506</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>506</v>
+        <v>34</v>
       </c>
       <c r="J378" s="5" t="s">
         <v>506</v>
@@ -15888,7 +15876,7 @@
         <v>507</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>507</v>
+        <v>34</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>34</v>
@@ -15897,7 +15885,7 @@
         <v>507</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>507</v>
+        <v>34</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>507</v>
@@ -15921,7 +15909,7 @@
         <v>508</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>508</v>
+        <v>34</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>34</v>
@@ -15930,7 +15918,7 @@
         <v>508</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>508</v>
+        <v>34</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>508</v>
@@ -15954,7 +15942,7 @@
         <v>509</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>509</v>
+        <v>34</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>34</v>
@@ -15963,7 +15951,7 @@
         <v>509</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>509</v>
+        <v>34</v>
       </c>
       <c r="J381" s="5" t="s">
         <v>509</v>
@@ -15987,7 +15975,7 @@
         <v>510</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>510</v>
+        <v>34</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>34</v>
@@ -15996,7 +15984,7 @@
         <v>34</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>510</v>
+        <v>34</v>
       </c>
       <c r="J382" s="5" t="s">
         <v>510</v>
@@ -16020,7 +16008,7 @@
         <v>511</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>511</v>
+        <v>34</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>34</v>
@@ -16029,7 +16017,7 @@
         <v>34</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>511</v>
+        <v>34</v>
       </c>
       <c r="J383" s="5" t="s">
         <v>511</v>
@@ -16053,7 +16041,7 @@
         <v>512</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>512</v>
+        <v>34</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>34</v>
@@ -16062,7 +16050,7 @@
         <v>34</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>512</v>
+        <v>34</v>
       </c>
       <c r="J384" s="5" t="s">
         <v>512</v>
@@ -16086,7 +16074,7 @@
         <v>513</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>513</v>
+        <v>34</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>34</v>
@@ -16095,7 +16083,7 @@
         <v>34</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>513</v>
+        <v>34</v>
       </c>
       <c r="J385" s="5" t="s">
         <v>513</v>
@@ -16119,7 +16107,7 @@
         <v>514</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>514</v>
+        <v>34</v>
       </c>
       <c r="G386" s="5" t="s">
         <v>34</v>
@@ -16128,7 +16116,7 @@
         <v>34</v>
       </c>
       <c r="I386" s="5" t="s">
-        <v>514</v>
+        <v>34</v>
       </c>
       <c r="J386" s="5" t="s">
         <v>514</v>
@@ -16152,7 +16140,7 @@
         <v>515</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>515</v>
+        <v>34</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>34</v>
@@ -16161,7 +16149,7 @@
         <v>34</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>515</v>
+        <v>34</v>
       </c>
       <c r="J387" s="5" t="s">
         <v>515</v>
@@ -16185,7 +16173,7 @@
         <v>516</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>516</v>
+        <v>34</v>
       </c>
       <c r="G388" s="5" t="s">
         <v>34</v>
@@ -16194,7 +16182,7 @@
         <v>34</v>
       </c>
       <c r="I388" s="5" t="s">
-        <v>516</v>
+        <v>34</v>
       </c>
       <c r="J388" s="5" t="s">
         <v>516</v>
@@ -16218,7 +16206,7 @@
         <v>517</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>517</v>
+        <v>34</v>
       </c>
       <c r="G389" s="5" t="s">
         <v>34</v>
@@ -16227,7 +16215,7 @@
         <v>34</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>517</v>
+        <v>34</v>
       </c>
       <c r="J389" s="5" t="s">
         <v>517</v>
@@ -16251,7 +16239,7 @@
         <v>518</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>518</v>
+        <v>34</v>
       </c>
       <c r="G390" s="5" t="s">
         <v>34</v>
@@ -16260,7 +16248,7 @@
         <v>34</v>
       </c>
       <c r="I390" s="5" t="s">
-        <v>518</v>
+        <v>34</v>
       </c>
       <c r="J390" s="5" t="s">
         <v>518</v>
@@ -16284,7 +16272,7 @@
         <v>519</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>519</v>
+        <v>34</v>
       </c>
       <c r="G391" s="5" t="s">
         <v>34</v>
@@ -16293,7 +16281,7 @@
         <v>34</v>
       </c>
       <c r="I391" s="5" t="s">
-        <v>519</v>
+        <v>34</v>
       </c>
       <c r="J391" s="5" t="s">
         <v>519</v>
@@ -16317,7 +16305,7 @@
         <v>520</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>520</v>
+        <v>34</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>34</v>
@@ -16326,7 +16314,7 @@
         <v>34</v>
       </c>
       <c r="I392" s="5" t="s">
-        <v>520</v>
+        <v>34</v>
       </c>
       <c r="J392" s="5" t="s">
         <v>520</v>
@@ -16350,7 +16338,7 @@
         <v>521</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>521</v>
+        <v>34</v>
       </c>
       <c r="G393" s="5" t="s">
         <v>34</v>
@@ -16359,7 +16347,7 @@
         <v>34</v>
       </c>
       <c r="I393" s="5" t="s">
-        <v>521</v>
+        <v>34</v>
       </c>
       <c r="J393" s="5" t="s">
         <v>521</v>
@@ -16383,7 +16371,7 @@
         <v>522</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>522</v>
+        <v>34</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>34</v>
@@ -16392,7 +16380,7 @@
         <v>34</v>
       </c>
       <c r="I394" s="5" t="s">
-        <v>522</v>
+        <v>34</v>
       </c>
       <c r="J394" s="5" t="s">
         <v>522</v>
@@ -16416,7 +16404,7 @@
         <v>523</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>523</v>
+        <v>34</v>
       </c>
       <c r="G395" s="5" t="s">
         <v>34</v>
@@ -16425,7 +16413,7 @@
         <v>34</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>523</v>
+        <v>34</v>
       </c>
       <c r="J395" s="5" t="s">
         <v>523</v>
@@ -16449,7 +16437,7 @@
         <v>524</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>524</v>
+        <v>34</v>
       </c>
       <c r="G396" s="5" t="s">
         <v>34</v>
@@ -16458,7 +16446,7 @@
         <v>34</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>524</v>
+        <v>34</v>
       </c>
       <c r="J396" s="5" t="s">
         <v>524</v>
@@ -16482,7 +16470,7 @@
         <v>525</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>525</v>
+        <v>34</v>
       </c>
       <c r="G397" s="5" t="s">
         <v>34</v>
@@ -16491,7 +16479,7 @@
         <v>34</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>525</v>
+        <v>34</v>
       </c>
       <c r="J397" s="5" t="s">
         <v>525</v>
@@ -16515,7 +16503,7 @@
         <v>526</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>526</v>
+        <v>34</v>
       </c>
       <c r="G398" s="5" t="s">
         <v>34</v>
@@ -16524,7 +16512,7 @@
         <v>34</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>526</v>
+        <v>34</v>
       </c>
       <c r="J398" s="5" t="s">
         <v>526</v>
@@ -16548,7 +16536,7 @@
         <v>527</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>527</v>
+        <v>34</v>
       </c>
       <c r="G399" s="5" t="s">
         <v>34</v>
@@ -16557,7 +16545,7 @@
         <v>34</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>527</v>
+        <v>34</v>
       </c>
       <c r="J399" s="5" t="s">
         <v>527</v>
@@ -16581,7 +16569,7 @@
         <v>528</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>528</v>
+        <v>34</v>
       </c>
       <c r="G400" s="5" t="s">
         <v>34</v>
@@ -16590,7 +16578,7 @@
         <v>34</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>528</v>
+        <v>34</v>
       </c>
       <c r="J400" s="5" t="s">
         <v>528</v>
@@ -16614,7 +16602,7 @@
         <v>529</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>529</v>
+        <v>34</v>
       </c>
       <c r="G401" s="5" t="s">
         <v>34</v>
@@ -16623,7 +16611,7 @@
         <v>34</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>529</v>
+        <v>34</v>
       </c>
       <c r="J401" s="5" t="s">
         <v>529</v>
@@ -16647,7 +16635,7 @@
         <v>530</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>530</v>
+        <v>34</v>
       </c>
       <c r="G402" s="5" t="s">
         <v>34</v>
@@ -16656,7 +16644,7 @@
         <v>34</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>530</v>
+        <v>34</v>
       </c>
       <c r="J402" s="5" t="s">
         <v>530</v>
@@ -16680,7 +16668,7 @@
         <v>531</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>531</v>
+        <v>34</v>
       </c>
       <c r="G403" s="5" t="s">
         <v>34</v>
@@ -16689,7 +16677,7 @@
         <v>34</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>531</v>
+        <v>34</v>
       </c>
       <c r="J403" s="5" t="s">
         <v>531</v>
@@ -16713,7 +16701,7 @@
         <v>532</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>532</v>
+        <v>34</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>34</v>
@@ -16722,7 +16710,7 @@
         <v>34</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>532</v>
+        <v>34</v>
       </c>
       <c r="J404" s="5" t="s">
         <v>532</v>
@@ -16746,7 +16734,7 @@
         <v>533</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>533</v>
+        <v>34</v>
       </c>
       <c r="G405" s="5" t="s">
         <v>34</v>
@@ -16755,7 +16743,7 @@
         <v>34</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>533</v>
+        <v>34</v>
       </c>
       <c r="J405" s="5" t="s">
         <v>533</v>
@@ -16769,7 +16757,7 @@
       </c>
       <c r="C406" s="4"/>
       <c r="D406" s="23" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>34</v>
@@ -16778,13 +16766,13 @@
         <v>34</v>
       </c>
       <c r="G406" s="19" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H406" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="I406" s="19" t="s">
-        <v>753</v>
+        <v>749</v>
+      </c>
+      <c r="I406" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="J406" s="5" t="s">
         <v>34</v>
@@ -16798,7 +16786,7 @@
       </c>
       <c r="C407" s="4"/>
       <c r="D407" s="23" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E407" s="5" t="s">
         <v>34</v>
@@ -16807,13 +16795,13 @@
         <v>34</v>
       </c>
       <c r="G407" s="19" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="H407" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="I407" s="19" t="s">
-        <v>752</v>
+        <v>748</v>
+      </c>
+      <c r="I407" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="J407" s="5" t="s">
         <v>34</v>
@@ -16827,7 +16815,7 @@
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="23" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>34</v>
@@ -16836,13 +16824,13 @@
         <v>34</v>
       </c>
       <c r="G408" s="19" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H408" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="I408" s="19" t="s">
-        <v>751</v>
+        <v>747</v>
+      </c>
+      <c r="I408" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="J408" s="5" t="s">
         <v>34</v>
@@ -16856,7 +16844,7 @@
       </c>
       <c r="C409" s="4"/>
       <c r="D409" s="23" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E409" s="5" t="s">
         <v>34</v>
@@ -16865,13 +16853,13 @@
         <v>34</v>
       </c>
       <c r="G409" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H409" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="I409" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
+      </c>
+      <c r="I409" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="J409" s="5" t="s">
         <v>34</v>
@@ -16885,7 +16873,7 @@
       </c>
       <c r="C410" s="4"/>
       <c r="D410" s="23" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>34</v>
@@ -16894,13 +16882,13 @@
         <v>34</v>
       </c>
       <c r="G410" s="19" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H410" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="I410" s="19" t="s">
-        <v>754</v>
+        <v>750</v>
+      </c>
+      <c r="I410" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="J410" s="5" t="s">
         <v>34</v>
@@ -16914,7 +16902,7 @@
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="23" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E411" s="5" t="s">
         <v>34</v>
@@ -16923,13 +16911,13 @@
         <v>34</v>
       </c>
       <c r="G411" s="19" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H411" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="I411" s="19" t="s">
-        <v>755</v>
+        <v>751</v>
+      </c>
+      <c r="I411" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="J411" s="5" t="s">
         <v>34</v>
@@ -16951,10 +16939,10 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G414" s="20" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I414" s="20" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
+++ b/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="824">
   <si>
     <t>№101</t>
   </si>
@@ -2490,6 +2490,9 @@
   </si>
   <si>
     <t>Контроль ключей приемника, т.е. наличия хотя бы одной включеной команды</t>
+  </si>
+  <si>
+    <t>Дверь открыта</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2622,7 +2625,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2634,10 +2636,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2645,6 +2643,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2949,18 +2948,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M414"/>
+  <dimension ref="A1:L414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="12" customWidth="1"/>
     <col min="2" max="3" width="15.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="28" customWidth="1"/>
     <col min="5" max="10" width="35.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="9"/>
@@ -2970,13 +2969,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3001,17 +3000,17 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3022,7 +3021,7 @@
       <c r="C3" s="2">
         <v>3000</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>770</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3056,7 +3055,7 @@
         <f>C3+1</f>
         <v>3001</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>771</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3092,7 +3091,7 @@
         <f t="shared" ref="C5:C35" si="0">C4+1</f>
         <v>3002</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>772</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3128,7 +3127,7 @@
         <f t="shared" si="0"/>
         <v>3003</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>773</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3164,7 +3163,7 @@
         <f t="shared" si="0"/>
         <v>3004</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>774</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -3200,7 +3199,7 @@
         <f t="shared" si="0"/>
         <v>3005</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>775</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -3236,7 +3235,7 @@
         <f t="shared" si="0"/>
         <v>3006</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>776</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3272,7 +3271,7 @@
         <f t="shared" si="0"/>
         <v>3007</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>777</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -3308,7 +3307,7 @@
         <f t="shared" si="0"/>
         <v>3008</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>778</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3344,7 +3343,7 @@
         <f t="shared" si="0"/>
         <v>3009</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>779</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3380,7 +3379,7 @@
         <f t="shared" si="0"/>
         <v>3010</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>780</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -3416,7 +3415,7 @@
         <f t="shared" si="0"/>
         <v>3011</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>781</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -3452,7 +3451,7 @@
         <f t="shared" si="0"/>
         <v>3012</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>782</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -3488,7 +3487,7 @@
         <f t="shared" si="0"/>
         <v>3013</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>783</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -3524,7 +3523,7 @@
         <f t="shared" si="0"/>
         <v>3014</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>784</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3560,7 +3559,7 @@
         <f t="shared" si="0"/>
         <v>3015</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>785</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -3596,7 +3595,7 @@
         <f t="shared" si="0"/>
         <v>3016</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>786</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -3632,7 +3631,7 @@
         <f t="shared" si="0"/>
         <v>3017</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>787</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3668,7 +3667,7 @@
         <f t="shared" si="0"/>
         <v>3018</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>788</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -3704,7 +3703,7 @@
         <f t="shared" si="0"/>
         <v>3019</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>789</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -3740,7 +3739,7 @@
         <f t="shared" si="0"/>
         <v>3020</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>790</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3776,7 +3775,7 @@
         <f t="shared" si="0"/>
         <v>3021</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>791</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -3812,7 +3811,7 @@
         <f t="shared" si="0"/>
         <v>3022</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>792</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3848,7 +3847,7 @@
         <f t="shared" si="0"/>
         <v>3023</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>793</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3884,7 +3883,7 @@
         <f t="shared" si="0"/>
         <v>3024</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>794</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3920,7 +3919,7 @@
         <f t="shared" si="0"/>
         <v>3025</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>795</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3956,7 +3955,7 @@
         <f t="shared" si="0"/>
         <v>3026</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>796</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3992,7 +3991,7 @@
         <f t="shared" si="0"/>
         <v>3027</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>797</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -4028,7 +4027,7 @@
         <f t="shared" si="0"/>
         <v>3028</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>798</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -4064,7 +4063,7 @@
         <f t="shared" si="0"/>
         <v>3029</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>799</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4087,7 +4086,7 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>1030</v>
@@ -4100,7 +4099,7 @@
         <f t="shared" si="0"/>
         <v>3030</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>800</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -4123,7 +4122,7 @@
       </c>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>1031</v>
@@ -4136,7 +4135,7 @@
         <f t="shared" si="0"/>
         <v>3031</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>801</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -4159,7 +4158,7 @@
       </c>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>1032</v>
@@ -4172,7 +4171,7 @@
         <f t="shared" si="0"/>
         <v>3032</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>802</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4195,7 +4194,7 @@
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -4206,7 +4205,7 @@
       <c r="C36" s="4">
         <v>3101</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>804</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -4232,7 +4231,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -4243,7 +4242,7 @@
       <c r="C37" s="4">
         <v>3102</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>810</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -4269,7 +4268,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="C38" s="4">
         <v>3103</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>811</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -4306,7 +4305,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -4317,7 +4316,7 @@
       <c r="C39" s="4">
         <v>3104</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>803</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -4343,7 +4342,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -4354,33 +4353,33 @@
       <c r="C40" s="4">
         <v>3105</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -4391,7 +4390,7 @@
       <c r="C41" s="4">
         <v>3106</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -4415,127 +4414,124 @@
         <v>822</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="4">
         <f t="shared" si="3"/>
         <v>2107</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="4">
         <v>3107</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="G42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" s="19" t="s">
+      <c r="G42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="5" t="s">
         <v>808</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="4">
         <f t="shared" si="3"/>
         <v>2108</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="4">
         <v>3108</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="G43" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="19" t="s">
+      <c r="G43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="5" t="s">
         <v>809</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="22" t="s">
+      <c r="L43" s="32" t="s">
         <v>819</v>
       </c>
-      <c r="M43" s="20"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="4">
         <f t="shared" si="3"/>
         <v>2109</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="4">
         <v>3109</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>34</v>
+      <c r="D44" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>823</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="22" t="s">
+      <c r="L44" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="M44" s="20"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -4544,7 +4540,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>A3+201</f>
         <v>201</v>
@@ -4557,7 +4553,7 @@
         <f>C3+201</f>
         <v>3201</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>212</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -4583,7 +4579,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" ref="A47:C49" si="4">A46+1</f>
         <v>202</v>
@@ -4596,7 +4592,7 @@
         <f t="shared" si="4"/>
         <v>3202</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>211</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -4622,7 +4618,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="4"/>
         <v>203</v>
@@ -4635,7 +4631,7 @@
         <f t="shared" si="4"/>
         <v>3203</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>213</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -4672,7 +4668,7 @@
         <f t="shared" si="4"/>
         <v>3204</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>214</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -4704,7 +4700,7 @@
       <c r="C50" s="4">
         <v>3205</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="22" t="s">
         <v>764</v>
       </c>
       <c r="E50" s="19"/>
@@ -4725,7 +4721,7 @@
       <c r="C51" s="4">
         <v>3206</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="22" t="s">
         <v>765</v>
       </c>
       <c r="E51" s="19"/>
@@ -4746,7 +4742,7 @@
       <c r="C52" s="4">
         <v>3207</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>766</v>
       </c>
       <c r="E52" s="19"/>
@@ -4765,7 +4761,7 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="26"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -4787,7 +4783,7 @@
         <f>C3+301</f>
         <v>3301</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>68</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -4821,7 +4817,7 @@
         <f>C54+1</f>
         <v>3302</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E55" s="5" t="s">
@@ -4855,7 +4851,7 @@
         <f t="shared" si="6"/>
         <v>3303</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="22" t="s">
         <v>70</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -4889,7 +4885,7 @@
         <f t="shared" si="6"/>
         <v>3304</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -4923,7 +4919,7 @@
         <f t="shared" si="6"/>
         <v>3305</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>72</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -4957,7 +4953,7 @@
         <f t="shared" si="6"/>
         <v>3306</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>73</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -4991,7 +4987,7 @@
         <f t="shared" si="6"/>
         <v>3307</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="22" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -5025,7 +5021,7 @@
         <f t="shared" si="6"/>
         <v>3308</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -5059,7 +5055,7 @@
         <f t="shared" si="6"/>
         <v>3309</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="22" t="s">
         <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -5093,7 +5089,7 @@
         <f t="shared" si="6"/>
         <v>3310</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -5127,7 +5123,7 @@
         <f t="shared" si="6"/>
         <v>3311</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="22" t="s">
         <v>79</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -5161,7 +5157,7 @@
         <f t="shared" si="6"/>
         <v>3312</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>78</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -5195,7 +5191,7 @@
         <f t="shared" si="6"/>
         <v>3313</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="22" t="s">
         <v>77</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -5229,7 +5225,7 @@
         <f t="shared" si="6"/>
         <v>3314</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E67" s="5" t="s">
@@ -5263,7 +5259,7 @@
         <f t="shared" si="6"/>
         <v>3315</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="22" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="5" t="s">
@@ -5297,7 +5293,7 @@
         <f t="shared" si="6"/>
         <v>3316</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -5331,7 +5327,7 @@
         <f t="shared" si="6"/>
         <v>3317</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="22" t="s">
         <v>85</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -5365,7 +5361,7 @@
         <f t="shared" si="6"/>
         <v>3318</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E71" s="5" t="s">
@@ -5399,7 +5395,7 @@
         <f t="shared" si="6"/>
         <v>3319</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="22" t="s">
         <v>87</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -5433,7 +5429,7 @@
         <f t="shared" si="6"/>
         <v>3320</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -5467,7 +5463,7 @@
         <f t="shared" si="6"/>
         <v>3321</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -5501,7 +5497,7 @@
         <f t="shared" si="6"/>
         <v>3322</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -5535,7 +5531,7 @@
         <f t="shared" si="6"/>
         <v>3323</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="22" t="s">
         <v>90</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -5569,7 +5565,7 @@
         <f t="shared" si="6"/>
         <v>3324</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="22" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -5603,7 +5599,7 @@
         <f t="shared" si="6"/>
         <v>3325</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="22" t="s">
         <v>92</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -5637,7 +5633,7 @@
         <f t="shared" si="6"/>
         <v>3326</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="22" t="s">
         <v>93</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -5671,7 +5667,7 @@
         <f t="shared" si="6"/>
         <v>3327</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="22" t="s">
         <v>94</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -5705,7 +5701,7 @@
         <f t="shared" si="6"/>
         <v>3328</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="22" t="s">
         <v>95</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -5739,7 +5735,7 @@
         <f t="shared" si="6"/>
         <v>3329</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="22" t="s">
         <v>96</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -5773,7 +5769,7 @@
         <f t="shared" si="6"/>
         <v>3330</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="22" t="s">
         <v>97</v>
       </c>
       <c r="E83" s="5" t="s">
@@ -5807,7 +5803,7 @@
         <f t="shared" si="6"/>
         <v>3331</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="22" t="s">
         <v>98</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -5841,7 +5837,7 @@
         <f t="shared" si="6"/>
         <v>3332</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E85" s="5" t="s">
@@ -5868,7 +5864,7 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>322</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -5904,7 +5900,7 @@
         <f>C3+400</f>
         <v>3400</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="5" t="s">
@@ -5938,7 +5934,7 @@
         <f>C87+1</f>
         <v>3401</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="22" t="s">
         <v>534</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -5972,7 +5968,7 @@
         <f t="shared" si="8"/>
         <v>3402</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="22" t="s">
         <v>535</v>
       </c>
       <c r="E89" s="5" t="s">
@@ -6006,7 +6002,7 @@
         <f t="shared" si="8"/>
         <v>3403</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -6040,7 +6036,7 @@
         <f t="shared" si="8"/>
         <v>3404</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="22" t="s">
         <v>101</v>
       </c>
       <c r="E91" s="5" t="s">
@@ -6074,7 +6070,7 @@
         <f t="shared" si="8"/>
         <v>3405</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="22" t="s">
         <v>102</v>
       </c>
       <c r="E92" s="5" t="s">
@@ -6108,7 +6104,7 @@
         <f t="shared" si="8"/>
         <v>3406</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="22" t="s">
         <v>103</v>
       </c>
       <c r="E93" s="5" t="s">
@@ -6142,7 +6138,7 @@
         <f t="shared" si="8"/>
         <v>3407</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D94" s="22" t="s">
         <v>104</v>
       </c>
       <c r="E94" s="5" t="s">
@@ -6176,7 +6172,7 @@
         <f t="shared" si="8"/>
         <v>3408</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="22" t="s">
         <v>105</v>
       </c>
       <c r="E95" s="5" t="s">
@@ -6210,7 +6206,7 @@
         <f t="shared" si="8"/>
         <v>3409</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="22" t="s">
         <v>536</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -6244,7 +6240,7 @@
         <f t="shared" si="8"/>
         <v>3410</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="22" t="s">
         <v>537</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -6278,7 +6274,7 @@
         <f t="shared" si="8"/>
         <v>3411</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="22" t="s">
         <v>538</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -6312,7 +6308,7 @@
         <f t="shared" si="8"/>
         <v>3412</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="22" t="s">
         <v>539</v>
       </c>
       <c r="E99" s="5" t="s">
@@ -6346,7 +6342,7 @@
         <f t="shared" si="8"/>
         <v>3413</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="22" t="s">
         <v>106</v>
       </c>
       <c r="E100" s="5" t="s">
@@ -6380,7 +6376,7 @@
         <f t="shared" si="8"/>
         <v>3414</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="D101" s="22" t="s">
         <v>107</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -6414,7 +6410,7 @@
         <f t="shared" si="8"/>
         <v>3415</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="D102" s="22" t="s">
         <v>108</v>
       </c>
       <c r="E102" s="5" t="s">
@@ -6448,7 +6444,7 @@
         <f t="shared" si="8"/>
         <v>3416</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="22" t="s">
         <v>109</v>
       </c>
       <c r="E103" s="5" t="s">
@@ -6482,7 +6478,7 @@
         <f t="shared" si="8"/>
         <v>3417</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" s="22" t="s">
         <v>540</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -6516,7 +6512,7 @@
         <f t="shared" si="8"/>
         <v>3418</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="22" t="s">
         <v>541</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -6550,7 +6546,7 @@
         <f t="shared" si="8"/>
         <v>3419</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="22" t="s">
         <v>542</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -6584,7 +6580,7 @@
         <f t="shared" si="8"/>
         <v>3420</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="22" t="s">
         <v>110</v>
       </c>
       <c r="E107" s="5" t="s">
@@ -6618,7 +6614,7 @@
         <f t="shared" si="8"/>
         <v>3421</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="D108" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E108" s="5" t="s">
@@ -6652,7 +6648,7 @@
         <f t="shared" si="8"/>
         <v>3422</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D109" s="22" t="s">
         <v>112</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -6686,7 +6682,7 @@
         <f t="shared" si="8"/>
         <v>3423</v>
       </c>
-      <c r="D110" s="23" t="s">
+      <c r="D110" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E110" s="5" t="s">
@@ -6720,7 +6716,7 @@
         <f t="shared" si="8"/>
         <v>3424</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="D111" s="22" t="s">
         <v>114</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -6754,7 +6750,7 @@
         <f t="shared" si="8"/>
         <v>3425</v>
       </c>
-      <c r="D112" s="23" t="s">
+      <c r="D112" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -6788,7 +6784,7 @@
         <f t="shared" si="8"/>
         <v>3426</v>
       </c>
-      <c r="D113" s="23" t="s">
+      <c r="D113" s="22" t="s">
         <v>116</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -6822,7 +6818,7 @@
         <f t="shared" si="8"/>
         <v>3427</v>
       </c>
-      <c r="D114" s="23" t="s">
+      <c r="D114" s="22" t="s">
         <v>117</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -6856,7 +6852,7 @@
         <f t="shared" si="8"/>
         <v>3428</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D115" s="22" t="s">
         <v>118</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -6890,7 +6886,7 @@
         <f t="shared" si="8"/>
         <v>3429</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="D116" s="22" t="s">
         <v>119</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -6924,7 +6920,7 @@
         <f t="shared" si="8"/>
         <v>3430</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="22" t="s">
         <v>120</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -6958,7 +6954,7 @@
         <f t="shared" si="8"/>
         <v>3431</v>
       </c>
-      <c r="D118" s="23" t="s">
+      <c r="D118" s="22" t="s">
         <v>121</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -6992,7 +6988,7 @@
         <f t="shared" si="8"/>
         <v>3432</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="D119" s="22" t="s">
         <v>122</v>
       </c>
       <c r="E119" s="5" t="s">
@@ -7019,7 +7015,7 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="27"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
@@ -7043,7 +7039,7 @@
         <f>C87+50</f>
         <v>3450</v>
       </c>
-      <c r="D121" s="23" t="s">
+      <c r="D121" s="22" t="s">
         <v>682</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -7077,7 +7073,7 @@
         <f>C121+1</f>
         <v>3451</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="22" t="s">
         <v>683</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -7111,7 +7107,7 @@
         <f t="shared" si="10"/>
         <v>3452</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="22" t="s">
         <v>684</v>
       </c>
       <c r="E123" s="5" t="s">
@@ -7145,7 +7141,7 @@
         <f t="shared" si="10"/>
         <v>3453</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="D124" s="22" t="s">
         <v>685</v>
       </c>
       <c r="E124" s="5" t="s">
@@ -7179,7 +7175,7 @@
         <f t="shared" si="10"/>
         <v>3454</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="22" t="s">
         <v>686</v>
       </c>
       <c r="E125" s="5" t="s">
@@ -7213,7 +7209,7 @@
         <f t="shared" si="10"/>
         <v>3455</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="22" t="s">
         <v>687</v>
       </c>
       <c r="E126" s="5" t="s">
@@ -7247,7 +7243,7 @@
         <f t="shared" si="10"/>
         <v>3456</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="22" t="s">
         <v>688</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -7281,7 +7277,7 @@
         <f t="shared" si="10"/>
         <v>3457</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="22" t="s">
         <v>689</v>
       </c>
       <c r="E128" s="5" t="s">
@@ -7315,7 +7311,7 @@
         <f t="shared" si="10"/>
         <v>3458</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D129" s="22" t="s">
         <v>690</v>
       </c>
       <c r="E129" s="5" t="s">
@@ -7349,7 +7345,7 @@
         <f t="shared" si="10"/>
         <v>3459</v>
       </c>
-      <c r="D130" s="23" t="s">
+      <c r="D130" s="22" t="s">
         <v>691</v>
       </c>
       <c r="E130" s="5" t="s">
@@ -7383,7 +7379,7 @@
         <f t="shared" si="10"/>
         <v>3460</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D131" s="22" t="s">
         <v>692</v>
       </c>
       <c r="E131" s="5" t="s">
@@ -7417,7 +7413,7 @@
         <f t="shared" si="10"/>
         <v>3461</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="22" t="s">
         <v>693</v>
       </c>
       <c r="E132" s="5" t="s">
@@ -7451,7 +7447,7 @@
         <f t="shared" si="10"/>
         <v>3462</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="22" t="s">
         <v>694</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -7485,7 +7481,7 @@
         <f t="shared" si="10"/>
         <v>3463</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="22" t="s">
         <v>695</v>
       </c>
       <c r="E134" s="5" t="s">
@@ -7519,7 +7515,7 @@
         <f t="shared" si="10"/>
         <v>3464</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="22" t="s">
         <v>696</v>
       </c>
       <c r="E135" s="5" t="s">
@@ -7553,7 +7549,7 @@
         <f t="shared" si="10"/>
         <v>3465</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="22" t="s">
         <v>697</v>
       </c>
       <c r="E136" s="5" t="s">
@@ -7587,7 +7583,7 @@
         <f t="shared" si="10"/>
         <v>3466</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D137" s="22" t="s">
         <v>698</v>
       </c>
       <c r="E137" s="5" t="s">
@@ -7621,7 +7617,7 @@
         <f t="shared" si="10"/>
         <v>3467</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="D138" s="22" t="s">
         <v>699</v>
       </c>
       <c r="E138" s="5" t="s">
@@ -7655,7 +7651,7 @@
         <f t="shared" si="10"/>
         <v>3468</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="22" t="s">
         <v>700</v>
       </c>
       <c r="E139" s="5" t="s">
@@ -7689,7 +7685,7 @@
         <f t="shared" si="10"/>
         <v>3469</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D140" s="22" t="s">
         <v>701</v>
       </c>
       <c r="E140" s="5" t="s">
@@ -7723,7 +7719,7 @@
         <f t="shared" si="10"/>
         <v>3470</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" s="22" t="s">
         <v>702</v>
       </c>
       <c r="E141" s="5" t="s">
@@ -7757,7 +7753,7 @@
         <f t="shared" si="10"/>
         <v>3471</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="D142" s="22" t="s">
         <v>703</v>
       </c>
       <c r="E142" s="5" t="s">
@@ -7791,7 +7787,7 @@
         <f t="shared" si="10"/>
         <v>3472</v>
       </c>
-      <c r="D143" s="23" t="s">
+      <c r="D143" s="22" t="s">
         <v>704</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -7825,7 +7821,7 @@
         <f t="shared" si="10"/>
         <v>3473</v>
       </c>
-      <c r="D144" s="23" t="s">
+      <c r="D144" s="22" t="s">
         <v>705</v>
       </c>
       <c r="E144" s="5" t="s">
@@ -7859,7 +7855,7 @@
         <f t="shared" si="10"/>
         <v>3474</v>
       </c>
-      <c r="D145" s="23" t="s">
+      <c r="D145" s="22" t="s">
         <v>706</v>
       </c>
       <c r="E145" s="5" t="s">
@@ -7893,7 +7889,7 @@
         <f t="shared" si="10"/>
         <v>3475</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="D146" s="22" t="s">
         <v>707</v>
       </c>
       <c r="E146" s="5" t="s">
@@ -7927,7 +7923,7 @@
         <f t="shared" si="10"/>
         <v>3476</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="22" t="s">
         <v>708</v>
       </c>
       <c r="E147" s="5" t="s">
@@ -7961,7 +7957,7 @@
         <f t="shared" si="10"/>
         <v>3477</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="22" t="s">
         <v>709</v>
       </c>
       <c r="E148" s="5" t="s">
@@ -7995,7 +7991,7 @@
         <f t="shared" si="10"/>
         <v>3478</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="22" t="s">
         <v>710</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -8029,7 +8025,7 @@
         <f>C149+1</f>
         <v>3479</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="22" t="s">
         <v>711</v>
       </c>
       <c r="E150" s="5" t="s">
@@ -8063,7 +8059,7 @@
         <f>C150+1</f>
         <v>3480</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="22" t="s">
         <v>712</v>
       </c>
       <c r="E151" s="5" t="s">
@@ -8097,7 +8093,7 @@
         <f>C151+1</f>
         <v>3481</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="22" t="s">
         <v>713</v>
       </c>
       <c r="E152" s="5" t="s">
@@ -8128,7 +8124,7 @@
       <c r="C153" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D153" s="27" t="s">
+      <c r="D153" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -8159,7 +8155,7 @@
         <f>C87+85</f>
         <v>3485</v>
       </c>
-      <c r="D154" s="23" t="s">
+      <c r="D154" s="22" t="s">
         <v>219</v>
       </c>
       <c r="E154" s="5" t="s">
@@ -8192,7 +8188,7 @@
         <f>C154+1</f>
         <v>3486</v>
       </c>
-      <c r="D155" s="23" t="s">
+      <c r="D155" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E155" s="5" t="s">
@@ -8225,7 +8221,7 @@
         <f>C155+1</f>
         <v>3487</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="22" t="s">
         <v>221</v>
       </c>
       <c r="E156" s="5" t="s">
@@ -8252,7 +8248,7 @@
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="25" t="s">
+      <c r="D157" s="24" t="s">
         <v>323</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -8288,7 +8284,7 @@
         <f>C3+500</f>
         <v>3500</v>
       </c>
-      <c r="D158" s="23" t="s">
+      <c r="D158" s="22" t="s">
         <v>123</v>
       </c>
       <c r="E158" s="5" t="s">
@@ -8324,7 +8320,7 @@
         <f>C158+1</f>
         <v>3501</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D159" s="22" t="s">
         <v>667</v>
       </c>
       <c r="E159" s="5" t="s">
@@ -8360,7 +8356,7 @@
         <f t="shared" si="12"/>
         <v>3502</v>
       </c>
-      <c r="D160" s="23" t="s">
+      <c r="D160" s="22" t="s">
         <v>668</v>
       </c>
       <c r="E160" s="5" t="s">
@@ -8396,7 +8392,7 @@
         <f t="shared" si="12"/>
         <v>3503</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="22" t="s">
         <v>669</v>
       </c>
       <c r="E161" s="5" t="s">
@@ -8432,7 +8428,7 @@
         <f t="shared" si="12"/>
         <v>3504</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" s="22" t="s">
         <v>124</v>
       </c>
       <c r="E162" s="5" t="s">
@@ -8468,7 +8464,7 @@
         <f t="shared" si="12"/>
         <v>3505</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D163" s="22" t="s">
         <v>125</v>
       </c>
       <c r="E163" s="5" t="s">
@@ -8504,7 +8500,7 @@
         <f t="shared" si="12"/>
         <v>3506</v>
       </c>
-      <c r="D164" s="23" t="s">
+      <c r="D164" s="22" t="s">
         <v>126</v>
       </c>
       <c r="E164" s="5" t="s">
@@ -8540,7 +8536,7 @@
         <f t="shared" si="12"/>
         <v>3507</v>
       </c>
-      <c r="D165" s="23" t="s">
+      <c r="D165" s="22" t="s">
         <v>127</v>
       </c>
       <c r="E165" s="5" t="s">
@@ -8576,7 +8572,7 @@
         <f t="shared" si="12"/>
         <v>3508</v>
       </c>
-      <c r="D166" s="23" t="s">
+      <c r="D166" s="22" t="s">
         <v>128</v>
       </c>
       <c r="E166" s="5" t="s">
@@ -8612,7 +8608,7 @@
         <f t="shared" si="12"/>
         <v>3509</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="22" t="s">
         <v>663</v>
       </c>
       <c r="E167" s="5" t="s">
@@ -8648,7 +8644,7 @@
         <f t="shared" si="12"/>
         <v>3510</v>
       </c>
-      <c r="D168" s="23" t="s">
+      <c r="D168" s="22" t="s">
         <v>664</v>
       </c>
       <c r="E168" s="5" t="s">
@@ -8684,7 +8680,7 @@
         <f t="shared" si="12"/>
         <v>3511</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="22" t="s">
         <v>665</v>
       </c>
       <c r="E169" s="5" t="s">
@@ -8720,7 +8716,7 @@
         <f t="shared" si="12"/>
         <v>3512</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" s="22" t="s">
         <v>666</v>
       </c>
       <c r="E170" s="5" t="s">
@@ -8756,7 +8752,7 @@
         <f t="shared" si="12"/>
         <v>3513</v>
       </c>
-      <c r="D171" s="23" t="s">
+      <c r="D171" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E171" s="5" t="s">
@@ -8792,7 +8788,7 @@
         <f t="shared" si="12"/>
         <v>3514</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="22" t="s">
         <v>130</v>
       </c>
       <c r="E172" s="5" t="s">
@@ -8828,7 +8824,7 @@
         <f t="shared" si="12"/>
         <v>3515</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" s="22" t="s">
         <v>131</v>
       </c>
       <c r="E173" s="5" t="s">
@@ -8864,7 +8860,7 @@
         <f t="shared" si="12"/>
         <v>3516</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E174" s="5" t="s">
@@ -8900,7 +8896,7 @@
         <f t="shared" si="12"/>
         <v>3517</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="22" t="s">
         <v>660</v>
       </c>
       <c r="E175" s="5" t="s">
@@ -8936,7 +8932,7 @@
         <f t="shared" si="12"/>
         <v>3518</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D176" s="22" t="s">
         <v>661</v>
       </c>
       <c r="E176" s="5" t="s">
@@ -8972,7 +8968,7 @@
         <f t="shared" si="12"/>
         <v>3519</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D177" s="22" t="s">
         <v>662</v>
       </c>
       <c r="E177" s="5" t="s">
@@ -9008,7 +9004,7 @@
         <f t="shared" si="12"/>
         <v>3520</v>
       </c>
-      <c r="D178" s="23" t="s">
+      <c r="D178" s="22" t="s">
         <v>133</v>
       </c>
       <c r="E178" s="5" t="s">
@@ -9044,7 +9040,7 @@
         <f t="shared" si="12"/>
         <v>3521</v>
       </c>
-      <c r="D179" s="23" t="s">
+      <c r="D179" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E179" s="5" t="s">
@@ -9080,7 +9076,7 @@
         <f t="shared" si="12"/>
         <v>3522</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" s="22" t="s">
         <v>135</v>
       </c>
       <c r="E180" s="5" t="s">
@@ -9116,7 +9112,7 @@
         <f t="shared" si="12"/>
         <v>3523</v>
       </c>
-      <c r="D181" s="23" t="s">
+      <c r="D181" s="22" t="s">
         <v>136</v>
       </c>
       <c r="E181" s="5" t="s">
@@ -9152,7 +9148,7 @@
         <f t="shared" si="12"/>
         <v>3524</v>
       </c>
-      <c r="D182" s="23" t="s">
+      <c r="D182" s="22" t="s">
         <v>137</v>
       </c>
       <c r="E182" s="5" t="s">
@@ -9188,7 +9184,7 @@
         <f t="shared" si="12"/>
         <v>3525</v>
       </c>
-      <c r="D183" s="23" t="s">
+      <c r="D183" s="22" t="s">
         <v>138</v>
       </c>
       <c r="E183" s="5" t="s">
@@ -9224,7 +9220,7 @@
         <f t="shared" si="12"/>
         <v>3526</v>
       </c>
-      <c r="D184" s="23" t="s">
+      <c r="D184" s="22" t="s">
         <v>139</v>
       </c>
       <c r="E184" s="5" t="s">
@@ -9260,7 +9256,7 @@
         <f t="shared" si="12"/>
         <v>3527</v>
       </c>
-      <c r="D185" s="23" t="s">
+      <c r="D185" s="22" t="s">
         <v>140</v>
       </c>
       <c r="E185" s="5" t="s">
@@ -9296,7 +9292,7 @@
         <f t="shared" si="12"/>
         <v>3528</v>
       </c>
-      <c r="D186" s="23" t="s">
+      <c r="D186" s="22" t="s">
         <v>141</v>
       </c>
       <c r="E186" s="5" t="s">
@@ -9332,7 +9328,7 @@
         <f t="shared" si="12"/>
         <v>3529</v>
       </c>
-      <c r="D187" s="23" t="s">
+      <c r="D187" s="22" t="s">
         <v>142</v>
       </c>
       <c r="E187" s="5" t="s">
@@ -9368,7 +9364,7 @@
         <f t="shared" si="12"/>
         <v>3530</v>
       </c>
-      <c r="D188" s="23" t="s">
+      <c r="D188" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E188" s="5" t="s">
@@ -9404,7 +9400,7 @@
         <f t="shared" si="12"/>
         <v>3531</v>
       </c>
-      <c r="D189" s="23" t="s">
+      <c r="D189" s="22" t="s">
         <v>144</v>
       </c>
       <c r="E189" s="5" t="s">
@@ -9440,7 +9436,7 @@
         <f t="shared" si="12"/>
         <v>3532</v>
       </c>
-      <c r="D190" s="23" t="s">
+      <c r="D190" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E190" s="5" t="s">
@@ -9473,7 +9469,7 @@
       <c r="C191" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D191" s="23" t="s">
+      <c r="D191" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E191" s="5" t="s">
@@ -9509,7 +9505,7 @@
         <f>C158+50</f>
         <v>3550</v>
       </c>
-      <c r="D192" s="23" t="s">
+      <c r="D192" s="22" t="s">
         <v>714</v>
       </c>
       <c r="E192" s="5" t="s">
@@ -9545,7 +9541,7 @@
         <f>C192+1</f>
         <v>3551</v>
       </c>
-      <c r="D193" s="23" t="s">
+      <c r="D193" s="22" t="s">
         <v>715</v>
       </c>
       <c r="E193" s="5" t="s">
@@ -9581,7 +9577,7 @@
         <f t="shared" si="14"/>
         <v>3552</v>
       </c>
-      <c r="D194" s="23" t="s">
+      <c r="D194" s="22" t="s">
         <v>716</v>
       </c>
       <c r="E194" s="5" t="s">
@@ -9617,7 +9613,7 @@
         <f t="shared" si="14"/>
         <v>3553</v>
       </c>
-      <c r="D195" s="23" t="s">
+      <c r="D195" s="22" t="s">
         <v>717</v>
       </c>
       <c r="E195" s="5" t="s">
@@ -9653,7 +9649,7 @@
         <f t="shared" si="14"/>
         <v>3554</v>
       </c>
-      <c r="D196" s="23" t="s">
+      <c r="D196" s="22" t="s">
         <v>718</v>
       </c>
       <c r="E196" s="5" t="s">
@@ -9689,7 +9685,7 @@
         <f t="shared" si="14"/>
         <v>3555</v>
       </c>
-      <c r="D197" s="23" t="s">
+      <c r="D197" s="22" t="s">
         <v>719</v>
       </c>
       <c r="E197" s="5" t="s">
@@ -9725,7 +9721,7 @@
         <f t="shared" si="14"/>
         <v>3556</v>
       </c>
-      <c r="D198" s="23" t="s">
+      <c r="D198" s="22" t="s">
         <v>720</v>
       </c>
       <c r="E198" s="5" t="s">
@@ -9761,7 +9757,7 @@
         <f t="shared" si="14"/>
         <v>3557</v>
       </c>
-      <c r="D199" s="23" t="s">
+      <c r="D199" s="22" t="s">
         <v>721</v>
       </c>
       <c r="E199" s="5" t="s">
@@ -9797,7 +9793,7 @@
         <f t="shared" si="14"/>
         <v>3558</v>
       </c>
-      <c r="D200" s="23" t="s">
+      <c r="D200" s="22" t="s">
         <v>722</v>
       </c>
       <c r="E200" s="5" t="s">
@@ -9833,7 +9829,7 @@
         <f t="shared" si="14"/>
         <v>3559</v>
       </c>
-      <c r="D201" s="23" t="s">
+      <c r="D201" s="22" t="s">
         <v>723</v>
       </c>
       <c r="E201" s="5" t="s">
@@ -9869,7 +9865,7 @@
         <f t="shared" si="14"/>
         <v>3560</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="D202" s="22" t="s">
         <v>724</v>
       </c>
       <c r="E202" s="5" t="s">
@@ -9905,7 +9901,7 @@
         <f t="shared" si="14"/>
         <v>3561</v>
       </c>
-      <c r="D203" s="23" t="s">
+      <c r="D203" s="22" t="s">
         <v>725</v>
       </c>
       <c r="E203" s="5" t="s">
@@ -9941,7 +9937,7 @@
         <f t="shared" si="14"/>
         <v>3562</v>
       </c>
-      <c r="D204" s="23" t="s">
+      <c r="D204" s="22" t="s">
         <v>726</v>
       </c>
       <c r="E204" s="5" t="s">
@@ -9977,7 +9973,7 @@
         <f t="shared" si="14"/>
         <v>3563</v>
       </c>
-      <c r="D205" s="23" t="s">
+      <c r="D205" s="22" t="s">
         <v>727</v>
       </c>
       <c r="E205" s="5" t="s">
@@ -10013,7 +10009,7 @@
         <f t="shared" si="14"/>
         <v>3564</v>
       </c>
-      <c r="D206" s="23" t="s">
+      <c r="D206" s="22" t="s">
         <v>728</v>
       </c>
       <c r="E206" s="5" t="s">
@@ -10049,7 +10045,7 @@
         <f t="shared" si="14"/>
         <v>3565</v>
       </c>
-      <c r="D207" s="23" t="s">
+      <c r="D207" s="22" t="s">
         <v>729</v>
       </c>
       <c r="E207" s="5" t="s">
@@ -10085,7 +10081,7 @@
         <f t="shared" si="14"/>
         <v>3566</v>
       </c>
-      <c r="D208" s="23" t="s">
+      <c r="D208" s="22" t="s">
         <v>730</v>
       </c>
       <c r="E208" s="5" t="s">
@@ -10121,7 +10117,7 @@
         <f t="shared" si="14"/>
         <v>3567</v>
       </c>
-      <c r="D209" s="23" t="s">
+      <c r="D209" s="22" t="s">
         <v>731</v>
       </c>
       <c r="E209" s="5" t="s">
@@ -10157,7 +10153,7 @@
         <f t="shared" si="14"/>
         <v>3568</v>
       </c>
-      <c r="D210" s="23" t="s">
+      <c r="D210" s="22" t="s">
         <v>732</v>
       </c>
       <c r="E210" s="5" t="s">
@@ -10193,7 +10189,7 @@
         <f t="shared" si="14"/>
         <v>3569</v>
       </c>
-      <c r="D211" s="23" t="s">
+      <c r="D211" s="22" t="s">
         <v>733</v>
       </c>
       <c r="E211" s="5" t="s">
@@ -10229,7 +10225,7 @@
         <f t="shared" si="14"/>
         <v>3570</v>
       </c>
-      <c r="D212" s="23" t="s">
+      <c r="D212" s="22" t="s">
         <v>734</v>
       </c>
       <c r="E212" s="5" t="s">
@@ -10265,7 +10261,7 @@
         <f t="shared" si="14"/>
         <v>3571</v>
       </c>
-      <c r="D213" s="23" t="s">
+      <c r="D213" s="22" t="s">
         <v>735</v>
       </c>
       <c r="E213" s="5" t="s">
@@ -10301,7 +10297,7 @@
         <f t="shared" si="14"/>
         <v>3572</v>
       </c>
-      <c r="D214" s="23" t="s">
+      <c r="D214" s="22" t="s">
         <v>736</v>
       </c>
       <c r="E214" s="5" t="s">
@@ -10337,7 +10333,7 @@
         <f t="shared" si="14"/>
         <v>3573</v>
       </c>
-      <c r="D215" s="23" t="s">
+      <c r="D215" s="22" t="s">
         <v>737</v>
       </c>
       <c r="E215" s="5" t="s">
@@ -10373,7 +10369,7 @@
         <f t="shared" si="14"/>
         <v>3574</v>
       </c>
-      <c r="D216" s="23" t="s">
+      <c r="D216" s="22" t="s">
         <v>738</v>
       </c>
       <c r="E216" s="5" t="s">
@@ -10409,7 +10405,7 @@
         <f t="shared" si="14"/>
         <v>3575</v>
       </c>
-      <c r="D217" s="23" t="s">
+      <c r="D217" s="22" t="s">
         <v>739</v>
       </c>
       <c r="E217" s="5" t="s">
@@ -10445,7 +10441,7 @@
         <f t="shared" si="14"/>
         <v>3576</v>
       </c>
-      <c r="D218" s="23" t="s">
+      <c r="D218" s="22" t="s">
         <v>740</v>
       </c>
       <c r="E218" s="5" t="s">
@@ -10481,7 +10477,7 @@
         <f t="shared" si="14"/>
         <v>3577</v>
       </c>
-      <c r="D219" s="23" t="s">
+      <c r="D219" s="22" t="s">
         <v>741</v>
       </c>
       <c r="E219" s="5" t="s">
@@ -10517,7 +10513,7 @@
         <f t="shared" si="14"/>
         <v>3578</v>
       </c>
-      <c r="D220" s="23" t="s">
+      <c r="D220" s="22" t="s">
         <v>742</v>
       </c>
       <c r="E220" s="5" t="s">
@@ -10553,7 +10549,7 @@
         <f t="shared" si="14"/>
         <v>3579</v>
       </c>
-      <c r="D221" s="23" t="s">
+      <c r="D221" s="22" t="s">
         <v>743</v>
       </c>
       <c r="E221" s="5" t="s">
@@ -10589,7 +10585,7 @@
         <f t="shared" si="14"/>
         <v>3580</v>
       </c>
-      <c r="D222" s="23" t="s">
+      <c r="D222" s="22" t="s">
         <v>744</v>
       </c>
       <c r="E222" s="5" t="s">
@@ -10625,7 +10621,7 @@
         <f t="shared" si="14"/>
         <v>3581</v>
       </c>
-      <c r="D223" s="23" t="s">
+      <c r="D223" s="22" t="s">
         <v>745</v>
       </c>
       <c r="E223" s="5" t="s">
@@ -10658,7 +10654,7 @@
       <c r="C224" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D224" s="23" t="s">
+      <c r="D224" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E224" s="5" t="s">
@@ -10693,7 +10689,7 @@
         <f>C158+85</f>
         <v>3585</v>
       </c>
-      <c r="D225" s="23" t="s">
+      <c r="D225" s="22" t="s">
         <v>225</v>
       </c>
       <c r="E225" s="5" t="s">
@@ -10728,7 +10724,7 @@
         <f t="shared" si="15"/>
         <v>3586</v>
       </c>
-      <c r="D226" s="23" t="s">
+      <c r="D226" s="22" t="s">
         <v>222</v>
       </c>
       <c r="E226" s="5" t="s">
@@ -10763,7 +10759,7 @@
         <f t="shared" si="15"/>
         <v>3587</v>
       </c>
-      <c r="D227" s="23" t="s">
+      <c r="D227" s="22" t="s">
         <v>223</v>
       </c>
       <c r="E227" s="5" t="s">
@@ -10798,7 +10794,7 @@
         <f t="shared" si="15"/>
         <v>3588</v>
       </c>
-      <c r="D228" s="23" t="s">
+      <c r="D228" s="22" t="s">
         <v>224</v>
       </c>
       <c r="E228" s="5" t="s">
@@ -10827,7 +10823,7 @@
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
-      <c r="D229" s="25" t="s">
+      <c r="D229" s="24" t="s">
         <v>324</v>
       </c>
       <c r="E229" s="2" t="s">
@@ -10861,7 +10857,7 @@
         <f>C3+600</f>
         <v>3600</v>
       </c>
-      <c r="D230" s="23" t="s">
+      <c r="D230" s="22" t="s">
         <v>178</v>
       </c>
       <c r="E230" s="5" t="s">
@@ -10897,7 +10893,7 @@
         <f>C230+1</f>
         <v>3601</v>
       </c>
-      <c r="D231" s="23" t="s">
+      <c r="D231" s="22" t="s">
         <v>179</v>
       </c>
       <c r="E231" s="5" t="s">
@@ -10933,7 +10929,7 @@
         <f t="shared" si="17"/>
         <v>3602</v>
       </c>
-      <c r="D232" s="23" t="s">
+      <c r="D232" s="22" t="s">
         <v>180</v>
       </c>
       <c r="E232" s="5" t="s">
@@ -10969,7 +10965,7 @@
         <f t="shared" si="17"/>
         <v>3603</v>
       </c>
-      <c r="D233" s="23" t="s">
+      <c r="D233" s="22" t="s">
         <v>181</v>
       </c>
       <c r="E233" s="5" t="s">
@@ -11005,7 +11001,7 @@
         <f t="shared" si="17"/>
         <v>3604</v>
       </c>
-      <c r="D234" s="23" t="s">
+      <c r="D234" s="22" t="s">
         <v>182</v>
       </c>
       <c r="E234" s="5" t="s">
@@ -11041,7 +11037,7 @@
         <f t="shared" si="17"/>
         <v>3605</v>
       </c>
-      <c r="D235" s="23" t="s">
+      <c r="D235" s="22" t="s">
         <v>183</v>
       </c>
       <c r="E235" s="5" t="s">
@@ -11077,7 +11073,7 @@
         <f t="shared" si="17"/>
         <v>3606</v>
       </c>
-      <c r="D236" s="23" t="s">
+      <c r="D236" s="22" t="s">
         <v>184</v>
       </c>
       <c r="E236" s="5" t="s">
@@ -11113,7 +11109,7 @@
         <f t="shared" si="17"/>
         <v>3607</v>
       </c>
-      <c r="D237" s="23" t="s">
+      <c r="D237" s="22" t="s">
         <v>185</v>
       </c>
       <c r="E237" s="5" t="s">
@@ -11149,7 +11145,7 @@
         <f t="shared" si="17"/>
         <v>3608</v>
       </c>
-      <c r="D238" s="23" t="s">
+      <c r="D238" s="22" t="s">
         <v>186</v>
       </c>
       <c r="E238" s="5" t="s">
@@ -11185,7 +11181,7 @@
         <f t="shared" si="17"/>
         <v>3609</v>
       </c>
-      <c r="D239" s="23" t="s">
+      <c r="D239" s="22" t="s">
         <v>187</v>
       </c>
       <c r="E239" s="5" t="s">
@@ -11221,7 +11217,7 @@
         <f t="shared" si="17"/>
         <v>3610</v>
       </c>
-      <c r="D240" s="23" t="s">
+      <c r="D240" s="22" t="s">
         <v>188</v>
       </c>
       <c r="E240" s="5" t="s">
@@ -11257,7 +11253,7 @@
         <f t="shared" si="17"/>
         <v>3611</v>
       </c>
-      <c r="D241" s="23" t="s">
+      <c r="D241" s="22" t="s">
         <v>189</v>
       </c>
       <c r="E241" s="5" t="s">
@@ -11293,7 +11289,7 @@
         <f t="shared" si="17"/>
         <v>3612</v>
       </c>
-      <c r="D242" s="23" t="s">
+      <c r="D242" s="22" t="s">
         <v>190</v>
       </c>
       <c r="E242" s="5" t="s">
@@ -11329,7 +11325,7 @@
         <f t="shared" si="17"/>
         <v>3613</v>
       </c>
-      <c r="D243" s="23" t="s">
+      <c r="D243" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E243" s="5" t="s">
@@ -11365,7 +11361,7 @@
         <f t="shared" si="17"/>
         <v>3614</v>
       </c>
-      <c r="D244" s="23" t="s">
+      <c r="D244" s="22" t="s">
         <v>192</v>
       </c>
       <c r="E244" s="5" t="s">
@@ -11401,7 +11397,7 @@
         <f t="shared" si="17"/>
         <v>3615</v>
       </c>
-      <c r="D245" s="23" t="s">
+      <c r="D245" s="22" t="s">
         <v>193</v>
       </c>
       <c r="E245" s="5" t="s">
@@ -11437,7 +11433,7 @@
         <f t="shared" si="17"/>
         <v>3616</v>
       </c>
-      <c r="D246" s="23" t="s">
+      <c r="D246" s="22" t="s">
         <v>194</v>
       </c>
       <c r="E246" s="5" t="s">
@@ -11473,7 +11469,7 @@
         <f t="shared" si="17"/>
         <v>3617</v>
       </c>
-      <c r="D247" s="23" t="s">
+      <c r="D247" s="22" t="s">
         <v>195</v>
       </c>
       <c r="E247" s="5" t="s">
@@ -11509,7 +11505,7 @@
         <f t="shared" si="17"/>
         <v>3618</v>
       </c>
-      <c r="D248" s="23" t="s">
+      <c r="D248" s="22" t="s">
         <v>196</v>
       </c>
       <c r="E248" s="5" t="s">
@@ -11545,7 +11541,7 @@
         <f t="shared" si="17"/>
         <v>3619</v>
       </c>
-      <c r="D249" s="23" t="s">
+      <c r="D249" s="22" t="s">
         <v>197</v>
       </c>
       <c r="E249" s="5" t="s">
@@ -11581,7 +11577,7 @@
         <f t="shared" si="17"/>
         <v>3620</v>
       </c>
-      <c r="D250" s="23" t="s">
+      <c r="D250" s="22" t="s">
         <v>198</v>
       </c>
       <c r="E250" s="5" t="s">
@@ -11617,7 +11613,7 @@
         <f t="shared" si="17"/>
         <v>3621</v>
       </c>
-      <c r="D251" s="23" t="s">
+      <c r="D251" s="22" t="s">
         <v>199</v>
       </c>
       <c r="E251" s="5" t="s">
@@ -11653,7 +11649,7 @@
         <f t="shared" si="17"/>
         <v>3622</v>
       </c>
-      <c r="D252" s="23" t="s">
+      <c r="D252" s="22" t="s">
         <v>200</v>
       </c>
       <c r="E252" s="5" t="s">
@@ -11689,7 +11685,7 @@
         <f t="shared" si="17"/>
         <v>3623</v>
       </c>
-      <c r="D253" s="23" t="s">
+      <c r="D253" s="22" t="s">
         <v>201</v>
       </c>
       <c r="E253" s="5" t="s">
@@ -11725,7 +11721,7 @@
         <f t="shared" si="17"/>
         <v>3624</v>
       </c>
-      <c r="D254" s="23" t="s">
+      <c r="D254" s="22" t="s">
         <v>202</v>
       </c>
       <c r="E254" s="5" t="s">
@@ -11761,7 +11757,7 @@
         <f t="shared" si="17"/>
         <v>3625</v>
       </c>
-      <c r="D255" s="23" t="s">
+      <c r="D255" s="22" t="s">
         <v>203</v>
       </c>
       <c r="E255" s="5" t="s">
@@ -11797,7 +11793,7 @@
         <f t="shared" si="17"/>
         <v>3626</v>
       </c>
-      <c r="D256" s="23" t="s">
+      <c r="D256" s="22" t="s">
         <v>204</v>
       </c>
       <c r="E256" s="5" t="s">
@@ -11833,7 +11829,7 @@
         <f t="shared" si="17"/>
         <v>3627</v>
       </c>
-      <c r="D257" s="23" t="s">
+      <c r="D257" s="22" t="s">
         <v>205</v>
       </c>
       <c r="E257" s="5" t="s">
@@ -11869,7 +11865,7 @@
         <f t="shared" si="17"/>
         <v>3628</v>
       </c>
-      <c r="D258" s="23" t="s">
+      <c r="D258" s="22" t="s">
         <v>206</v>
       </c>
       <c r="E258" s="5" t="s">
@@ -11905,7 +11901,7 @@
         <f t="shared" si="17"/>
         <v>3629</v>
       </c>
-      <c r="D259" s="23" t="s">
+      <c r="D259" s="22" t="s">
         <v>207</v>
       </c>
       <c r="E259" s="5" t="s">
@@ -11941,7 +11937,7 @@
         <f t="shared" si="17"/>
         <v>3630</v>
       </c>
-      <c r="D260" s="23" t="s">
+      <c r="D260" s="22" t="s">
         <v>208</v>
       </c>
       <c r="E260" s="5" t="s">
@@ -11977,7 +11973,7 @@
         <f t="shared" si="17"/>
         <v>3631</v>
       </c>
-      <c r="D261" s="23" t="s">
+      <c r="D261" s="22" t="s">
         <v>209</v>
       </c>
       <c r="E261" s="5" t="s">
@@ -12013,7 +12009,7 @@
         <f t="shared" si="17"/>
         <v>3632</v>
       </c>
-      <c r="D262" s="23" t="s">
+      <c r="D262" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E262" s="5" t="s">
@@ -12048,7 +12044,7 @@
       <c r="C263" s="4">
         <v>3633</v>
       </c>
-      <c r="D263" s="23" t="s">
+      <c r="D263" s="22" t="s">
         <v>400</v>
       </c>
       <c r="E263" s="5" t="s">
@@ -12083,7 +12079,7 @@
       <c r="C264" s="4">
         <v>3634</v>
       </c>
-      <c r="D264" s="23" t="s">
+      <c r="D264" s="22" t="s">
         <v>401</v>
       </c>
       <c r="E264" s="5" t="s">
@@ -12118,7 +12114,7 @@
       <c r="C265" s="4">
         <v>3635</v>
       </c>
-      <c r="D265" s="23" t="s">
+      <c r="D265" s="22" t="s">
         <v>402</v>
       </c>
       <c r="E265" s="5" t="s">
@@ -12153,7 +12149,7 @@
       <c r="C266" s="4">
         <v>3636</v>
       </c>
-      <c r="D266" s="23" t="s">
+      <c r="D266" s="22" t="s">
         <v>403</v>
       </c>
       <c r="E266" s="5" t="s">
@@ -12188,7 +12184,7 @@
       <c r="C267" s="4">
         <v>3637</v>
       </c>
-      <c r="D267" s="23" t="s">
+      <c r="D267" s="22" t="s">
         <v>404</v>
       </c>
       <c r="E267" s="5" t="s">
@@ -12223,7 +12219,7 @@
       <c r="C268" s="4">
         <v>3638</v>
       </c>
-      <c r="D268" s="23" t="s">
+      <c r="D268" s="22" t="s">
         <v>405</v>
       </c>
       <c r="E268" s="5" t="s">
@@ -12250,17 +12246,17 @@
       <c r="A269" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B269" s="32" t="s">
+      <c r="B269" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="C269" s="32"/>
-      <c r="D269" s="32"/>
-      <c r="E269" s="32"/>
-      <c r="F269" s="32"/>
-      <c r="G269" s="32"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="32"/>
-      <c r="J269" s="32"/>
+      <c r="C269" s="29"/>
+      <c r="D269" s="29"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="29"/>
+      <c r="G269" s="29"/>
+      <c r="H269" s="29"/>
+      <c r="I269" s="29"/>
+      <c r="J269" s="29"/>
       <c r="K269" s="16"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -12272,7 +12268,7 @@
         <v>2700</v>
       </c>
       <c r="C270" s="4"/>
-      <c r="D270" s="23" t="s">
+      <c r="D270" s="22" t="s">
         <v>624</v>
       </c>
       <c r="E270" s="5" t="s">
@@ -12305,7 +12301,7 @@
         <v>2701</v>
       </c>
       <c r="C271" s="4"/>
-      <c r="D271" s="23" t="s">
+      <c r="D271" s="22" t="s">
         <v>625</v>
       </c>
       <c r="E271" s="5" t="s">
@@ -12338,7 +12334,7 @@
         <v>2702</v>
       </c>
       <c r="C272" s="4"/>
-      <c r="D272" s="23" t="s">
+      <c r="D272" s="22" t="s">
         <v>626</v>
       </c>
       <c r="E272" s="5" t="s">
@@ -12371,7 +12367,7 @@
         <v>2703</v>
       </c>
       <c r="C273" s="4"/>
-      <c r="D273" s="23" t="s">
+      <c r="D273" s="22" t="s">
         <v>627</v>
       </c>
       <c r="E273" s="5" t="s">
@@ -12404,7 +12400,7 @@
         <v>2704</v>
       </c>
       <c r="C274" s="4"/>
-      <c r="D274" s="23" t="s">
+      <c r="D274" s="22" t="s">
         <v>628</v>
       </c>
       <c r="E274" s="5" t="s">
@@ -12437,7 +12433,7 @@
         <v>2705</v>
       </c>
       <c r="C275" s="4"/>
-      <c r="D275" s="23" t="s">
+      <c r="D275" s="22" t="s">
         <v>629</v>
       </c>
       <c r="E275" s="5" t="s">
@@ -12470,7 +12466,7 @@
         <v>2706</v>
       </c>
       <c r="C276" s="4"/>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="22" t="s">
         <v>630</v>
       </c>
       <c r="E276" s="5" t="s">
@@ -12503,7 +12499,7 @@
         <v>2707</v>
       </c>
       <c r="C277" s="4"/>
-      <c r="D277" s="23" t="s">
+      <c r="D277" s="22" t="s">
         <v>631</v>
       </c>
       <c r="E277" s="5" t="s">
@@ -12536,7 +12532,7 @@
         <v>2708</v>
       </c>
       <c r="C278" s="4"/>
-      <c r="D278" s="23" t="s">
+      <c r="D278" s="22" t="s">
         <v>632</v>
       </c>
       <c r="E278" s="5" t="s">
@@ -12569,7 +12565,7 @@
         <v>2709</v>
       </c>
       <c r="C279" s="4"/>
-      <c r="D279" s="23" t="s">
+      <c r="D279" s="22" t="s">
         <v>407</v>
       </c>
       <c r="E279" s="5" t="s">
@@ -12602,7 +12598,7 @@
         <v>2710</v>
       </c>
       <c r="C280" s="4"/>
-      <c r="D280" s="23" t="s">
+      <c r="D280" s="22" t="s">
         <v>408</v>
       </c>
       <c r="E280" s="5" t="s">
@@ -12635,7 +12631,7 @@
         <v>2711</v>
       </c>
       <c r="C281" s="4"/>
-      <c r="D281" s="23" t="s">
+      <c r="D281" s="22" t="s">
         <v>409</v>
       </c>
       <c r="E281" s="5" t="s">
@@ -12668,7 +12664,7 @@
         <v>2712</v>
       </c>
       <c r="C282" s="4"/>
-      <c r="D282" s="23" t="s">
+      <c r="D282" s="22" t="s">
         <v>410</v>
       </c>
       <c r="E282" s="5" t="s">
@@ -12701,7 +12697,7 @@
         <v>2713</v>
       </c>
       <c r="C283" s="4"/>
-      <c r="D283" s="23" t="s">
+      <c r="D283" s="22" t="s">
         <v>411</v>
       </c>
       <c r="E283" s="5" t="s">
@@ -12734,7 +12730,7 @@
         <v>2714</v>
       </c>
       <c r="C284" s="4"/>
-      <c r="D284" s="23" t="s">
+      <c r="D284" s="22" t="s">
         <v>412</v>
       </c>
       <c r="E284" s="5" t="s">
@@ -12767,7 +12763,7 @@
         <v>2715</v>
       </c>
       <c r="C285" s="4"/>
-      <c r="D285" s="23" t="s">
+      <c r="D285" s="22" t="s">
         <v>413</v>
       </c>
       <c r="E285" s="5" t="s">
@@ -12800,7 +12796,7 @@
         <v>2716</v>
       </c>
       <c r="C286" s="4"/>
-      <c r="D286" s="23" t="s">
+      <c r="D286" s="22" t="s">
         <v>414</v>
       </c>
       <c r="E286" s="5" t="s">
@@ -12833,7 +12829,7 @@
         <v>2717</v>
       </c>
       <c r="C287" s="4"/>
-      <c r="D287" s="23" t="s">
+      <c r="D287" s="22" t="s">
         <v>415</v>
       </c>
       <c r="E287" s="5" t="s">
@@ -12866,7 +12862,7 @@
         <v>2718</v>
       </c>
       <c r="C288" s="4"/>
-      <c r="D288" s="23" t="s">
+      <c r="D288" s="22" t="s">
         <v>416</v>
       </c>
       <c r="E288" s="5" t="s">
@@ -12899,7 +12895,7 @@
         <v>2719</v>
       </c>
       <c r="C289" s="4"/>
-      <c r="D289" s="23" t="s">
+      <c r="D289" s="22" t="s">
         <v>417</v>
       </c>
       <c r="E289" s="5" t="s">
@@ -12932,7 +12928,7 @@
         <v>2720</v>
       </c>
       <c r="C290" s="4"/>
-      <c r="D290" s="23" t="s">
+      <c r="D290" s="22" t="s">
         <v>418</v>
       </c>
       <c r="E290" s="5" t="s">
@@ -12965,7 +12961,7 @@
         <v>2721</v>
       </c>
       <c r="C291" s="4"/>
-      <c r="D291" s="23" t="s">
+      <c r="D291" s="22" t="s">
         <v>419</v>
       </c>
       <c r="E291" s="5" t="s">
@@ -12998,7 +12994,7 @@
         <v>2722</v>
       </c>
       <c r="C292" s="4"/>
-      <c r="D292" s="23" t="s">
+      <c r="D292" s="22" t="s">
         <v>420</v>
       </c>
       <c r="E292" s="5" t="s">
@@ -13031,7 +13027,7 @@
         <v>2723</v>
       </c>
       <c r="C293" s="4"/>
-      <c r="D293" s="23" t="s">
+      <c r="D293" s="22" t="s">
         <v>421</v>
       </c>
       <c r="E293" s="5" t="s">
@@ -13064,7 +13060,7 @@
         <v>2724</v>
       </c>
       <c r="C294" s="4"/>
-      <c r="D294" s="23" t="s">
+      <c r="D294" s="22" t="s">
         <v>422</v>
       </c>
       <c r="E294" s="5" t="s">
@@ -13097,7 +13093,7 @@
         <v>2725</v>
       </c>
       <c r="C295" s="4"/>
-      <c r="D295" s="23" t="s">
+      <c r="D295" s="22" t="s">
         <v>423</v>
       </c>
       <c r="E295" s="5" t="s">
@@ -13130,7 +13126,7 @@
         <v>2726</v>
       </c>
       <c r="C296" s="4"/>
-      <c r="D296" s="23" t="s">
+      <c r="D296" s="22" t="s">
         <v>424</v>
       </c>
       <c r="E296" s="5" t="s">
@@ -13163,7 +13159,7 @@
         <v>2727</v>
       </c>
       <c r="C297" s="4"/>
-      <c r="D297" s="23" t="s">
+      <c r="D297" s="22" t="s">
         <v>425</v>
       </c>
       <c r="E297" s="5" t="s">
@@ -13196,7 +13192,7 @@
         <v>2728</v>
       </c>
       <c r="C298" s="4"/>
-      <c r="D298" s="23" t="s">
+      <c r="D298" s="22" t="s">
         <v>426</v>
       </c>
       <c r="E298" s="5" t="s">
@@ -13229,7 +13225,7 @@
         <v>2729</v>
       </c>
       <c r="C299" s="4"/>
-      <c r="D299" s="23" t="s">
+      <c r="D299" s="22" t="s">
         <v>427</v>
       </c>
       <c r="E299" s="5" t="s">
@@ -13262,7 +13258,7 @@
         <v>2730</v>
       </c>
       <c r="C300" s="4"/>
-      <c r="D300" s="23" t="s">
+      <c r="D300" s="22" t="s">
         <v>428</v>
       </c>
       <c r="E300" s="5" t="s">
@@ -13295,7 +13291,7 @@
         <v>2731</v>
       </c>
       <c r="C301" s="4"/>
-      <c r="D301" s="23" t="s">
+      <c r="D301" s="22" t="s">
         <v>429</v>
       </c>
       <c r="E301" s="5" t="s">
@@ -13328,7 +13324,7 @@
         <v>2732</v>
       </c>
       <c r="C302" s="4"/>
-      <c r="D302" s="23" t="s">
+      <c r="D302" s="22" t="s">
         <v>430</v>
       </c>
       <c r="E302" s="5" t="s">
@@ -13361,7 +13357,7 @@
         <v>2733</v>
       </c>
       <c r="C303" s="4"/>
-      <c r="D303" s="23" t="s">
+      <c r="D303" s="22" t="s">
         <v>431</v>
       </c>
       <c r="E303" s="5" t="s">
@@ -13394,7 +13390,7 @@
         <v>2734</v>
       </c>
       <c r="C304" s="4"/>
-      <c r="D304" s="23" t="s">
+      <c r="D304" s="22" t="s">
         <v>432</v>
       </c>
       <c r="E304" s="5" t="s">
@@ -13427,7 +13423,7 @@
         <v>2735</v>
       </c>
       <c r="C305" s="4"/>
-      <c r="D305" s="23" t="s">
+      <c r="D305" s="22" t="s">
         <v>433</v>
       </c>
       <c r="E305" s="5" t="s">
@@ -13460,7 +13456,7 @@
         <v>2736</v>
       </c>
       <c r="C306" s="4"/>
-      <c r="D306" s="23" t="s">
+      <c r="D306" s="22" t="s">
         <v>434</v>
       </c>
       <c r="E306" s="5" t="s">
@@ -13493,7 +13489,7 @@
         <v>2737</v>
       </c>
       <c r="C307" s="4"/>
-      <c r="D307" s="23" t="s">
+      <c r="D307" s="22" t="s">
         <v>435</v>
       </c>
       <c r="E307" s="5" t="s">
@@ -13526,7 +13522,7 @@
         <v>2738</v>
       </c>
       <c r="C308" s="4"/>
-      <c r="D308" s="23" t="s">
+      <c r="D308" s="22" t="s">
         <v>436</v>
       </c>
       <c r="E308" s="5" t="s">
@@ -13559,7 +13555,7 @@
         <v>2739</v>
       </c>
       <c r="C309" s="4"/>
-      <c r="D309" s="23" t="s">
+      <c r="D309" s="22" t="s">
         <v>437</v>
       </c>
       <c r="E309" s="5" t="s">
@@ -13592,7 +13588,7 @@
         <v>2740</v>
       </c>
       <c r="C310" s="4"/>
-      <c r="D310" s="23" t="s">
+      <c r="D310" s="22" t="s">
         <v>438</v>
       </c>
       <c r="E310" s="5" t="s">
@@ -13625,7 +13621,7 @@
         <v>2741</v>
       </c>
       <c r="C311" s="4"/>
-      <c r="D311" s="23" t="s">
+      <c r="D311" s="22" t="s">
         <v>439</v>
       </c>
       <c r="E311" s="5" t="s">
@@ -13658,7 +13654,7 @@
         <v>2742</v>
       </c>
       <c r="C312" s="4"/>
-      <c r="D312" s="23" t="s">
+      <c r="D312" s="22" t="s">
         <v>440</v>
       </c>
       <c r="E312" s="5" t="s">
@@ -13691,7 +13687,7 @@
         <v>2743</v>
       </c>
       <c r="C313" s="4"/>
-      <c r="D313" s="23" t="s">
+      <c r="D313" s="22" t="s">
         <v>441</v>
       </c>
       <c r="E313" s="5" t="s">
@@ -13724,7 +13720,7 @@
         <v>2744</v>
       </c>
       <c r="C314" s="4"/>
-      <c r="D314" s="23" t="s">
+      <c r="D314" s="22" t="s">
         <v>442</v>
       </c>
       <c r="E314" s="5" t="s">
@@ -13757,7 +13753,7 @@
         <v>2745</v>
       </c>
       <c r="C315" s="4"/>
-      <c r="D315" s="23" t="s">
+      <c r="D315" s="22" t="s">
         <v>443</v>
       </c>
       <c r="E315" s="5" t="s">
@@ -13790,7 +13786,7 @@
         <v>2746</v>
       </c>
       <c r="C316" s="4"/>
-      <c r="D316" s="23" t="s">
+      <c r="D316" s="22" t="s">
         <v>444</v>
       </c>
       <c r="E316" s="5" t="s">
@@ -13823,7 +13819,7 @@
         <v>2747</v>
       </c>
       <c r="C317" s="4"/>
-      <c r="D317" s="23" t="s">
+      <c r="D317" s="22" t="s">
         <v>445</v>
       </c>
       <c r="E317" s="5" t="s">
@@ -13856,7 +13852,7 @@
         <v>2748</v>
       </c>
       <c r="C318" s="4"/>
-      <c r="D318" s="23" t="s">
+      <c r="D318" s="22" t="s">
         <v>446</v>
       </c>
       <c r="E318" s="5" t="s">
@@ -13889,7 +13885,7 @@
         <v>2749</v>
       </c>
       <c r="C319" s="4"/>
-      <c r="D319" s="23" t="s">
+      <c r="D319" s="22" t="s">
         <v>447</v>
       </c>
       <c r="E319" s="5" t="s">
@@ -13922,7 +13918,7 @@
         <v>2750</v>
       </c>
       <c r="C320" s="4"/>
-      <c r="D320" s="23" t="s">
+      <c r="D320" s="22" t="s">
         <v>448</v>
       </c>
       <c r="E320" s="5" t="s">
@@ -13955,7 +13951,7 @@
         <v>2751</v>
       </c>
       <c r="C321" s="4"/>
-      <c r="D321" s="23" t="s">
+      <c r="D321" s="22" t="s">
         <v>449</v>
       </c>
       <c r="E321" s="5" t="s">
@@ -13988,7 +13984,7 @@
         <v>2752</v>
       </c>
       <c r="C322" s="4"/>
-      <c r="D322" s="23" t="s">
+      <c r="D322" s="22" t="s">
         <v>450</v>
       </c>
       <c r="E322" s="5" t="s">
@@ -14021,7 +14017,7 @@
         <v>2753</v>
       </c>
       <c r="C323" s="4"/>
-      <c r="D323" s="23" t="s">
+      <c r="D323" s="22" t="s">
         <v>451</v>
       </c>
       <c r="E323" s="5" t="s">
@@ -14054,7 +14050,7 @@
         <v>2754</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="D324" s="23" t="s">
+      <c r="D324" s="22" t="s">
         <v>452</v>
       </c>
       <c r="E324" s="5" t="s">
@@ -14087,7 +14083,7 @@
         <v>2755</v>
       </c>
       <c r="C325" s="4"/>
-      <c r="D325" s="23" t="s">
+      <c r="D325" s="22" t="s">
         <v>453</v>
       </c>
       <c r="E325" s="5" t="s">
@@ -14120,7 +14116,7 @@
         <v>2756</v>
       </c>
       <c r="C326" s="4"/>
-      <c r="D326" s="23" t="s">
+      <c r="D326" s="22" t="s">
         <v>454</v>
       </c>
       <c r="E326" s="5" t="s">
@@ -14153,7 +14149,7 @@
         <v>2757</v>
       </c>
       <c r="C327" s="4"/>
-      <c r="D327" s="23" t="s">
+      <c r="D327" s="22" t="s">
         <v>455</v>
       </c>
       <c r="E327" s="5" t="s">
@@ -14186,7 +14182,7 @@
         <v>2758</v>
       </c>
       <c r="C328" s="4"/>
-      <c r="D328" s="23" t="s">
+      <c r="D328" s="22" t="s">
         <v>456</v>
       </c>
       <c r="E328" s="5" t="s">
@@ -14219,7 +14215,7 @@
         <v>2759</v>
       </c>
       <c r="C329" s="4"/>
-      <c r="D329" s="23" t="s">
+      <c r="D329" s="22" t="s">
         <v>457</v>
       </c>
       <c r="E329" s="5" t="s">
@@ -14252,7 +14248,7 @@
         <v>2760</v>
       </c>
       <c r="C330" s="4"/>
-      <c r="D330" s="23" t="s">
+      <c r="D330" s="22" t="s">
         <v>458</v>
       </c>
       <c r="E330" s="5" t="s">
@@ -14285,7 +14281,7 @@
         <v>2761</v>
       </c>
       <c r="C331" s="4"/>
-      <c r="D331" s="23" t="s">
+      <c r="D331" s="22" t="s">
         <v>459</v>
       </c>
       <c r="E331" s="5" t="s">
@@ -14318,7 +14314,7 @@
         <v>2762</v>
       </c>
       <c r="C332" s="4"/>
-      <c r="D332" s="23" t="s">
+      <c r="D332" s="22" t="s">
         <v>460</v>
       </c>
       <c r="E332" s="5" t="s">
@@ -14351,7 +14347,7 @@
         <v>2763</v>
       </c>
       <c r="C333" s="4"/>
-      <c r="D333" s="23" t="s">
+      <c r="D333" s="22" t="s">
         <v>461</v>
       </c>
       <c r="E333" s="5" t="s">
@@ -14384,7 +14380,7 @@
         <v>2764</v>
       </c>
       <c r="C334" s="4"/>
-      <c r="D334" s="23" t="s">
+      <c r="D334" s="22" t="s">
         <v>462</v>
       </c>
       <c r="E334" s="5" t="s">
@@ -14417,7 +14413,7 @@
         <v>2765</v>
       </c>
       <c r="C335" s="4"/>
-      <c r="D335" s="23" t="s">
+      <c r="D335" s="22" t="s">
         <v>463</v>
       </c>
       <c r="E335" s="5" t="s">
@@ -14450,7 +14446,7 @@
         <v>2766</v>
       </c>
       <c r="C336" s="4"/>
-      <c r="D336" s="23" t="s">
+      <c r="D336" s="22" t="s">
         <v>464</v>
       </c>
       <c r="E336" s="5" t="s">
@@ -14483,7 +14479,7 @@
         <v>2767</v>
       </c>
       <c r="C337" s="4"/>
-      <c r="D337" s="23" t="s">
+      <c r="D337" s="22" t="s">
         <v>465</v>
       </c>
       <c r="E337" s="5" t="s">
@@ -14516,7 +14512,7 @@
         <v>2768</v>
       </c>
       <c r="C338" s="4"/>
-      <c r="D338" s="23" t="s">
+      <c r="D338" s="22" t="s">
         <v>466</v>
       </c>
       <c r="E338" s="5" t="s">
@@ -14549,7 +14545,7 @@
         <v>2769</v>
       </c>
       <c r="C339" s="4"/>
-      <c r="D339" s="23" t="s">
+      <c r="D339" s="22" t="s">
         <v>467</v>
       </c>
       <c r="E339" s="5" t="s">
@@ -14582,7 +14578,7 @@
         <v>2770</v>
       </c>
       <c r="C340" s="4"/>
-      <c r="D340" s="23" t="s">
+      <c r="D340" s="22" t="s">
         <v>468</v>
       </c>
       <c r="E340" s="5" t="s">
@@ -14615,7 +14611,7 @@
         <v>2771</v>
       </c>
       <c r="C341" s="4"/>
-      <c r="D341" s="23" t="s">
+      <c r="D341" s="22" t="s">
         <v>469</v>
       </c>
       <c r="E341" s="5" t="s">
@@ -14648,7 +14644,7 @@
         <v>2772</v>
       </c>
       <c r="C342" s="4"/>
-      <c r="D342" s="23" t="s">
+      <c r="D342" s="22" t="s">
         <v>470</v>
       </c>
       <c r="E342" s="5" t="s">
@@ -14681,7 +14677,7 @@
         <v>2773</v>
       </c>
       <c r="C343" s="4"/>
-      <c r="D343" s="23" t="s">
+      <c r="D343" s="22" t="s">
         <v>471</v>
       </c>
       <c r="E343" s="5" t="s">
@@ -14714,7 +14710,7 @@
         <v>2774</v>
       </c>
       <c r="C344" s="4"/>
-      <c r="D344" s="23" t="s">
+      <c r="D344" s="22" t="s">
         <v>472</v>
       </c>
       <c r="E344" s="5" t="s">
@@ -14747,7 +14743,7 @@
         <v>2775</v>
       </c>
       <c r="C345" s="4"/>
-      <c r="D345" s="23" t="s">
+      <c r="D345" s="22" t="s">
         <v>473</v>
       </c>
       <c r="E345" s="5" t="s">
@@ -14780,7 +14776,7 @@
         <v>2776</v>
       </c>
       <c r="C346" s="4"/>
-      <c r="D346" s="23" t="s">
+      <c r="D346" s="22" t="s">
         <v>474</v>
       </c>
       <c r="E346" s="5" t="s">
@@ -14813,7 +14809,7 @@
         <v>2777</v>
       </c>
       <c r="C347" s="4"/>
-      <c r="D347" s="23" t="s">
+      <c r="D347" s="22" t="s">
         <v>475</v>
       </c>
       <c r="E347" s="5" t="s">
@@ -14846,7 +14842,7 @@
         <v>2778</v>
       </c>
       <c r="C348" s="4"/>
-      <c r="D348" s="23" t="s">
+      <c r="D348" s="22" t="s">
         <v>476</v>
       </c>
       <c r="E348" s="5" t="s">
@@ -14879,7 +14875,7 @@
         <v>2779</v>
       </c>
       <c r="C349" s="4"/>
-      <c r="D349" s="23" t="s">
+      <c r="D349" s="22" t="s">
         <v>477</v>
       </c>
       <c r="E349" s="5" t="s">
@@ -14912,7 +14908,7 @@
         <v>2780</v>
       </c>
       <c r="C350" s="4"/>
-      <c r="D350" s="23" t="s">
+      <c r="D350" s="22" t="s">
         <v>478</v>
       </c>
       <c r="E350" s="5" t="s">
@@ -14945,7 +14941,7 @@
         <v>2781</v>
       </c>
       <c r="C351" s="4"/>
-      <c r="D351" s="23" t="s">
+      <c r="D351" s="22" t="s">
         <v>479</v>
       </c>
       <c r="E351" s="5" t="s">
@@ -14978,7 +14974,7 @@
         <v>2782</v>
       </c>
       <c r="C352" s="4"/>
-      <c r="D352" s="23" t="s">
+      <c r="D352" s="22" t="s">
         <v>480</v>
       </c>
       <c r="E352" s="5" t="s">
@@ -15011,7 +15007,7 @@
         <v>2783</v>
       </c>
       <c r="C353" s="4"/>
-      <c r="D353" s="23" t="s">
+      <c r="D353" s="22" t="s">
         <v>481</v>
       </c>
       <c r="E353" s="5" t="s">
@@ -15044,7 +15040,7 @@
         <v>2784</v>
       </c>
       <c r="C354" s="4"/>
-      <c r="D354" s="23" t="s">
+      <c r="D354" s="22" t="s">
         <v>482</v>
       </c>
       <c r="E354" s="5" t="s">
@@ -15077,7 +15073,7 @@
         <v>2785</v>
       </c>
       <c r="C355" s="4"/>
-      <c r="D355" s="23" t="s">
+      <c r="D355" s="22" t="s">
         <v>483</v>
       </c>
       <c r="E355" s="5" t="s">
@@ -15110,7 +15106,7 @@
         <v>2786</v>
       </c>
       <c r="C356" s="4"/>
-      <c r="D356" s="23" t="s">
+      <c r="D356" s="22" t="s">
         <v>484</v>
       </c>
       <c r="E356" s="5" t="s">
@@ -15143,7 +15139,7 @@
         <v>2787</v>
       </c>
       <c r="C357" s="4"/>
-      <c r="D357" s="23" t="s">
+      <c r="D357" s="22" t="s">
         <v>485</v>
       </c>
       <c r="E357" s="5" t="s">
@@ -15176,7 +15172,7 @@
         <v>2788</v>
       </c>
       <c r="C358" s="4"/>
-      <c r="D358" s="23" t="s">
+      <c r="D358" s="22" t="s">
         <v>486</v>
       </c>
       <c r="E358" s="5" t="s">
@@ -15209,7 +15205,7 @@
         <v>2789</v>
       </c>
       <c r="C359" s="4"/>
-      <c r="D359" s="23" t="s">
+      <c r="D359" s="22" t="s">
         <v>487</v>
       </c>
       <c r="E359" s="5" t="s">
@@ -15242,7 +15238,7 @@
         <v>2790</v>
       </c>
       <c r="C360" s="4"/>
-      <c r="D360" s="23" t="s">
+      <c r="D360" s="22" t="s">
         <v>488</v>
       </c>
       <c r="E360" s="5" t="s">
@@ -15275,7 +15271,7 @@
         <v>2791</v>
       </c>
       <c r="C361" s="4"/>
-      <c r="D361" s="23" t="s">
+      <c r="D361" s="22" t="s">
         <v>489</v>
       </c>
       <c r="E361" s="5" t="s">
@@ -15308,7 +15304,7 @@
         <v>2792</v>
       </c>
       <c r="C362" s="4"/>
-      <c r="D362" s="23" t="s">
+      <c r="D362" s="22" t="s">
         <v>490</v>
       </c>
       <c r="E362" s="5" t="s">
@@ -15341,7 +15337,7 @@
         <v>2793</v>
       </c>
       <c r="C363" s="4"/>
-      <c r="D363" s="23" t="s">
+      <c r="D363" s="22" t="s">
         <v>491</v>
       </c>
       <c r="E363" s="5" t="s">
@@ -15374,7 +15370,7 @@
         <v>2794</v>
       </c>
       <c r="C364" s="4"/>
-      <c r="D364" s="23" t="s">
+      <c r="D364" s="22" t="s">
         <v>492</v>
       </c>
       <c r="E364" s="5" t="s">
@@ -15407,7 +15403,7 @@
         <v>2795</v>
       </c>
       <c r="C365" s="4"/>
-      <c r="D365" s="23" t="s">
+      <c r="D365" s="22" t="s">
         <v>493</v>
       </c>
       <c r="E365" s="5" t="s">
@@ -15440,7 +15436,7 @@
         <v>2796</v>
       </c>
       <c r="C366" s="4"/>
-      <c r="D366" s="23" t="s">
+      <c r="D366" s="22" t="s">
         <v>494</v>
       </c>
       <c r="E366" s="5" t="s">
@@ -15473,7 +15469,7 @@
         <v>2797</v>
       </c>
       <c r="C367" s="4"/>
-      <c r="D367" s="23" t="s">
+      <c r="D367" s="22" t="s">
         <v>495</v>
       </c>
       <c r="E367" s="5" t="s">
@@ -15506,7 +15502,7 @@
         <v>2798</v>
       </c>
       <c r="C368" s="4"/>
-      <c r="D368" s="23" t="s">
+      <c r="D368" s="22" t="s">
         <v>496</v>
       </c>
       <c r="E368" s="5" t="s">
@@ -15539,7 +15535,7 @@
         <v>2799</v>
       </c>
       <c r="C369" s="4"/>
-      <c r="D369" s="23" t="s">
+      <c r="D369" s="22" t="s">
         <v>497</v>
       </c>
       <c r="E369" s="5" t="s">
@@ -15572,7 +15568,7 @@
         <v>2800</v>
       </c>
       <c r="C370" s="4"/>
-      <c r="D370" s="23" t="s">
+      <c r="D370" s="22" t="s">
         <v>498</v>
       </c>
       <c r="E370" s="5" t="s">
@@ -15605,7 +15601,7 @@
         <v>2801</v>
       </c>
       <c r="C371" s="4"/>
-      <c r="D371" s="23" t="s">
+      <c r="D371" s="22" t="s">
         <v>499</v>
       </c>
       <c r="E371" s="5" t="s">
@@ -15638,7 +15634,7 @@
         <v>2802</v>
       </c>
       <c r="C372" s="4"/>
-      <c r="D372" s="23" t="s">
+      <c r="D372" s="22" t="s">
         <v>500</v>
       </c>
       <c r="E372" s="5" t="s">
@@ -15671,7 +15667,7 @@
         <v>2803</v>
       </c>
       <c r="C373" s="4"/>
-      <c r="D373" s="23" t="s">
+      <c r="D373" s="22" t="s">
         <v>501</v>
       </c>
       <c r="E373" s="5" t="s">
@@ -15704,7 +15700,7 @@
         <v>2804</v>
       </c>
       <c r="C374" s="4"/>
-      <c r="D374" s="23" t="s">
+      <c r="D374" s="22" t="s">
         <v>502</v>
       </c>
       <c r="E374" s="5" t="s">
@@ -15737,7 +15733,7 @@
         <v>2805</v>
       </c>
       <c r="C375" s="4"/>
-      <c r="D375" s="23" t="s">
+      <c r="D375" s="22" t="s">
         <v>503</v>
       </c>
       <c r="E375" s="5" t="s">
@@ -15770,7 +15766,7 @@
         <v>2806</v>
       </c>
       <c r="C376" s="4"/>
-      <c r="D376" s="23" t="s">
+      <c r="D376" s="22" t="s">
         <v>504</v>
       </c>
       <c r="E376" s="5" t="s">
@@ -15803,7 +15799,7 @@
         <v>2807</v>
       </c>
       <c r="C377" s="4"/>
-      <c r="D377" s="23" t="s">
+      <c r="D377" s="22" t="s">
         <v>505</v>
       </c>
       <c r="E377" s="5" t="s">
@@ -15836,7 +15832,7 @@
         <v>2808</v>
       </c>
       <c r="C378" s="4"/>
-      <c r="D378" s="23" t="s">
+      <c r="D378" s="22" t="s">
         <v>506</v>
       </c>
       <c r="E378" s="5" t="s">
@@ -15869,7 +15865,7 @@
         <v>2809</v>
       </c>
       <c r="C379" s="4"/>
-      <c r="D379" s="23" t="s">
+      <c r="D379" s="22" t="s">
         <v>507</v>
       </c>
       <c r="E379" s="5" t="s">
@@ -15902,7 +15898,7 @@
         <v>2810</v>
       </c>
       <c r="C380" s="4"/>
-      <c r="D380" s="23" t="s">
+      <c r="D380" s="22" t="s">
         <v>508</v>
       </c>
       <c r="E380" s="5" t="s">
@@ -15935,7 +15931,7 @@
         <v>2811</v>
       </c>
       <c r="C381" s="4"/>
-      <c r="D381" s="23" t="s">
+      <c r="D381" s="22" t="s">
         <v>509</v>
       </c>
       <c r="E381" s="5" t="s">
@@ -15968,7 +15964,7 @@
         <v>2812</v>
       </c>
       <c r="C382" s="4"/>
-      <c r="D382" s="23" t="s">
+      <c r="D382" s="22" t="s">
         <v>510</v>
       </c>
       <c r="E382" s="5" t="s">
@@ -16001,7 +15997,7 @@
         <v>2813</v>
       </c>
       <c r="C383" s="4"/>
-      <c r="D383" s="23" t="s">
+      <c r="D383" s="22" t="s">
         <v>511</v>
       </c>
       <c r="E383" s="5" t="s">
@@ -16034,7 +16030,7 @@
         <v>2814</v>
       </c>
       <c r="C384" s="4"/>
-      <c r="D384" s="23" t="s">
+      <c r="D384" s="22" t="s">
         <v>512</v>
       </c>
       <c r="E384" s="5" t="s">
@@ -16067,7 +16063,7 @@
         <v>2815</v>
       </c>
       <c r="C385" s="4"/>
-      <c r="D385" s="23" t="s">
+      <c r="D385" s="22" t="s">
         <v>513</v>
       </c>
       <c r="E385" s="5" t="s">
@@ -16100,7 +16096,7 @@
         <v>2816</v>
       </c>
       <c r="C386" s="4"/>
-      <c r="D386" s="23" t="s">
+      <c r="D386" s="22" t="s">
         <v>514</v>
       </c>
       <c r="E386" s="5" t="s">
@@ -16133,7 +16129,7 @@
         <v>2817</v>
       </c>
       <c r="C387" s="4"/>
-      <c r="D387" s="23" t="s">
+      <c r="D387" s="22" t="s">
         <v>515</v>
       </c>
       <c r="E387" s="5" t="s">
@@ -16166,7 +16162,7 @@
         <v>2818</v>
       </c>
       <c r="C388" s="4"/>
-      <c r="D388" s="23" t="s">
+      <c r="D388" s="22" t="s">
         <v>516</v>
       </c>
       <c r="E388" s="5" t="s">
@@ -16199,7 +16195,7 @@
         <v>2819</v>
       </c>
       <c r="C389" s="4"/>
-      <c r="D389" s="23" t="s">
+      <c r="D389" s="22" t="s">
         <v>517</v>
       </c>
       <c r="E389" s="5" t="s">
@@ -16232,7 +16228,7 @@
         <v>2820</v>
       </c>
       <c r="C390" s="4"/>
-      <c r="D390" s="23" t="s">
+      <c r="D390" s="22" t="s">
         <v>518</v>
       </c>
       <c r="E390" s="5" t="s">
@@ -16265,7 +16261,7 @@
         <v>2821</v>
       </c>
       <c r="C391" s="4"/>
-      <c r="D391" s="23" t="s">
+      <c r="D391" s="22" t="s">
         <v>519</v>
       </c>
       <c r="E391" s="5" t="s">
@@ -16298,7 +16294,7 @@
         <v>2822</v>
       </c>
       <c r="C392" s="4"/>
-      <c r="D392" s="23" t="s">
+      <c r="D392" s="22" t="s">
         <v>520</v>
       </c>
       <c r="E392" s="5" t="s">
@@ -16331,7 +16327,7 @@
         <v>2823</v>
       </c>
       <c r="C393" s="4"/>
-      <c r="D393" s="23" t="s">
+      <c r="D393" s="22" t="s">
         <v>521</v>
       </c>
       <c r="E393" s="5" t="s">
@@ -16364,7 +16360,7 @@
         <v>2824</v>
       </c>
       <c r="C394" s="4"/>
-      <c r="D394" s="23" t="s">
+      <c r="D394" s="22" t="s">
         <v>522</v>
       </c>
       <c r="E394" s="5" t="s">
@@ -16397,7 +16393,7 @@
         <v>2825</v>
       </c>
       <c r="C395" s="4"/>
-      <c r="D395" s="23" t="s">
+      <c r="D395" s="22" t="s">
         <v>523</v>
       </c>
       <c r="E395" s="5" t="s">
@@ -16430,7 +16426,7 @@
         <v>2826</v>
       </c>
       <c r="C396" s="4"/>
-      <c r="D396" s="23" t="s">
+      <c r="D396" s="22" t="s">
         <v>524</v>
       </c>
       <c r="E396" s="5" t="s">
@@ -16463,7 +16459,7 @@
         <v>2827</v>
       </c>
       <c r="C397" s="4"/>
-      <c r="D397" s="23" t="s">
+      <c r="D397" s="22" t="s">
         <v>525</v>
       </c>
       <c r="E397" s="5" t="s">
@@ -16496,7 +16492,7 @@
         <v>2828</v>
       </c>
       <c r="C398" s="4"/>
-      <c r="D398" s="23" t="s">
+      <c r="D398" s="22" t="s">
         <v>526</v>
       </c>
       <c r="E398" s="5" t="s">
@@ -16529,7 +16525,7 @@
         <v>2829</v>
       </c>
       <c r="C399" s="4"/>
-      <c r="D399" s="23" t="s">
+      <c r="D399" s="22" t="s">
         <v>527</v>
       </c>
       <c r="E399" s="5" t="s">
@@ -16562,7 +16558,7 @@
         <v>2830</v>
       </c>
       <c r="C400" s="4"/>
-      <c r="D400" s="23" t="s">
+      <c r="D400" s="22" t="s">
         <v>528</v>
       </c>
       <c r="E400" s="5" t="s">
@@ -16595,7 +16591,7 @@
         <v>2831</v>
       </c>
       <c r="C401" s="4"/>
-      <c r="D401" s="23" t="s">
+      <c r="D401" s="22" t="s">
         <v>529</v>
       </c>
       <c r="E401" s="5" t="s">
@@ -16628,7 +16624,7 @@
         <v>2832</v>
       </c>
       <c r="C402" s="4"/>
-      <c r="D402" s="23" t="s">
+      <c r="D402" s="22" t="s">
         <v>530</v>
       </c>
       <c r="E402" s="5" t="s">
@@ -16661,7 +16657,7 @@
         <v>2833</v>
       </c>
       <c r="C403" s="4"/>
-      <c r="D403" s="23" t="s">
+      <c r="D403" s="22" t="s">
         <v>531</v>
       </c>
       <c r="E403" s="5" t="s">
@@ -16694,7 +16690,7 @@
         <v>2834</v>
       </c>
       <c r="C404" s="4"/>
-      <c r="D404" s="23" t="s">
+      <c r="D404" s="22" t="s">
         <v>532</v>
       </c>
       <c r="E404" s="5" t="s">
@@ -16727,7 +16723,7 @@
         <v>2835</v>
       </c>
       <c r="C405" s="4"/>
-      <c r="D405" s="23" t="s">
+      <c r="D405" s="22" t="s">
         <v>533</v>
       </c>
       <c r="E405" s="5" t="s">
@@ -16756,7 +16752,7 @@
         <v>2836</v>
       </c>
       <c r="C406" s="4"/>
-      <c r="D406" s="23" t="s">
+      <c r="D406" s="22" t="s">
         <v>749</v>
       </c>
       <c r="E406" s="5" t="s">
@@ -16785,7 +16781,7 @@
         <v>2837</v>
       </c>
       <c r="C407" s="4"/>
-      <c r="D407" s="23" t="s">
+      <c r="D407" s="22" t="s">
         <v>748</v>
       </c>
       <c r="E407" s="5" t="s">
@@ -16814,7 +16810,7 @@
         <v>2838</v>
       </c>
       <c r="C408" s="4"/>
-      <c r="D408" s="23" t="s">
+      <c r="D408" s="22" t="s">
         <v>747</v>
       </c>
       <c r="E408" s="5" t="s">
@@ -16843,7 +16839,7 @@
         <v>2839</v>
       </c>
       <c r="C409" s="4"/>
-      <c r="D409" s="23" t="s">
+      <c r="D409" s="22" t="s">
         <v>746</v>
       </c>
       <c r="E409" s="5" t="s">
@@ -16872,7 +16868,7 @@
         <v>2840</v>
       </c>
       <c r="C410" s="4"/>
-      <c r="D410" s="23" t="s">
+      <c r="D410" s="22" t="s">
         <v>750</v>
       </c>
       <c r="E410" s="5" t="s">
@@ -16901,7 +16897,7 @@
         <v>2841</v>
       </c>
       <c r="C411" s="4"/>
-      <c r="D411" s="23" t="s">
+      <c r="D411" s="22" t="s">
         <v>751</v>
       </c>
       <c r="E411" s="5" t="s">
@@ -16928,7 +16924,7 @@
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
-      <c r="D412" s="28"/>
+      <c r="D412" s="27"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>

--- a/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
+++ b/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="824">
   <si>
     <t>№101</t>
   </si>
@@ -2636,6 +2636,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2643,7 +2644,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2951,8 +2951,8 @@
   <dimension ref="A1:L414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,10 +2969,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>399</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -3000,17 +3000,17 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="30" t="s">
         <v>633</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4195,8 +4195,8 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
+      <c r="A36" s="1">
+        <v>1001</v>
       </c>
       <c r="B36" s="4">
         <f>B3+101</f>
@@ -4232,8 +4232,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
+      <c r="A37" s="1">
+        <v>1002</v>
       </c>
       <c r="B37" s="4">
         <f>B36+1</f>
@@ -4269,8 +4269,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
+      <c r="A38" s="1">
+        <v>1003</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" ref="B38:B44" si="3">B37+1</f>
@@ -4306,8 +4306,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>34</v>
+      <c r="A39" s="1">
+        <v>1004</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="3"/>
@@ -4343,8 +4343,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
+      <c r="A40" s="1">
+        <v>1005</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="3"/>
@@ -4380,8 +4380,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
+      <c r="A41" s="1">
+        <v>1006</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="3"/>
@@ -4415,8 +4415,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>34</v>
+      <c r="A42" s="18">
+        <v>1007</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" si="3"/>
@@ -4447,13 +4447,13 @@
         <v>808</v>
       </c>
       <c r="K42" s="6"/>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="29" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>34</v>
+      <c r="A43" s="21">
+        <v>1008</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" si="3"/>
@@ -4484,13 +4484,13 @@
         <v>809</v>
       </c>
       <c r="K43" s="6"/>
-      <c r="L43" s="32" t="s">
+      <c r="L43" s="29" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>34</v>
+      <c r="A44" s="18">
+        <v>1009</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" si="3"/>
@@ -4521,7 +4521,7 @@
         <v>823</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="32" t="s">
+      <c r="L44" s="29" t="s">
         <v>821</v>
       </c>
     </row>
@@ -12246,17 +12246,17 @@
       <c r="A269" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B269" s="29" t="s">
+      <c r="B269" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="C269" s="29"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="29"/>
-      <c r="G269" s="29"/>
-      <c r="H269" s="29"/>
-      <c r="I269" s="29"/>
-      <c r="J269" s="29"/>
+      <c r="C269" s="30"/>
+      <c r="D269" s="30"/>
+      <c r="E269" s="30"/>
+      <c r="F269" s="30"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="30"/>
+      <c r="I269" s="30"/>
+      <c r="J269" s="30"/>
       <c r="K269" s="16"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">

--- a/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
+++ b/101_104/Протокол 101_104 v1.1 ARIS-2805.xlsx
@@ -2951,8 +2951,8 @@
   <dimension ref="A1:L414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="B36" s="4">
         <f>B3+101</f>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="B37" s="4">
         <f>B36+1</f>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" ref="B38:B44" si="3">B37+1</f>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="3"/>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>1005</v>
+        <v>1105</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="3"/>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1006</v>
+        <v>1106</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="3"/>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" si="3"/>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
-        <v>1008</v>
+        <v>1108</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" si="3"/>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
-        <v>1009</v>
+        <v>1109</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" si="3"/>
